--- a/BD/DiagramaActividades.xlsx
+++ b/BD/DiagramaActividades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="182">
   <si>
     <t>N° Actividad</t>
   </si>
@@ -266,9 +266,6 @@
     <t>CARDENAS</t>
   </si>
   <si>
-    <t>nikolay37@</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -354,6 +351,225 @@
   </si>
   <si>
     <t>Idretousuario</t>
+  </si>
+  <si>
+    <t>VENTAS</t>
+  </si>
+  <si>
+    <t>Idventas</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Fechaventa</t>
+  </si>
+  <si>
+    <t>donacion</t>
+  </si>
+  <si>
+    <t>Medicamentos</t>
+  </si>
+  <si>
+    <t>Telas</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>(1,1,'Aceite'),</t>
+  </si>
+  <si>
+    <t>(2,1,'Papel'),</t>
+  </si>
+  <si>
+    <t>(3,1,'Plastico'),</t>
+  </si>
+  <si>
+    <t>(4,1,'Metal'),</t>
+  </si>
+  <si>
+    <t>(5,1,'Medicamentos'),</t>
+  </si>
+  <si>
+    <t>(6,1,'Tecnologico'),</t>
+  </si>
+  <si>
+    <t>(7,1,'Telas'),</t>
+  </si>
+  <si>
+    <t>(8,2,'Usaquén'),</t>
+  </si>
+  <si>
+    <t>(9,2,'Chapinero'),</t>
+  </si>
+  <si>
+    <t>(10,2,'Santa Fe'),</t>
+  </si>
+  <si>
+    <t>(11,2,'San Cristóbal'),</t>
+  </si>
+  <si>
+    <t>(12,2,'Usme'),</t>
+  </si>
+  <si>
+    <t>(13,2,'Tunjuelito'),</t>
+  </si>
+  <si>
+    <t>(14,2,'Bosa'),</t>
+  </si>
+  <si>
+    <t>(15,2,'Kennedy'),</t>
+  </si>
+  <si>
+    <t>(16,2,'Fontibón'),</t>
+  </si>
+  <si>
+    <t>(17,2,'Engativá'),</t>
+  </si>
+  <si>
+    <t>(18,2,'Suba'),</t>
+  </si>
+  <si>
+    <t>(19,2,'Barrios Unidos'),</t>
+  </si>
+  <si>
+    <t>(20,2,'Teusaquillo'),</t>
+  </si>
+  <si>
+    <t>(21,2,'Los Mártires'),</t>
+  </si>
+  <si>
+    <t>(22,2,'Antonio Nariño'),</t>
+  </si>
+  <si>
+    <t>(23,2,'Puente Aranda'),</t>
+  </si>
+  <si>
+    <t>(24,2,'La Candelaria'),</t>
+  </si>
+  <si>
+    <t>(25,2,'Rafael Uribe Uribe'),</t>
+  </si>
+  <si>
+    <t>(26,2,'Ciudad Bolívar'),</t>
+  </si>
+  <si>
+    <t>(27,2,'Sumapaz'),</t>
+  </si>
+  <si>
+    <t>(28,3,'Pendiente'),</t>
+  </si>
+  <si>
+    <t>(29,3,'Redimido'),</t>
+  </si>
+  <si>
+    <t>(30,4,'Boletas Cine'),</t>
+  </si>
+  <si>
+    <t>(31,4,'Boletas Maloka'),</t>
+  </si>
+  <si>
+    <t>(32,4,'Dto 25%'),</t>
+  </si>
+  <si>
+    <t>(33,4,'Dto 20%'),</t>
+  </si>
+  <si>
+    <t>NATALIA</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>nataliaortiz@gmail.com</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Las Brisas</t>
+  </si>
+  <si>
+    <t>nikolay37@hotmail.com</t>
+  </si>
+  <si>
+    <t>Calle 136</t>
+  </si>
+  <si>
+    <t>Calle 138</t>
+  </si>
+  <si>
+    <t>Costa Azul</t>
+  </si>
+  <si>
+    <t>Costa Azul I</t>
+  </si>
+  <si>
+    <t>(,</t>
+  </si>
+  <si>
+    <t>','</t>
+  </si>
+  <si>
+    <t>Calle 140</t>
+  </si>
+  <si>
+    <t>Calle 142</t>
+  </si>
+  <si>
+    <t>Calle 144</t>
+  </si>
+  <si>
+    <t>jac 1</t>
+  </si>
+  <si>
+    <t>jac 3</t>
+  </si>
+  <si>
+    <t>(,'NIKOLAY','CARDENAS','319360','nikolay37@hotmail.com','31507','Suba','Calle 136','Costa Azul','','M','NIKOLAY CARDENAS','456879','Costa Azul'),</t>
+  </si>
+  <si>
+    <t>(,'JULIAN','RESTREPO','319360','julianrd19@hotmail.com','31507','Suba','Calle 138','','','M','JULIAN RESTREPO','654987','Costa Azul I'),</t>
+  </si>
+  <si>
+    <t>(,'ANDRES','MORENO','319360','andresmorenopinzon@gmail.com','31507','Suba','Calle 140','','','M','ANDRES MORENO','753159','jac 1'),</t>
+  </si>
+  <si>
+    <t>(,'DIEGO','MENA','320','ingelectronicadj@gmail.com','31507','Suba','Calle 142','','','M','DIEGO MENA','258147','jac 1'),</t>
+  </si>
+  <si>
+    <t>(,'NATALIA','ORTIZ','3143815824','nataliaortiz@gmail.com','31507','Suba','Calle 144','','Las Brisas','F','NATALIA ORTIZ','258147','jac 3'),</t>
+  </si>
+  <si>
+    <t>perfil</t>
+  </si>
+  <si>
+    <t>Reto a la JAC2</t>
+  </si>
+  <si>
+    <t>idusu_invitado</t>
+  </si>
+  <si>
+    <t>Lema</t>
+  </si>
+  <si>
+    <t>Por mi barrio limpio</t>
+  </si>
+  <si>
+    <t>porque voy a ganar</t>
+  </si>
+  <si>
+    <t>por el planeta y el premio</t>
   </si>
 </sst>
 </file>
@@ -405,7 +621,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,6 +637,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,7 +712,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -540,6 +762,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -852,7 +1076,7 @@
   <dimension ref="A1:AL22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,7 +1598,7 @@
       <c r="I15" s="17"/>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="1:38" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>1</v>
       </c>
@@ -1483,10 +1707,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,13 +1719,15 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1521,19 +1747,22 @@
         <v>75</v>
       </c>
       <c r="G1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="K1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1550,22 +1779,25 @@
         <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H2" t="s">
         <v>67</v>
       </c>
       <c r="I2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="K2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1579,7 +1811,7 @@
         <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -1588,16 +1820,19 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I3" t="s">
         <v>67</v>
       </c>
       <c r="J3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="K3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1608,121 +1843,150 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="J5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="K5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" t="s">
         <v>65</v>
       </c>
-      <c r="F6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="K7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>99</v>
       </c>
       <c r="D8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>98</v>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:J28"/>
+      <selection activeCell="K2" sqref="K2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1731,9 +1995,13 @@
     <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -1750,7 +2018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1766,8 +2034,21 @@
       <c r="J2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" t="str">
+        <f>CONCATENATE(K2,H2,",",I2,",'",J2,"'),")</f>
+        <v>(1,1,'Aceite'),</v>
+      </c>
+      <c r="N2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H3">
         <v>2</v>
       </c>
@@ -1777,8 +2058,21 @@
       <c r="J3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M34" si="0">CONCATENATE(K3,H3,",",I3,",'",J3,"'),")</f>
+        <v>(2,1,'Papel'),</v>
+      </c>
+      <c r="N3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H4">
         <v>3</v>
       </c>
@@ -1788,8 +2082,21 @@
       <c r="J4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="0"/>
+        <v>(3,1,'Plastico'),</v>
+      </c>
+      <c r="N4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H5">
         <v>4</v>
       </c>
@@ -1797,49 +2104,101 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="K5" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="0"/>
+        <v>(4,1,'Metal'),</v>
+      </c>
+      <c r="N5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H6">
         <v>5</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="K6" t="s">
+        <v>119</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="0"/>
+        <v>(5,1,'Medicamentos'),</v>
+      </c>
+      <c r="N6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="0"/>
+        <v>(6,1,'Tecnologico'),</v>
+      </c>
+      <c r="N7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H8">
         <v>7</v>
       </c>
       <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" t="s">
+        <v>119</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="0"/>
+        <v>(7,1,'Telas'),</v>
+      </c>
+      <c r="N8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>2</v>
       </c>
-      <c r="J8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
       <c r="H9">
         <v>8</v>
       </c>
@@ -1847,10 +2206,23 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="K9" t="s">
+        <v>119</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="0"/>
+        <v>(8,2,'Usaquén'),</v>
+      </c>
+      <c r="N9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H10">
         <v>9</v>
       </c>
@@ -1858,10 +2230,23 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="K10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="0"/>
+        <v>(9,2,'Chapinero'),</v>
+      </c>
+      <c r="N10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H11">
         <v>10</v>
       </c>
@@ -1869,10 +2254,23 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,2,'Santa Fe'),</v>
+      </c>
+      <c r="N11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H12">
         <v>11</v>
       </c>
@@ -1880,10 +2278,23 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="0"/>
+        <v>(11,2,'San Cristóbal'),</v>
+      </c>
+      <c r="N12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H13">
         <v>12</v>
       </c>
@@ -1891,10 +2302,23 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="K13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="0"/>
+        <v>(12,2,'Usme'),</v>
+      </c>
+      <c r="N13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H14">
         <v>13</v>
       </c>
@@ -1902,10 +2326,23 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="K14" t="s">
+        <v>119</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="0"/>
+        <v>(13,2,'Tunjuelito'),</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H15">
         <v>14</v>
       </c>
@@ -1913,10 +2350,23 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="K15" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="0"/>
+        <v>(14,2,'Bosa'),</v>
+      </c>
+      <c r="N15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H16">
         <v>15</v>
       </c>
@@ -1924,10 +2374,23 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="K16" t="s">
+        <v>119</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="0"/>
+        <v>(15,2,'Kennedy'),</v>
+      </c>
+      <c r="N16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H17">
         <v>16</v>
       </c>
@@ -1935,10 +2398,23 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="K17" t="s">
+        <v>119</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="0"/>
+        <v>(16,2,'Fontibón'),</v>
+      </c>
+      <c r="N17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H18">
         <v>17</v>
       </c>
@@ -1946,10 +2422,23 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="K18" t="s">
+        <v>119</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="0"/>
+        <v>(17,2,'Engativá'),</v>
+      </c>
+      <c r="N18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H19">
         <v>18</v>
       </c>
@@ -1957,10 +2446,23 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="K19" t="s">
+        <v>119</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="0"/>
+        <v>(18,2,'Suba'),</v>
+      </c>
+      <c r="N19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H20">
         <v>19</v>
       </c>
@@ -1968,10 +2470,23 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="K20" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="0"/>
+        <v>(19,2,'Barrios Unidos'),</v>
+      </c>
+      <c r="N20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H21">
         <v>20</v>
       </c>
@@ -1979,10 +2494,23 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="K21" t="s">
+        <v>119</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="0"/>
+        <v>(20,2,'Teusaquillo'),</v>
+      </c>
+      <c r="N21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H22">
         <v>21</v>
       </c>
@@ -1990,10 +2518,23 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="K22" t="s">
+        <v>119</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="0"/>
+        <v>(21,2,'Los Mártires'),</v>
+      </c>
+      <c r="N22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H23">
         <v>22</v>
       </c>
@@ -2001,10 +2542,23 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="K23" t="s">
+        <v>119</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="0"/>
+        <v>(22,2,'Antonio Nariño'),</v>
+      </c>
+      <c r="N23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H24">
         <v>23</v>
       </c>
@@ -2012,10 +2566,23 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="K24" t="s">
+        <v>119</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="0"/>
+        <v>(23,2,'Puente Aranda'),</v>
+      </c>
+      <c r="N24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H25">
         <v>24</v>
       </c>
@@ -2023,77 +2590,155 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="K25" t="s">
+        <v>119</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="0"/>
+        <v>(24,2,'La Candelaria'),</v>
+      </c>
+      <c r="N25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H26">
         <v>25</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="K26" t="s">
+        <v>119</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="0"/>
+        <v>(25,2,'Rafael Uribe Uribe'),</v>
+      </c>
+      <c r="N26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H27">
         <v>26</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>61</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="K27" t="s">
+        <v>119</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="0"/>
+        <v>(26,2,'Ciudad Bolívar'),</v>
+      </c>
+      <c r="N27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H28">
         <v>27</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="K28" t="s">
+        <v>119</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="0"/>
+        <v>(27,2,'Sumapaz'),</v>
+      </c>
+      <c r="N28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
       <c r="H29">
         <v>28</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="K29" t="s">
+        <v>119</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="0"/>
+        <v>(28,3,'Pendiente'),</v>
+      </c>
+      <c r="N29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H30">
         <v>29</v>
       </c>
       <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K30" t="s">
+        <v>119</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="0"/>
+        <v>(29,3,'Redimido'),</v>
+      </c>
+      <c r="N30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>4</v>
       </c>
-      <c r="J30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
       <c r="H31">
         <v>30</v>
       </c>
@@ -2101,7 +2746,92 @@
         <v>4</v>
       </c>
       <c r="J31" t="s">
+        <v>71</v>
+      </c>
+      <c r="K31" t="s">
+        <v>119</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="0"/>
+        <v>(30,4,'Boletas Cine'),</v>
+      </c>
+      <c r="N31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>31</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32" t="s">
+        <v>72</v>
+      </c>
+      <c r="K32" t="s">
+        <v>119</v>
+      </c>
+      <c r="L32" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="0"/>
+        <v>(31,4,'Boletas Maloka'),</v>
+      </c>
+      <c r="N32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>32</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K33" t="s">
+        <v>119</v>
+      </c>
+      <c r="L33" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="0"/>
+        <v>(32,4,'Dto 25%'),</v>
+      </c>
+      <c r="N33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>33</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34" t="s">
         <v>74</v>
+      </c>
+      <c r="K34" t="s">
+        <v>119</v>
+      </c>
+      <c r="L34" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="0"/>
+        <v>(33,4,'Dto 20%'),</v>
+      </c>
+      <c r="N34" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2111,13 +2841,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="29.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2155,18 +2888,20 @@
         <v>63</v>
       </c>
       <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
         <v>17</v>
       </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
       <c r="K3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L3" t="s">
         <v>64</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2196,11 +2931,12 @@
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>10</v>
       </c>
-      <c r="M4" s="11"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -2230,8 +2966,10 @@
       <c r="J5">
         <v>2</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5">
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>10</v>
       </c>
     </row>
@@ -2240,9 +2978,91 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H11" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" t="s">
+        <v>108</v>
+      </c>
+      <c r="J18" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>70</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+      <c r="L21" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2384,26 +3204,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A2:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" customWidth="1"/>
+    <col min="11" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -2420,19 +3241,34 @@
         <v>27</v>
       </c>
       <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2446,111 +3282,271 @@
         <v>319360</v>
       </c>
       <c r="E3" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="11">
+        <v>31507</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K3" t="s">
         <v>80</v>
       </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" s="11">
-        <v>31507</v>
-      </c>
-      <c r="I3">
+      <c r="L3" t="str">
+        <f>CONCATENATE(B3," ",C3)</f>
+        <v>NIKOLAY CARDENAS</v>
+      </c>
+      <c r="M3">
         <v>456879</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>161</v>
+      </c>
+      <c r="O3" t="s">
+        <v>163</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="R3" t="str">
+        <f>CONCATENATE(O3,P3,B3,Q3,C3,Q3,D3,Q3,,E3,Q3,F3,Q3,G3,Q3,H3,Q3,I3,Q3,J3,Q3,K3,Q3,L3,Q3,M3,Q3,N3,"'),")</f>
+        <v>(,'NIKOLAY','CARDENAS','319360','nikolay37@hotmail.com','31507','Suba','Calle 136','Costa Azul','','M','NIKOLAY CARDENAS','456879','Costa Azul'),</v>
+      </c>
+      <c r="S3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
         <v>82</v>
-      </c>
-      <c r="C4" t="s">
-        <v>83</v>
       </c>
       <c r="D4">
         <v>319360</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="11">
+        <v>31507</v>
+      </c>
+      <c r="G4" t="s">
         <v>36</v>
       </c>
-      <c r="G4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="11">
-        <v>31507</v>
-      </c>
-      <c r="I4">
+      <c r="H4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" ref="L4:L7" si="0">CONCATENATE(B4," ",C4)</f>
+        <v>JULIAN RESTREPO</v>
+      </c>
+      <c r="M4">
         <v>654987</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O4" t="s">
+        <v>163</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" ref="R4:R7" si="1">CONCATENATE(O4,P4,B4,Q4,C4,Q4,D4,Q4,,E4,Q4,F4,Q4,G4,Q4,H4,Q4,I4,Q4,J4,Q4,K4,Q4,L4,Q4,M4,Q4,N4,"'),")</f>
+        <v>(,'JULIAN','RESTREPO','319360','julianrd19@hotmail.com','31507','Suba','Calle 138','','','M','JULIAN RESTREPO','654987','Costa Azul I'),</v>
+      </c>
+      <c r="S4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
         <v>84</v>
-      </c>
-      <c r="C5" t="s">
-        <v>85</v>
       </c>
       <c r="D5">
         <v>319360</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="11">
+        <v>31507</v>
+      </c>
+      <c r="G5" t="s">
         <v>36</v>
       </c>
-      <c r="G5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="11">
-        <v>31507</v>
-      </c>
-      <c r="I5">
+      <c r="H5" t="s">
+        <v>165</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>ANDRES MORENO</v>
+      </c>
+      <c r="M5">
         <v>753159</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>168</v>
+      </c>
+      <c r="O5" t="s">
+        <v>163</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="1"/>
+        <v>(,'ANDRES','MORENO','319360','andresmorenopinzon@gmail.com','31507','Suba','Calle 140','','','M','ANDRES MORENO','753159','jac 1'),</v>
+      </c>
+      <c r="S5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
         <v>87</v>
-      </c>
-      <c r="C6" t="s">
-        <v>88</v>
       </c>
       <c r="D6">
         <v>320</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="11">
+        <v>31507</v>
+      </c>
+      <c r="G6" t="s">
         <v>36</v>
       </c>
-      <c r="G6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="11">
-        <v>31507</v>
-      </c>
-      <c r="I6">
+      <c r="H6" t="s">
+        <v>166</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v>DIEGO MENA</v>
+      </c>
+      <c r="M6">
         <v>258147</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>168</v>
+      </c>
+      <c r="O6" t="s">
+        <v>163</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="1"/>
+        <v>(,'DIEGO','MENA','320','ingelectronicadj@gmail.com','31507','Suba','Calle 142','','','M','DIEGO MENA','258147','jac 1'),</v>
+      </c>
+      <c r="S6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7">
+        <v>3143815824</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="11">
+        <v>31507</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>167</v>
+      </c>
+      <c r="J7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v>NATALIA ORTIZ</v>
+      </c>
+      <c r="M7">
+        <v>258147</v>
+      </c>
+      <c r="N7" t="s">
+        <v>169</v>
+      </c>
+      <c r="O7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="1"/>
+        <v>(,'NATALIA','ORTIZ','3143815824','nataliaortiz@gmail.com','31507','Suba','Calle 144','','Las Brisas','F','NATALIA ORTIZ','258147','jac 3'),</v>
+      </c>
+      <c r="S7" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2559,6 +3555,7 @@
     <hyperlink ref="E4" r:id="rId2"/>
     <hyperlink ref="E5" r:id="rId3"/>
     <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="E7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BD/DiagramaActividades.xlsx
+++ b/BD/DiagramaActividades.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FullStack\BD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico" sheetId="2" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <sheet name="PLANILLASREPORTE" sheetId="7" r:id="rId5"/>
     <sheet name="USUARIO" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="194">
   <si>
     <t>N° Actividad</t>
   </si>
@@ -266,9 +271,6 @@
     <t>CARDENAS</t>
   </si>
   <si>
-    <t>nikolay37@</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -350,16 +352,271 @@
     <t>Ubicación</t>
   </si>
   <si>
-    <t>responsable</t>
-  </si>
-  <si>
     <t>Idretousuario</t>
+  </si>
+  <si>
+    <t>VENTAS</t>
+  </si>
+  <si>
+    <t>Idventas</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Fechaventa</t>
+  </si>
+  <si>
+    <t>donacion</t>
+  </si>
+  <si>
+    <t>Medicamentos</t>
+  </si>
+  <si>
+    <t>Telas</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>(1,1,'Aceite'),</t>
+  </si>
+  <si>
+    <t>(6,1,'Tecnologico'),</t>
+  </si>
+  <si>
+    <t>(7,1,'Telas'),</t>
+  </si>
+  <si>
+    <t>(8,2,'Usaquén'),</t>
+  </si>
+  <si>
+    <t>(9,2,'Chapinero'),</t>
+  </si>
+  <si>
+    <t>(10,2,'Santa Fe'),</t>
+  </si>
+  <si>
+    <t>(11,2,'San Cristóbal'),</t>
+  </si>
+  <si>
+    <t>(12,2,'Usme'),</t>
+  </si>
+  <si>
+    <t>(13,2,'Tunjuelito'),</t>
+  </si>
+  <si>
+    <t>(14,2,'Bosa'),</t>
+  </si>
+  <si>
+    <t>(15,2,'Kennedy'),</t>
+  </si>
+  <si>
+    <t>(16,2,'Fontibón'),</t>
+  </si>
+  <si>
+    <t>(17,2,'Engativá'),</t>
+  </si>
+  <si>
+    <t>(18,2,'Suba'),</t>
+  </si>
+  <si>
+    <t>(19,2,'Barrios Unidos'),</t>
+  </si>
+  <si>
+    <t>(20,2,'Teusaquillo'),</t>
+  </si>
+  <si>
+    <t>(21,2,'Los Mártires'),</t>
+  </si>
+  <si>
+    <t>(22,2,'Antonio Nariño'),</t>
+  </si>
+  <si>
+    <t>(23,2,'Puente Aranda'),</t>
+  </si>
+  <si>
+    <t>(24,2,'La Candelaria'),</t>
+  </si>
+  <si>
+    <t>(25,2,'Rafael Uribe Uribe'),</t>
+  </si>
+  <si>
+    <t>(26,2,'Ciudad Bolívar'),</t>
+  </si>
+  <si>
+    <t>(27,2,'Sumapaz'),</t>
+  </si>
+  <si>
+    <t>(28,3,'Pendiente'),</t>
+  </si>
+  <si>
+    <t>(29,3,'Redimido'),</t>
+  </si>
+  <si>
+    <t>(30,4,'Boletas Cine'),</t>
+  </si>
+  <si>
+    <t>(31,4,'Boletas Maloka'),</t>
+  </si>
+  <si>
+    <t>(32,4,'Dto 25%'),</t>
+  </si>
+  <si>
+    <t>(33,4,'Dto 20%'),</t>
+  </si>
+  <si>
+    <t>NATALIA</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>nataliaortiz@gmail.com</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Las Brisas</t>
+  </si>
+  <si>
+    <t>nikolay37@hotmail.com</t>
+  </si>
+  <si>
+    <t>Calle 136</t>
+  </si>
+  <si>
+    <t>Calle 138</t>
+  </si>
+  <si>
+    <t>Costa Azul</t>
+  </si>
+  <si>
+    <t>Costa Azul I</t>
+  </si>
+  <si>
+    <t>','</t>
+  </si>
+  <si>
+    <t>Calle 140</t>
+  </si>
+  <si>
+    <t>Calle 142</t>
+  </si>
+  <si>
+    <t>Calle 144</t>
+  </si>
+  <si>
+    <t>jac 1</t>
+  </si>
+  <si>
+    <t>jac 3</t>
+  </si>
+  <si>
+    <t>Reto a la JAC2</t>
+  </si>
+  <si>
+    <t>idusu_invitado</t>
+  </si>
+  <si>
+    <t>Lema</t>
+  </si>
+  <si>
+    <t>Por mi barrio limpio</t>
+  </si>
+  <si>
+    <t>porque voy a ganar</t>
+  </si>
+  <si>
+    <t>por el planeta y el premio</t>
+  </si>
+  <si>
+    <t>Fechainicio</t>
+  </si>
+  <si>
+    <t>Fechacierre</t>
+  </si>
+  <si>
+    <t>(2,1,'Medicamentos'),</t>
+  </si>
+  <si>
+    <t>(3,1,'Metal'),</t>
+  </si>
+  <si>
+    <t>(4,1,'Papel'),</t>
+  </si>
+  <si>
+    <t>(5,1,'Plastico'),</t>
+  </si>
+  <si>
+    <t>Ganancia Recoleccion</t>
+  </si>
+  <si>
+    <t>(34,4,'Ganancia Recoleccion'),</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Responsalbe</t>
+  </si>
+  <si>
+    <t>Voluntario</t>
+  </si>
+  <si>
+    <t>(35,5,'Administrador'),</t>
+  </si>
+  <si>
+    <t>(36,5,'Responsalbe'),</t>
+  </si>
+  <si>
+    <t>(37,5,'Voluntario'),</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>(38,5,'Usuario'),</t>
+  </si>
+  <si>
+    <t>Perfil</t>
+  </si>
+  <si>
+    <t>idperfildetpar</t>
+  </si>
+  <si>
+    <t>idresponsable</t>
+  </si>
+  <si>
+    <t>(1,'NIKOLAY','CARDENAS','319360','nikolay37@hotmail.com','31507','Suba','Calle 136','Costa Azul','','M','NIKOLAY CARDENAS','456879','Costa Azul','35'),</t>
+  </si>
+  <si>
+    <t>(2,'JULIAN','RESTREPO','319360','julianrd19@hotmail.com','31507','Suba','Calle 138','','','M','JULIAN RESTREPO','654987','Costa Azul I','35'),</t>
+  </si>
+  <si>
+    <t>(3,'ANDRES','MORENO','319360','andresmorenopinzon@gmail.com','31507','Suba','Calle 140','','','M','ANDRES MORENO','753159','jac 1','35'),</t>
+  </si>
+  <si>
+    <t>(4,'DIEGO','MENA','320','ingelectronicadj@gmail.com','31507','Suba','Calle 142','','','M','DIEGO MENA','258147','jac 1','38'),</t>
+  </si>
+  <si>
+    <t>(5,'NATALIA','ORTIZ','3143815824','nataliaortiz@gmail.com','31507','Suba','Calle 144','','Las Brisas','F','NATALIA ORTIZ','258147','jac 3','38'),</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -405,7 +662,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,6 +678,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,7 +753,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -522,6 +785,8 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -841,7 +1106,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -852,7 +1117,7 @@
   <dimension ref="A1:AL22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,56 +1630,56 @@
       <c r="B15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="18"/>
-    </row>
-    <row r="16" spans="1:38" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>1</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2</v>
       </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>3</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17"/>
     </row>
     <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
@@ -1483,10 +1748,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,13 +1760,15 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1521,19 +1788,22 @@
         <v>75</v>
       </c>
       <c r="G1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="K1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1550,22 +1820,25 @@
         <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H2" t="s">
         <v>67</v>
       </c>
       <c r="I2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" t="s">
         <v>109</v>
       </c>
-      <c r="J2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1579,7 +1852,7 @@
         <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -1588,16 +1861,19 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I3" t="s">
         <v>67</v>
       </c>
       <c r="J3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="K3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1608,121 +1884,156 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="J5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="K5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" t="s">
+        <v>170</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" t="s">
         <v>65</v>
       </c>
-      <c r="F6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="J7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>99</v>
       </c>
       <c r="D8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>98</v>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:J28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1731,9 +2042,13 @@
     <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -1750,7 +2065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1766,8 +2081,21 @@
       <c r="J2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M2" t="str">
+        <f>CONCATENATE(K2,H2,",",I2,",'",J2,"'),")</f>
+        <v>(1,1,'Aceite'),</v>
+      </c>
+      <c r="N2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H3">
         <v>2</v>
       </c>
@@ -1775,10 +2103,23 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="K3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M4" si="0">CONCATENATE(K3,H3,",",I3,",'",J3,"'),")</f>
+        <v>(2,1,'Medicamentos'),</v>
+      </c>
+      <c r="N3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H4">
         <v>3</v>
       </c>
@@ -1786,10 +2127,23 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="K4" t="s">
+        <v>118</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="0"/>
+        <v>(3,1,'Metal'),</v>
+      </c>
+      <c r="N4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H5">
         <v>4</v>
       </c>
@@ -1797,49 +2151,101 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" ref="M3:M34" si="1">CONCATENATE(K5,H5,",",I5,",'",J5,"'),")</f>
+        <v>(4,1,'Papel'),</v>
+      </c>
+      <c r="N5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H6">
         <v>5</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="1"/>
+        <v>(5,1,'Plastico'),</v>
+      </c>
+      <c r="N6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="1"/>
+        <v>(6,1,'Tecnologico'),</v>
+      </c>
+      <c r="N7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H8">
         <v>7</v>
       </c>
       <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="1"/>
+        <v>(7,1,'Telas'),</v>
+      </c>
+      <c r="N8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>2</v>
       </c>
-      <c r="J8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
       <c r="H9">
         <v>8</v>
       </c>
@@ -1847,10 +2253,23 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="K9" t="s">
+        <v>118</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="1"/>
+        <v>(8,2,'Usaquén'),</v>
+      </c>
+      <c r="N9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H10">
         <v>9</v>
       </c>
@@ -1858,10 +2277,23 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="K10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="1"/>
+        <v>(9,2,'Chapinero'),</v>
+      </c>
+      <c r="N10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H11">
         <v>10</v>
       </c>
@@ -1869,10 +2301,23 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="K11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="1"/>
+        <v>(10,2,'Santa Fe'),</v>
+      </c>
+      <c r="N11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H12">
         <v>11</v>
       </c>
@@ -1880,10 +2325,23 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="1"/>
+        <v>(11,2,'San Cristóbal'),</v>
+      </c>
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H13">
         <v>12</v>
       </c>
@@ -1891,10 +2349,23 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="K13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="1"/>
+        <v>(12,2,'Usme'),</v>
+      </c>
+      <c r="N13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H14">
         <v>13</v>
       </c>
@@ -1902,10 +2373,23 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="K14" t="s">
+        <v>118</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="1"/>
+        <v>(13,2,'Tunjuelito'),</v>
+      </c>
+      <c r="N14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H15">
         <v>14</v>
       </c>
@@ -1913,10 +2397,23 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="K15" t="s">
+        <v>118</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="1"/>
+        <v>(14,2,'Bosa'),</v>
+      </c>
+      <c r="N15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H16">
         <v>15</v>
       </c>
@@ -1924,10 +2421,23 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="K16" t="s">
+        <v>118</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="1"/>
+        <v>(15,2,'Kennedy'),</v>
+      </c>
+      <c r="N16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H17">
         <v>16</v>
       </c>
@@ -1935,10 +2445,23 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="K17" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="1"/>
+        <v>(16,2,'Fontibón'),</v>
+      </c>
+      <c r="N17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H18">
         <v>17</v>
       </c>
@@ -1946,10 +2469,23 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="K18" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="1"/>
+        <v>(17,2,'Engativá'),</v>
+      </c>
+      <c r="N18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H19">
         <v>18</v>
       </c>
@@ -1957,10 +2493,23 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="K19" t="s">
+        <v>118</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="1"/>
+        <v>(18,2,'Suba'),</v>
+      </c>
+      <c r="N19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H20">
         <v>19</v>
       </c>
@@ -1968,10 +2517,23 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="K20" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="1"/>
+        <v>(19,2,'Barrios Unidos'),</v>
+      </c>
+      <c r="N20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H21">
         <v>20</v>
       </c>
@@ -1979,10 +2541,23 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="K21" t="s">
+        <v>118</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="1"/>
+        <v>(20,2,'Teusaquillo'),</v>
+      </c>
+      <c r="N21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H22">
         <v>21</v>
       </c>
@@ -1990,10 +2565,23 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="K22" t="s">
+        <v>118</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="1"/>
+        <v>(21,2,'Los Mártires'),</v>
+      </c>
+      <c r="N22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H23">
         <v>22</v>
       </c>
@@ -2001,10 +2589,23 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="K23" t="s">
+        <v>118</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="1"/>
+        <v>(22,2,'Antonio Nariño'),</v>
+      </c>
+      <c r="N23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H24">
         <v>23</v>
       </c>
@@ -2012,10 +2613,23 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="K24" t="s">
+        <v>118</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="1"/>
+        <v>(23,2,'Puente Aranda'),</v>
+      </c>
+      <c r="N24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H25">
         <v>24</v>
       </c>
@@ -2023,77 +2637,155 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="K25" t="s">
+        <v>118</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="1"/>
+        <v>(24,2,'La Candelaria'),</v>
+      </c>
+      <c r="N25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H26">
         <v>25</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="K26" t="s">
+        <v>118</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="1"/>
+        <v>(25,2,'Rafael Uribe Uribe'),</v>
+      </c>
+      <c r="N26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H27">
         <v>26</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>61</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="K27" t="s">
+        <v>118</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="1"/>
+        <v>(26,2,'Ciudad Bolívar'),</v>
+      </c>
+      <c r="N27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H28">
         <v>27</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="K28" t="s">
+        <v>118</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="1"/>
+        <v>(27,2,'Sumapaz'),</v>
+      </c>
+      <c r="N28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
       <c r="H29">
         <v>28</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="K29" t="s">
+        <v>118</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="1"/>
+        <v>(28,3,'Pendiente'),</v>
+      </c>
+      <c r="N29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H30">
         <v>29</v>
       </c>
       <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K30" t="s">
+        <v>118</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="1"/>
+        <v>(29,3,'Redimido'),</v>
+      </c>
+      <c r="N30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>4</v>
       </c>
-      <c r="J30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
       <c r="H31">
         <v>30</v>
       </c>
@@ -2101,7 +2793,218 @@
         <v>4</v>
       </c>
       <c r="J31" t="s">
+        <v>71</v>
+      </c>
+      <c r="K31" t="s">
+        <v>118</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="1"/>
+        <v>(30,4,'Boletas Cine'),</v>
+      </c>
+      <c r="N31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>31</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32" t="s">
+        <v>72</v>
+      </c>
+      <c r="K32" t="s">
+        <v>118</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="1"/>
+        <v>(31,4,'Boletas Maloka'),</v>
+      </c>
+      <c r="N32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>32</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K33" t="s">
+        <v>118</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="1"/>
+        <v>(32,4,'Dto 25%'),</v>
+      </c>
+      <c r="N33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>33</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34" t="s">
         <v>74</v>
+      </c>
+      <c r="K34" t="s">
+        <v>118</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="1"/>
+        <v>(33,4,'Dto 20%'),</v>
+      </c>
+      <c r="N34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>34</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+      <c r="J35" t="s">
+        <v>176</v>
+      </c>
+      <c r="K35" t="s">
+        <v>118</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" ref="M35" si="2">CONCATENATE(K35,H35,",",I35,",'",J35,"'),")</f>
+        <v>(34,4,'Ganancia Recoleccion'),</v>
+      </c>
+      <c r="N35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>186</v>
+      </c>
+      <c r="H36">
+        <v>35</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="J36" t="s">
+        <v>178</v>
+      </c>
+      <c r="K36" t="s">
+        <v>118</v>
+      </c>
+      <c r="L36" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" ref="M36:M38" si="3">CONCATENATE(K36,H36,",",I36,",'",J36,"'),")</f>
+        <v>(35,5,'Administrador'),</v>
+      </c>
+      <c r="N36" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>36</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="J37" t="s">
+        <v>179</v>
+      </c>
+      <c r="K37" t="s">
+        <v>118</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="3"/>
+        <v>(36,5,'Responsalbe'),</v>
+      </c>
+      <c r="N37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>37</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38" t="s">
+        <v>180</v>
+      </c>
+      <c r="K38" t="s">
+        <v>118</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="3"/>
+        <v>(37,5,'Voluntario'),</v>
+      </c>
+      <c r="N38" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>38</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39" t="s">
+        <v>184</v>
+      </c>
+      <c r="K39" t="s">
+        <v>118</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" ref="M39" si="4">CONCATENATE(K39,H39,",",I39,",'",J39,"'),")</f>
+        <v>(38,5,'Usuario'),</v>
+      </c>
+      <c r="N39" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2111,13 +3014,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F5"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="29.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2155,18 +3061,20 @@
         <v>63</v>
       </c>
       <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
         <v>17</v>
       </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
       <c r="K3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L3" t="s">
         <v>64</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2196,11 +3104,12 @@
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>10</v>
       </c>
-      <c r="M4" s="11"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -2230,8 +3139,10 @@
       <c r="J5">
         <v>2</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5">
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>10</v>
       </c>
     </row>
@@ -2240,9 +3151,91 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" t="s">
+        <v>107</v>
+      </c>
+      <c r="J18" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" t="s">
+        <v>165</v>
+      </c>
+      <c r="L18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>70</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+      <c r="L21" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2384,26 +3377,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A2:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" customWidth="1"/>
+    <col min="11" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="1.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -2420,19 +3415,37 @@
         <v>27</v>
       </c>
       <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2446,111 +3459,286 @@
         <v>319360</v>
       </c>
       <c r="E3" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="11">
+        <v>31507</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K3" t="s">
         <v>80</v>
       </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" s="11">
-        <v>31507</v>
-      </c>
-      <c r="I3">
+      <c r="L3" t="str">
+        <f>CONCATENATE(B3," ",C3)</f>
+        <v>NIKOLAY CARDENAS</v>
+      </c>
+      <c r="M3">
         <v>456879</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>156</v>
+      </c>
+      <c r="O3">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="S3" t="str">
+        <f>CONCATENATE(P3,A3,",",Q3,B3,R3,C3,R3,D3,R3,,E3,R3,F3,R3,G3,R3,H3,R3,I3,R3,J3,R3,K3,R3,L3,R3,M3,R3,N3,R3,O3,"'),")</f>
+        <v>(1,'NIKOLAY','CARDENAS','319360','nikolay37@hotmail.com','31507','Suba','Calle 136','Costa Azul','','M','NIKOLAY CARDENAS','456879','Costa Azul','35'),</v>
+      </c>
+      <c r="T3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
         <v>82</v>
-      </c>
-      <c r="C4" t="s">
-        <v>83</v>
       </c>
       <c r="D4">
         <v>319360</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="11">
+        <v>31507</v>
+      </c>
+      <c r="G4" t="s">
         <v>36</v>
       </c>
-      <c r="G4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="11">
-        <v>31507</v>
-      </c>
-      <c r="I4">
+      <c r="H4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" ref="L4:L7" si="0">CONCATENATE(B4," ",C4)</f>
+        <v>JULIAN RESTREPO</v>
+      </c>
+      <c r="M4">
         <v>654987</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>157</v>
+      </c>
+      <c r="O4">
+        <v>35</v>
+      </c>
+      <c r="P4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" ref="S4:S7" si="1">CONCATENATE(P4,A4,",",Q4,B4,R4,C4,R4,D4,R4,,E4,R4,F4,R4,G4,R4,H4,R4,I4,R4,J4,R4,K4,R4,L4,R4,M4,R4,N4,R4,O4,"'),")</f>
+        <v>(2,'JULIAN','RESTREPO','319360','julianrd19@hotmail.com','31507','Suba','Calle 138','','','M','JULIAN RESTREPO','654987','Costa Azul I','35'),</v>
+      </c>
+      <c r="T4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
         <v>84</v>
-      </c>
-      <c r="C5" t="s">
-        <v>85</v>
       </c>
       <c r="D5">
         <v>319360</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="11">
+        <v>31507</v>
+      </c>
+      <c r="G5" t="s">
         <v>36</v>
       </c>
-      <c r="G5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="11">
-        <v>31507</v>
-      </c>
-      <c r="I5">
+      <c r="H5" t="s">
+        <v>159</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>ANDRES MORENO</v>
+      </c>
+      <c r="M5">
         <v>753159</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>162</v>
+      </c>
+      <c r="O5">
+        <v>35</v>
+      </c>
+      <c r="P5" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" si="1"/>
+        <v>(3,'ANDRES','MORENO','319360','andresmorenopinzon@gmail.com','31507','Suba','Calle 140','','','M','ANDRES MORENO','753159','jac 1','35'),</v>
+      </c>
+      <c r="T5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
         <v>87</v>
-      </c>
-      <c r="C6" t="s">
-        <v>88</v>
       </c>
       <c r="D6">
         <v>320</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="11">
+        <v>31507</v>
+      </c>
+      <c r="G6" t="s">
         <v>36</v>
       </c>
-      <c r="G6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="11">
-        <v>31507</v>
-      </c>
-      <c r="I6">
+      <c r="H6" t="s">
+        <v>160</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v>DIEGO MENA</v>
+      </c>
+      <c r="M6">
         <v>258147</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>162</v>
+      </c>
+      <c r="O6">
+        <v>38</v>
+      </c>
+      <c r="P6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="1"/>
+        <v>(4,'DIEGO','MENA','320','ingelectronicadj@gmail.com','31507','Suba','Calle 142','','','M','DIEGO MENA','258147','jac 1','38'),</v>
+      </c>
+      <c r="T6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7">
+        <v>3143815824</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="11">
+        <v>31507</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>161</v>
+      </c>
+      <c r="J7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v>NATALIA ORTIZ</v>
+      </c>
+      <c r="M7">
+        <v>258147</v>
+      </c>
+      <c r="N7" t="s">
+        <v>163</v>
+      </c>
+      <c r="O7">
+        <v>38</v>
+      </c>
+      <c r="P7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="1"/>
+        <v>(5,'NATALIA','ORTIZ','3143815824','nataliaortiz@gmail.com','31507','Suba','Calle 144','','Las Brisas','F','NATALIA ORTIZ','258147','jac 3','38'),</v>
+      </c>
+      <c r="T7" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2559,6 +3747,7 @@
     <hyperlink ref="E4" r:id="rId2"/>
     <hyperlink ref="E5" r:id="rId3"/>
     <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="E7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BD/DiagramaActividades.xlsx
+++ b/BD/DiagramaActividades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9630" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="198">
   <si>
     <t>N° Actividad</t>
   </si>
@@ -254,9 +254,6 @@
     <t>REDENCION</t>
   </si>
   <si>
-    <t>idpuntuacion</t>
-  </si>
-  <si>
     <t>Idpuntacoin</t>
   </si>
   <si>
@@ -347,9 +344,6 @@
     <t>Ubicación</t>
   </si>
   <si>
-    <t>responsable</t>
-  </si>
-  <si>
     <t>Idretousuario</t>
   </si>
   <si>
@@ -389,18 +383,6 @@
     <t>(1,1,'Aceite'),</t>
   </si>
   <si>
-    <t>(2,1,'Papel'),</t>
-  </si>
-  <si>
-    <t>(3,1,'Plastico'),</t>
-  </si>
-  <si>
-    <t>(4,1,'Metal'),</t>
-  </si>
-  <si>
-    <t>(5,1,'Medicamentos'),</t>
-  </si>
-  <si>
     <t>(6,1,'Tecnologico'),</t>
   </si>
   <si>
@@ -515,9 +497,6 @@
     <t>Costa Azul I</t>
   </si>
   <si>
-    <t>(,</t>
-  </si>
-  <si>
     <t>','</t>
   </si>
   <si>
@@ -536,24 +515,6 @@
     <t>jac 3</t>
   </si>
   <si>
-    <t>(,'NIKOLAY','CARDENAS','319360','nikolay37@hotmail.com','31507','Suba','Calle 136','Costa Azul','','M','NIKOLAY CARDENAS','456879','Costa Azul'),</t>
-  </si>
-  <si>
-    <t>(,'JULIAN','RESTREPO','319360','julianrd19@hotmail.com','31507','Suba','Calle 138','','','M','JULIAN RESTREPO','654987','Costa Azul I'),</t>
-  </si>
-  <si>
-    <t>(,'ANDRES','MORENO','319360','andresmorenopinzon@gmail.com','31507','Suba','Calle 140','','','M','ANDRES MORENO','753159','jac 1'),</t>
-  </si>
-  <si>
-    <t>(,'DIEGO','MENA','320','ingelectronicadj@gmail.com','31507','Suba','Calle 142','','','M','DIEGO MENA','258147','jac 1'),</t>
-  </si>
-  <si>
-    <t>(,'NATALIA','ORTIZ','3143815824','nataliaortiz@gmail.com','31507','Suba','Calle 144','','Las Brisas','F','NATALIA ORTIZ','258147','jac 3'),</t>
-  </si>
-  <si>
-    <t>perfil</t>
-  </si>
-  <si>
     <t>Reto a la JAC2</t>
   </si>
   <si>
@@ -570,6 +531,93 @@
   </si>
   <si>
     <t>por el planeta y el premio</t>
+  </si>
+  <si>
+    <t>Fechainicio</t>
+  </si>
+  <si>
+    <t>Fechacierre</t>
+  </si>
+  <si>
+    <t>(2,1,'Medicamentos'),</t>
+  </si>
+  <si>
+    <t>(3,1,'Metal'),</t>
+  </si>
+  <si>
+    <t>(4,1,'Papel'),</t>
+  </si>
+  <si>
+    <t>(5,1,'Plastico'),</t>
+  </si>
+  <si>
+    <t>Ganancia Recoleccion</t>
+  </si>
+  <si>
+    <t>(34,4,'Ganancia Recoleccion'),</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Responsalbe</t>
+  </si>
+  <si>
+    <t>Voluntario</t>
+  </si>
+  <si>
+    <t>(35,5,'Administrador'),</t>
+  </si>
+  <si>
+    <t>(36,5,'Responsalbe'),</t>
+  </si>
+  <si>
+    <t>(37,5,'Voluntario'),</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>(38,5,'Usuario'),</t>
+  </si>
+  <si>
+    <t>Perfil</t>
+  </si>
+  <si>
+    <t>idperfildetpar</t>
+  </si>
+  <si>
+    <t>idresponsable</t>
+  </si>
+  <si>
+    <t>(1,'NIKOLAY','CARDENAS','319360','nikolay37@hotmail.com','31507','Suba','Calle 136','Costa Azul','','M','NIKOLAY CARDENAS','456879','Costa Azul','35'),</t>
+  </si>
+  <si>
+    <t>(2,'JULIAN','RESTREPO','319360','julianrd19@hotmail.com','31507','Suba','Calle 138','','','M','JULIAN RESTREPO','654987','Costa Azul I','35'),</t>
+  </si>
+  <si>
+    <t>(3,'ANDRES','MORENO','319360','andresmorenopinzon@gmail.com','31507','Suba','Calle 140','','','M','ANDRES MORENO','753159','jac 1','35'),</t>
+  </si>
+  <si>
+    <t>(4,'DIEGO','MENA','320','ingelectronicadj@gmail.com','31507','Suba','Calle 142','','','M','DIEGO MENA','258147','jac 1','38'),</t>
+  </si>
+  <si>
+    <t>(5,'NATALIA','ORTIZ','3143815824','nataliaortiz@gmail.com','31507','Suba','Calle 144','','Las Brisas','F','NATALIA ORTIZ','258147','jac 3','38'),</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>idLocalidad</t>
+  </si>
+  <si>
+    <t>RECOLECCION</t>
+  </si>
+  <si>
+    <t>idrecoleccion</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -744,6 +792,8 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -762,8 +812,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -808,6 +856,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>45178</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123950" y="1419225"/>
+          <a:ext cx="10058400" cy="6436453"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1589,56 +1686,56 @@
       <c r="B15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>1</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2</v>
       </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>3</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17"/>
     </row>
     <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
@@ -1709,8 +1806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1738,7 +1835,7 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
@@ -1747,19 +1844,19 @@
         <v>75</v>
       </c>
       <c r="G1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1773,28 +1870,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H2" t="s">
         <v>67</v>
       </c>
       <c r="I2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" t="s">
         <v>108</v>
-      </c>
-      <c r="J2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1808,7 +1905,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -1820,16 +1917,16 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I3" t="s">
         <v>67</v>
       </c>
       <c r="J3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1840,22 +1937,22 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
@@ -1869,36 +1966,39 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I5" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="J5" t="s">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="K5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>193</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
         <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="J6" t="s">
+        <v>169</v>
       </c>
       <c r="K6" t="s">
         <v>12</v>
@@ -1909,45 +2009,51 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
         <v>65</v>
       </c>
+      <c r="J7" t="s">
+        <v>170</v>
+      </c>
       <c r="K7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>194</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1957,7 +2063,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1967,12 +2073,12 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1983,10 +2089,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:M2"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2035,17 +2141,17 @@
         <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>119</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M2" t="str">
         <f>CONCATENATE(K2,H2,",",I2,",'",J2,"'),")</f>
         <v>(1,1,'Aceite'),</v>
       </c>
       <c r="N2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2056,20 +2162,20 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="K3" t="s">
-        <v>119</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M34" si="0">CONCATENATE(K3,H3,",",I3,",'",J3,"'),")</f>
-        <v>(2,1,'Papel'),</v>
+        <f t="shared" ref="M3:M4" si="0">CONCATENATE(K3,H3,",",I3,",'",J3,"'),")</f>
+        <v>(2,1,'Medicamentos'),</v>
       </c>
       <c r="N3" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2080,20 +2186,20 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="K4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="0"/>
-        <v>(3,1,'Plastico'),</v>
+        <v>(3,1,'Metal'),</v>
       </c>
       <c r="N4" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -2104,20 +2210,20 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="K5" t="s">
-        <v>119</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" si="0"/>
-        <v>(4,1,'Metal'),</v>
+        <f t="shared" ref="M5:M34" si="1">CONCATENATE(K5,H5,",",I5,",'",J5,"'),")</f>
+        <v>(4,1,'Papel'),</v>
       </c>
       <c r="N5" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -2128,20 +2234,20 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="K6" t="s">
-        <v>119</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="0"/>
-        <v>(5,1,'Medicamentos'),</v>
+        <f t="shared" si="1"/>
+        <v>(5,1,'Plastico'),</v>
       </c>
       <c r="N6" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -2155,17 +2261,17 @@
         <v>34</v>
       </c>
       <c r="K7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="1"/>
+        <v>(6,1,'Tecnologico'),</v>
+      </c>
+      <c r="N7" t="s">
         <v>119</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="M7" t="str">
-        <f t="shared" si="0"/>
-        <v>(6,1,'Tecnologico'),</v>
-      </c>
-      <c r="N7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -2176,20 +2282,20 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K8" t="s">
-        <v>119</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(7,1,'Telas'),</v>
       </c>
       <c r="N8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -2209,17 +2315,17 @@
         <v>37</v>
       </c>
       <c r="K9" t="s">
-        <v>119</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(8,2,'Usaquén'),</v>
       </c>
       <c r="N9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -2233,17 +2339,17 @@
         <v>38</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(9,2,'Chapinero'),</v>
       </c>
       <c r="N10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -2257,17 +2363,17 @@
         <v>39</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(10,2,'Santa Fe'),</v>
       </c>
       <c r="N11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2281,17 +2387,17 @@
         <v>40</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(11,2,'San Cristóbal'),</v>
       </c>
       <c r="N12" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2305,17 +2411,17 @@
         <v>41</v>
       </c>
       <c r="K13" t="s">
-        <v>119</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(12,2,'Usme'),</v>
       </c>
       <c r="N13" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2329,17 +2435,17 @@
         <v>42</v>
       </c>
       <c r="K14" t="s">
-        <v>119</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(13,2,'Tunjuelito'),</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2353,17 +2459,17 @@
         <v>35</v>
       </c>
       <c r="K15" t="s">
-        <v>119</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(14,2,'Bosa'),</v>
       </c>
       <c r="N15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2377,17 +2483,17 @@
         <v>43</v>
       </c>
       <c r="K16" t="s">
-        <v>119</v>
-      </c>
-      <c r="L16" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(15,2,'Kennedy'),</v>
       </c>
       <c r="N16" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -2401,17 +2507,17 @@
         <v>44</v>
       </c>
       <c r="K17" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(16,2,'Fontibón'),</v>
       </c>
       <c r="N17" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2425,17 +2531,17 @@
         <v>45</v>
       </c>
       <c r="K18" t="s">
-        <v>119</v>
-      </c>
-      <c r="L18" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(17,2,'Engativá'),</v>
       </c>
       <c r="N18" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2449,17 +2555,17 @@
         <v>36</v>
       </c>
       <c r="K19" t="s">
-        <v>119</v>
-      </c>
-      <c r="L19" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(18,2,'Suba'),</v>
       </c>
       <c r="N19" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2473,17 +2579,17 @@
         <v>46</v>
       </c>
       <c r="K20" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(19,2,'Barrios Unidos'),</v>
       </c>
       <c r="N20" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -2497,17 +2603,17 @@
         <v>47</v>
       </c>
       <c r="K21" t="s">
-        <v>119</v>
-      </c>
-      <c r="L21" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(20,2,'Teusaquillo'),</v>
       </c>
       <c r="N21" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -2521,17 +2627,17 @@
         <v>48</v>
       </c>
       <c r="K22" t="s">
-        <v>119</v>
-      </c>
-      <c r="L22" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(21,2,'Los Mártires'),</v>
       </c>
       <c r="N22" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -2545,17 +2651,17 @@
         <v>49</v>
       </c>
       <c r="K23" t="s">
-        <v>119</v>
-      </c>
-      <c r="L23" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(22,2,'Antonio Nariño'),</v>
       </c>
       <c r="N23" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2569,17 +2675,17 @@
         <v>50</v>
       </c>
       <c r="K24" t="s">
-        <v>119</v>
-      </c>
-      <c r="L24" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(23,2,'Puente Aranda'),</v>
       </c>
       <c r="N24" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -2593,17 +2699,17 @@
         <v>51</v>
       </c>
       <c r="K25" t="s">
-        <v>119</v>
-      </c>
-      <c r="L25" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(24,2,'La Candelaria'),</v>
       </c>
       <c r="N25" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -2617,17 +2723,17 @@
         <v>52</v>
       </c>
       <c r="K26" t="s">
-        <v>119</v>
-      </c>
-      <c r="L26" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(25,2,'Rafael Uribe Uribe'),</v>
       </c>
       <c r="N26" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -2641,17 +2747,17 @@
         <v>53</v>
       </c>
       <c r="K27" t="s">
-        <v>119</v>
-      </c>
-      <c r="L27" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(26,2,'Ciudad Bolívar'),</v>
       </c>
       <c r="N27" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2665,17 +2771,17 @@
         <v>54</v>
       </c>
       <c r="K28" t="s">
-        <v>119</v>
-      </c>
-      <c r="L28" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(27,2,'Sumapaz'),</v>
       </c>
       <c r="N28" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -2695,17 +2801,17 @@
         <v>59</v>
       </c>
       <c r="K29" t="s">
-        <v>119</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(28,3,'Pendiente'),</v>
       </c>
       <c r="N29" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2719,17 +2825,17 @@
         <v>60</v>
       </c>
       <c r="K30" t="s">
-        <v>119</v>
-      </c>
-      <c r="L30" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(29,3,'Redimido'),</v>
       </c>
       <c r="N30" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2749,17 +2855,17 @@
         <v>71</v>
       </c>
       <c r="K31" t="s">
-        <v>119</v>
-      </c>
-      <c r="L31" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(30,4,'Boletas Cine'),</v>
       </c>
       <c r="N31" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2773,20 +2879,20 @@
         <v>72</v>
       </c>
       <c r="K32" t="s">
-        <v>119</v>
-      </c>
-      <c r="L32" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(31,4,'Boletas Maloka'),</v>
       </c>
       <c r="N32" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="8:14" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H33">
         <v>32</v>
       </c>
@@ -2797,20 +2903,20 @@
         <v>73</v>
       </c>
       <c r="K33" t="s">
-        <v>119</v>
-      </c>
-      <c r="L33" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(32,4,'Dto 25%'),</v>
       </c>
       <c r="N33" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="34" spans="8:14" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H34">
         <v>33</v>
       </c>
@@ -2821,17 +2927,143 @@
         <v>74</v>
       </c>
       <c r="K34" t="s">
-        <v>119</v>
-      </c>
-      <c r="L34" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(33,4,'Dto 20%'),</v>
       </c>
       <c r="N34" t="s">
-        <v>152</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>34</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+      <c r="J35" t="s">
+        <v>175</v>
+      </c>
+      <c r="K35" t="s">
+        <v>117</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" ref="M35" si="2">CONCATENATE(K35,H35,",",I35,",'",J35,"'),")</f>
+        <v>(34,4,'Ganancia Recoleccion'),</v>
+      </c>
+      <c r="N35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>185</v>
+      </c>
+      <c r="H36">
+        <v>35</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="J36" t="s">
+        <v>177</v>
+      </c>
+      <c r="K36" t="s">
+        <v>117</v>
+      </c>
+      <c r="L36" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" ref="M36:M38" si="3">CONCATENATE(K36,H36,",",I36,",'",J36,"'),")</f>
+        <v>(35,5,'Administrador'),</v>
+      </c>
+      <c r="N36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>36</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="J37" t="s">
+        <v>178</v>
+      </c>
+      <c r="K37" t="s">
+        <v>117</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="3"/>
+        <v>(36,5,'Responsalbe'),</v>
+      </c>
+      <c r="N37" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>37</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38" t="s">
+        <v>179</v>
+      </c>
+      <c r="K38" t="s">
+        <v>117</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="3"/>
+        <v>(37,5,'Voluntario'),</v>
+      </c>
+      <c r="N38" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>38</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39" t="s">
+        <v>183</v>
+      </c>
+      <c r="K39" t="s">
+        <v>117</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" ref="M39" si="4">CONCATENATE(K39,H39,",",I39,",'",J39,"'),")</f>
+        <v>(38,5,'Usuario'),</v>
+      </c>
+      <c r="N39" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2843,7 +3075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -2867,7 +3099,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -2894,7 +3126,7 @@
         <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L3" t="s">
         <v>64</v>
@@ -2979,14 +3211,14 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="14" t="s">
         <v>66</v>
       </c>
       <c r="I11" t="s">
         <v>67</v>
       </c>
       <c r="J11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s">
         <v>15</v>
@@ -3000,24 +3232,24 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J18" t="s">
         <v>67</v>
       </c>
       <c r="K18" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="L18" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -3034,7 +3266,7 @@
         <v>2</v>
       </c>
       <c r="L19" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -3048,7 +3280,7 @@
         <v>3</v>
       </c>
       <c r="L20" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -3062,7 +3294,7 @@
         <v>4</v>
       </c>
       <c r="L21" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3075,7 +3307,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3104,7 +3336,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="11">
-        <v>43363</v>
+        <v>43379</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -3118,7 +3350,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="11">
-        <v>43363</v>
+        <v>43379</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -3132,7 +3364,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="11">
-        <v>43363</v>
+        <v>43379</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -3146,7 +3378,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="11">
-        <v>43363</v>
+        <v>43379</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -3160,7 +3392,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="11">
-        <v>43363</v>
+        <v>43379</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -3174,7 +3406,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="11">
-        <v>43363</v>
+        <v>43379</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -3188,7 +3420,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="11">
-        <v>43363</v>
+        <v>43379</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -3204,10 +3436,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S7"/>
+  <dimension ref="A2:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3219,12 +3451,13 @@
     <col min="9" max="9" width="6.28515625" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" customWidth="1"/>
     <col min="11" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="1.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="1.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="1.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -3247,42 +3480,45 @@
         <v>26</v>
       </c>
       <c r="H2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" t="s">
         <v>98</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>99</v>
-      </c>
-      <c r="J2" t="s">
-        <v>100</v>
       </c>
       <c r="K2" t="s">
         <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M2" t="s">
         <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="O2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
         <v>78</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
       </c>
       <c r="D3">
         <v>319360</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F3" s="11">
         <v>31507</v>
@@ -3291,13 +3527,13 @@
         <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L3" t="str">
         <f>CONCATENATE(B3," ",C3)</f>
@@ -3307,40 +3543,43 @@
         <v>456879</v>
       </c>
       <c r="N3" t="s">
-        <v>161</v>
-      </c>
-      <c r="O3" t="s">
-        <v>163</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="R3" t="str">
-        <f>CONCATENATE(O3,P3,B3,Q3,C3,Q3,D3,Q3,,E3,Q3,F3,Q3,G3,Q3,H3,Q3,I3,Q3,J3,Q3,K3,Q3,L3,Q3,M3,Q3,N3,"'),")</f>
-        <v>(,'NIKOLAY','CARDENAS','319360','nikolay37@hotmail.com','31507','Suba','Calle 136','Costa Azul','','M','NIKOLAY CARDENAS','456879','Costa Azul'),</v>
-      </c>
-      <c r="S3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="O3">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="S3" t="str">
+        <f>CONCATENATE(P3,A3,",",Q3,B3,R3,C3,R3,D3,R3,,E3,R3,F3,R3,G3,R3,H3,R3,I3,R3,J3,R3,K3,R3,L3,R3,M3,R3,N3,R3,O3,"'),")</f>
+        <v>(1,'NIKOLAY','CARDENAS','319360','nikolay37@hotmail.com','31507','Suba','Calle 136','Costa Azul','','M','NIKOLAY CARDENAS','456879','Costa Azul','35'),</v>
+      </c>
+      <c r="T3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
         <v>81</v>
-      </c>
-      <c r="C4" t="s">
-        <v>82</v>
       </c>
       <c r="D4">
         <v>319360</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" s="11">
         <v>31507</v>
@@ -3349,10 +3588,10 @@
         <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" ref="L4:L7" si="0">CONCATENATE(B4," ",C4)</f>
@@ -3362,40 +3601,43 @@
         <v>654987</v>
       </c>
       <c r="N4" t="s">
-        <v>162</v>
-      </c>
-      <c r="O4" t="s">
-        <v>163</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="R4" t="str">
-        <f t="shared" ref="R4:R7" si="1">CONCATENATE(O4,P4,B4,Q4,C4,Q4,D4,Q4,,E4,Q4,F4,Q4,G4,Q4,H4,Q4,I4,Q4,J4,Q4,K4,Q4,L4,Q4,M4,Q4,N4,"'),")</f>
-        <v>(,'JULIAN','RESTREPO','319360','julianrd19@hotmail.com','31507','Suba','Calle 138','','','M','JULIAN RESTREPO','654987','Costa Azul I'),</v>
-      </c>
-      <c r="S4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="O4">
+        <v>35</v>
+      </c>
+      <c r="P4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" ref="S4:S7" si="1">CONCATENATE(P4,A4,",",Q4,B4,R4,C4,R4,D4,R4,,E4,R4,F4,R4,G4,R4,H4,R4,I4,R4,J4,R4,K4,R4,L4,R4,M4,R4,N4,R4,O4,"'),")</f>
+        <v>(2,'JULIAN','RESTREPO','319360','julianrd19@hotmail.com','31507','Suba','Calle 138','','','M','JULIAN RESTREPO','654987','Costa Azul I','35'),</v>
+      </c>
+      <c r="T4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
         <v>83</v>
-      </c>
-      <c r="C5" t="s">
-        <v>84</v>
       </c>
       <c r="D5">
         <v>319360</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F5" s="11">
         <v>31507</v>
@@ -3404,10 +3646,10 @@
         <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
@@ -3417,40 +3659,43 @@
         <v>753159</v>
       </c>
       <c r="N5" t="s">
-        <v>168</v>
-      </c>
-      <c r="O5" t="s">
-        <v>163</v>
-      </c>
-      <c r="P5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="R5" t="str">
+        <v>161</v>
+      </c>
+      <c r="O5">
+        <v>35</v>
+      </c>
+      <c r="P5" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="S5" t="str">
         <f t="shared" si="1"/>
-        <v>(,'ANDRES','MORENO','319360','andresmorenopinzon@gmail.com','31507','Suba','Calle 140','','','M','ANDRES MORENO','753159','jac 1'),</v>
-      </c>
-      <c r="S5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>(3,'ANDRES','MORENO','319360','andresmorenopinzon@gmail.com','31507','Suba','Calle 140','','','M','ANDRES MORENO','753159','jac 1','35'),</v>
+      </c>
+      <c r="T5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
         <v>86</v>
       </c>
-      <c r="C6" t="s">
-        <v>87</v>
-      </c>
       <c r="D6">
-        <v>320</v>
+        <v>3178140952</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F6" s="11">
         <v>31507</v>
@@ -3459,10 +3704,10 @@
         <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="0"/>
@@ -3472,40 +3717,43 @@
         <v>258147</v>
       </c>
       <c r="N6" t="s">
-        <v>168</v>
-      </c>
-      <c r="O6" t="s">
-        <v>163</v>
-      </c>
-      <c r="P6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="R6" t="str">
+        <v>161</v>
+      </c>
+      <c r="O6">
+        <v>38</v>
+      </c>
+      <c r="P6" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="S6" t="str">
         <f t="shared" si="1"/>
-        <v>(,'DIEGO','MENA','320','ingelectronicadj@gmail.com','31507','Suba','Calle 142','','','M','DIEGO MENA','258147','jac 1'),</v>
-      </c>
-      <c r="S6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>(4,'DIEGO','MENA','3178140952','ingelectronicadj@gmail.com','31507','Suba','Calle 142','','','M','DIEGO MENA','258147','jac 1','38'),</v>
+      </c>
+      <c r="T6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D7">
         <v>3143815824</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F7" s="11">
         <v>31507</v>
@@ -3514,13 +3762,13 @@
         <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="J7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="K7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
@@ -3530,23 +3778,26 @@
         <v>258147</v>
       </c>
       <c r="N7" t="s">
-        <v>169</v>
-      </c>
-      <c r="O7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q7" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="R7" t="str">
+        <v>162</v>
+      </c>
+      <c r="O7">
+        <v>38</v>
+      </c>
+      <c r="P7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="S7" t="str">
         <f t="shared" si="1"/>
-        <v>(,'NATALIA','ORTIZ','3143815824','nataliaortiz@gmail.com','31507','Suba','Calle 144','','Las Brisas','F','NATALIA ORTIZ','258147','jac 3'),</v>
-      </c>
-      <c r="S7" t="s">
-        <v>174</v>
+        <v>(5,'NATALIA','ORTIZ','3143815824','nataliaortiz@gmail.com','31507','Suba','Calle 144','','Las Brisas','F','NATALIA ORTIZ','258147','jac 3','38'),</v>
+      </c>
+      <c r="T7" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3558,5 +3809,6 @@
     <hyperlink ref="E7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/BD/DiagramaActividades.xlsx
+++ b/BD/DiagramaActividades.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FullStack\reciclapp\BD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9630" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9630" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico" sheetId="2" r:id="rId1"/>
     <sheet name="BD" sheetId="3" r:id="rId2"/>
-    <sheet name="PARAMETROS" sheetId="4" r:id="rId3"/>
-    <sheet name="PUNTUACION" sheetId="6" r:id="rId4"/>
-    <sheet name="PLANILLASREPORTE" sheetId="7" r:id="rId5"/>
-    <sheet name="USUARIO" sheetId="8" r:id="rId6"/>
+    <sheet name="Scaffold" sheetId="9" r:id="rId3"/>
+    <sheet name="PARAMETROS" sheetId="4" r:id="rId4"/>
+    <sheet name="PUNTUACION" sheetId="6" r:id="rId5"/>
+    <sheet name="PLANILLASREPORTE" sheetId="7" r:id="rId6"/>
+    <sheet name="USUARIO" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="212">
   <si>
     <t>N° Actividad</t>
   </si>
@@ -618,12 +625,54 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>celular</t>
+  </si>
+  <si>
+    <t>fechanacimiento</t>
+  </si>
+  <si>
+    <t>direccion</t>
+  </si>
+  <si>
+    <t>barrio</t>
+  </si>
+  <si>
+    <t>edificio</t>
+  </si>
+  <si>
+    <t>genero</t>
+  </si>
+  <si>
+    <t>empresa</t>
+  </si>
+  <si>
+    <t>clienteacueducto</t>
+  </si>
+  <si>
+    <t>idlocalidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rails generate scaffold usuarios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">:string </t>
+  </si>
+  <si>
+    <t xml:space="preserve">:integer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">:datetime </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rails generate scaffold usuarios idusuario:integer nombre:string apellido:string celular:string email:string :datetime direccion:string barrio:string edificio:string genero:string empresa:string clienteacueducto:string jac:string idperfildetpar:integer idlocalidad:integer </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1162,7 +1211,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1806,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2088,6 +2137,95 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" t="s">
+        <v>186</v>
+      </c>
+      <c r="O1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" t="str">
+        <f>CONCATENATE(A3,A1,A5,B1,A4,C1,A4,D1,A4,E1,A4,F3,A6,G1,A4,H1,A4,I1,A4,J1,A4,K1,A4,L1,A4,M1,A4,N1,A5,O1,A5)</f>
+        <v xml:space="preserve">rails generate scaffold usuarios idusuario:integer nombre:string apellido:string celular:string email:string :datetime direccion:string barrio:string edificio:string genero:string empresa:string clienteacueducto:string jac:string idperfildetpar:integer idlocalidad:integer </v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N39"/>
   <sheetViews>
@@ -2171,7 +2309,7 @@
         <v>116</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M4" si="0">CONCATENATE(K3,H3,",",I3,",'",J3,"'),")</f>
+        <f>CONCATENATE(K3,H3,",",I3,",'",J3,"'),")</f>
         <v>(2,1,'Medicamentos'),</v>
       </c>
       <c r="N3" t="s">
@@ -2195,7 +2333,7 @@
         <v>116</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(K4,H4,",",I4,",'",J4,"'),")</f>
         <v>(3,1,'Metal'),</v>
       </c>
       <c r="N4" t="s">
@@ -2219,7 +2357,7 @@
         <v>116</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" ref="M5:M34" si="1">CONCATENATE(K5,H5,",",I5,",'",J5,"'),")</f>
+        <f t="shared" ref="M5:M34" si="0">CONCATENATE(K5,H5,",",I5,",'",J5,"'),")</f>
         <v>(4,1,'Papel'),</v>
       </c>
       <c r="N5" t="s">
@@ -2243,7 +2381,7 @@
         <v>116</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(5,1,'Plastico'),</v>
       </c>
       <c r="N6" t="s">
@@ -2267,7 +2405,7 @@
         <v>116</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(6,1,'Tecnologico'),</v>
       </c>
       <c r="N7" t="s">
@@ -2291,7 +2429,7 @@
         <v>116</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(7,1,'Telas'),</v>
       </c>
       <c r="N8" t="s">
@@ -2321,7 +2459,7 @@
         <v>116</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(8,2,'Usaquén'),</v>
       </c>
       <c r="N9" t="s">
@@ -2345,7 +2483,7 @@
         <v>116</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(9,2,'Chapinero'),</v>
       </c>
       <c r="N10" t="s">
@@ -2369,7 +2507,7 @@
         <v>116</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(10,2,'Santa Fe'),</v>
       </c>
       <c r="N11" t="s">
@@ -2393,7 +2531,7 @@
         <v>116</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(11,2,'San Cristóbal'),</v>
       </c>
       <c r="N12" t="s">
@@ -2417,7 +2555,7 @@
         <v>116</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(12,2,'Usme'),</v>
       </c>
       <c r="N13" t="s">
@@ -2441,7 +2579,7 @@
         <v>116</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(13,2,'Tunjuelito'),</v>
       </c>
       <c r="N14" t="s">
@@ -2465,7 +2603,7 @@
         <v>116</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(14,2,'Bosa'),</v>
       </c>
       <c r="N15" t="s">
@@ -2489,7 +2627,7 @@
         <v>116</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(15,2,'Kennedy'),</v>
       </c>
       <c r="N16" t="s">
@@ -2513,7 +2651,7 @@
         <v>116</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(16,2,'Fontibón'),</v>
       </c>
       <c r="N17" t="s">
@@ -2537,7 +2675,7 @@
         <v>116</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(17,2,'Engativá'),</v>
       </c>
       <c r="N18" t="s">
@@ -2561,7 +2699,7 @@
         <v>116</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(18,2,'Suba'),</v>
       </c>
       <c r="N19" t="s">
@@ -2585,7 +2723,7 @@
         <v>116</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(19,2,'Barrios Unidos'),</v>
       </c>
       <c r="N20" t="s">
@@ -2609,7 +2747,7 @@
         <v>116</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(20,2,'Teusaquillo'),</v>
       </c>
       <c r="N21" t="s">
@@ -2633,7 +2771,7 @@
         <v>116</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(21,2,'Los Mártires'),</v>
       </c>
       <c r="N22" t="s">
@@ -2657,7 +2795,7 @@
         <v>116</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(22,2,'Antonio Nariño'),</v>
       </c>
       <c r="N23" t="s">
@@ -2681,7 +2819,7 @@
         <v>116</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(23,2,'Puente Aranda'),</v>
       </c>
       <c r="N24" t="s">
@@ -2705,7 +2843,7 @@
         <v>116</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(24,2,'La Candelaria'),</v>
       </c>
       <c r="N25" t="s">
@@ -2729,7 +2867,7 @@
         <v>116</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(25,2,'Rafael Uribe Uribe'),</v>
       </c>
       <c r="N26" t="s">
@@ -2753,7 +2891,7 @@
         <v>116</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(26,2,'Ciudad Bolívar'),</v>
       </c>
       <c r="N27" t="s">
@@ -2777,7 +2915,7 @@
         <v>116</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(27,2,'Sumapaz'),</v>
       </c>
       <c r="N28" t="s">
@@ -2807,7 +2945,7 @@
         <v>116</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(28,3,'Pendiente'),</v>
       </c>
       <c r="N29" t="s">
@@ -2831,7 +2969,7 @@
         <v>116</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(29,3,'Redimido'),</v>
       </c>
       <c r="N30" t="s">
@@ -2861,7 +2999,7 @@
         <v>116</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(30,4,'Boletas Cine'),</v>
       </c>
       <c r="N31" t="s">
@@ -2885,7 +3023,7 @@
         <v>116</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(31,4,'Boletas Maloka'),</v>
       </c>
       <c r="N32" t="s">
@@ -2909,7 +3047,7 @@
         <v>116</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(32,4,'Dto 25%'),</v>
       </c>
       <c r="N33" t="s">
@@ -2933,7 +3071,7 @@
         <v>116</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>(33,4,'Dto 20%'),</v>
       </c>
       <c r="N34" t="s">
@@ -2957,7 +3095,7 @@
         <v>116</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" ref="M35" si="2">CONCATENATE(K35,H35,",",I35,",'",J35,"'),")</f>
+        <f>CONCATENATE(K35,H35,",",I35,",'",J35,"'),")</f>
         <v>(34,4,'Ganancia Recoleccion'),</v>
       </c>
       <c r="N35" t="s">
@@ -2987,7 +3125,7 @@
         <v>116</v>
       </c>
       <c r="M36" t="str">
-        <f t="shared" ref="M36:M38" si="3">CONCATENATE(K36,H36,",",I36,",'",J36,"'),")</f>
+        <f>CONCATENATE(K36,H36,",",I36,",'",J36,"'),")</f>
         <v>(35,5,'Administrador'),</v>
       </c>
       <c r="N36" t="s">
@@ -3011,7 +3149,7 @@
         <v>116</v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(K37,H37,",",I37,",'",J37,"'),")</f>
         <v>(36,5,'Responsalbe'),</v>
       </c>
       <c r="N37" t="s">
@@ -3035,7 +3173,7 @@
         <v>116</v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(K38,H38,",",I38,",'",J38,"'),")</f>
         <v>(37,5,'Voluntario'),</v>
       </c>
       <c r="N38" t="s">
@@ -3059,7 +3197,7 @@
         <v>116</v>
       </c>
       <c r="M39" t="str">
-        <f t="shared" ref="M39" si="4">CONCATENATE(K39,H39,",",I39,",'",J39,"'),")</f>
+        <f>CONCATENATE(K39,H39,",",I39,",'",J39,"'),")</f>
         <v>(38,5,'Usuario'),</v>
       </c>
       <c r="N39" t="s">
@@ -3071,7 +3209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
@@ -3302,7 +3440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -3434,11 +3572,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B13" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -3594,7 +3732,7 @@
         <v>79</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" ref="L4:L7" si="0">CONCATENATE(B4," ",C4)</f>
+        <f>CONCATENATE(B4," ",C4)</f>
         <v>JULIAN RESTREPO</v>
       </c>
       <c r="M4">
@@ -3616,7 +3754,7 @@
         <v>157</v>
       </c>
       <c r="S4" t="str">
-        <f t="shared" ref="S4:S7" si="1">CONCATENATE(P4,A4,",",Q4,B4,R4,C4,R4,D4,R4,,E4,R4,F4,R4,G4,R4,H4,R4,I4,R4,J4,R4,K4,R4,L4,R4,M4,R4,N4,R4,O4,"'),")</f>
+        <f>CONCATENATE(P4,A4,",",Q4,B4,R4,C4,R4,D4,R4,,E4,R4,F4,R4,G4,R4,H4,R4,I4,R4,J4,R4,K4,R4,L4,R4,M4,R4,N4,R4,O4,"'),")</f>
         <v>(2,'JULIAN','RESTREPO','319360','julianrd19@hotmail.com','31507','Suba','Calle 138','','','M','JULIAN RESTREPO','654987','Costa Azul I','35'),</v>
       </c>
       <c r="T4" t="s">
@@ -3652,7 +3790,7 @@
         <v>79</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(B5," ",C5)</f>
         <v>ANDRES MORENO</v>
       </c>
       <c r="M5">
@@ -3674,7 +3812,7 @@
         <v>157</v>
       </c>
       <c r="S5" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(P5,A5,",",Q5,B5,R5,C5,R5,D5,R5,,E5,R5,F5,R5,G5,R5,H5,R5,I5,R5,J5,R5,K5,R5,L5,R5,M5,R5,N5,R5,O5,"'),")</f>
         <v>(3,'ANDRES','MORENO','319360','andresmorenopinzon@gmail.com','31507','Suba','Calle 140','','','M','ANDRES MORENO','753159','jac 1','35'),</v>
       </c>
       <c r="T5" t="s">
@@ -3710,7 +3848,7 @@
         <v>79</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(B6," ",C6)</f>
         <v>DIEGO MENA</v>
       </c>
       <c r="M6">
@@ -3732,7 +3870,7 @@
         <v>157</v>
       </c>
       <c r="S6" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(P6,A6,",",Q6,B6,R6,C6,R6,D6,R6,,E6,R6,F6,R6,G6,R6,H6,R6,I6,R6,J6,R6,K6,R6,L6,R6,M6,R6,N6,R6,O6,"'),")</f>
         <v>(4,'DIEGO','MENA','3178140952','ingelectronicadj@gmail.com','31507','Suba','Calle 142','','','M','DIEGO MENA','258147','jac 1','38'),</v>
       </c>
       <c r="T6" t="s">
@@ -3771,7 +3909,7 @@
         <v>150</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(B7," ",C7)</f>
         <v>NATALIA ORTIZ</v>
       </c>
       <c r="M7">
@@ -3793,7 +3931,7 @@
         <v>157</v>
       </c>
       <c r="S7" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(P7,A7,",",Q7,B7,R7,C7,R7,D7,R7,,E7,R7,F7,R7,G7,R7,H7,R7,I7,R7,J7,R7,K7,R7,L7,R7,M7,R7,N7,R7,O7,"'),")</f>
         <v>(5,'NATALIA','ORTIZ','3143815824','nataliaortiz@gmail.com','31507','Suba','Calle 144','','Las Brisas','F','NATALIA ORTIZ','258147','jac 3','38'),</v>
       </c>
       <c r="T7" t="s">

--- a/BD/DiagramaActividades.xlsx
+++ b/BD/DiagramaActividades.xlsx
@@ -21,7 +21,6 @@
     <sheet name="USUARIO" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -654,9 +653,6 @@
     <t>idlocalidad</t>
   </si>
   <si>
-    <t xml:space="preserve">rails generate scaffold usuarios </t>
-  </si>
-  <si>
     <t xml:space="preserve">:string </t>
   </si>
   <si>
@@ -666,7 +662,10 @@
     <t xml:space="preserve">:datetime </t>
   </si>
   <si>
-    <t xml:space="preserve">rails generate scaffold usuarios idusuario:integer nombre:string apellido:string celular:string email:string :datetime direccion:string barrio:string edificio:string genero:string empresa:string clienteacueducto:string jac:string idperfildetpar:integer idlocalidad:integer </t>
+    <t xml:space="preserve">rails generate scaffold usuario </t>
+  </si>
+  <si>
+    <t>rails generate scaffold usuario idusuario:integer nombre:string apellido:string celular:string email:string fechanacimiento:datetime direccion:string barrio:string edificio:string genero:string empresa:string clienteacueducto:string jac:string idperfildetpar:integer idlocalidad:integer  --force</t>
   </si>
 </sst>
 </file>
@@ -2195,16 +2194,16 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D3" t="str">
-        <f>CONCATENATE(A3,A1,A5,B1,A4,C1,A4,D1,A4,E1,A4,F3,A6,G1,A4,H1,A4,I1,A4,J1,A4,K1,A4,L1,A4,M1,A4,N1,A5,O1,A5)</f>
-        <v xml:space="preserve">rails generate scaffold usuarios idusuario:integer nombre:string apellido:string celular:string email:string :datetime direccion:string barrio:string edificio:string genero:string empresa:string clienteacueducto:string jac:string idperfildetpar:integer idlocalidad:integer </v>
+        <f>CONCATENATE(A3,A1,A5,B1,A4,C1,A4,D1,A4,E1,A4,F1,A6,G1,A4,H1,A4,I1,A4,J1,A4,K1,A4,L1,A4,M1,A4,N1,A5,O1,A5," --force")</f>
+        <v>rails generate scaffold usuario idusuario:integer nombre:string apellido:string celular:string email:string fechanacimiento:datetime direccion:string barrio:string edificio:string genero:string empresa:string clienteacueducto:string jac:string idperfildetpar:integer idlocalidad:integer  --force</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D4" t="s">
         <v>211</v>
@@ -2212,12 +2211,12 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/BD/DiagramaActividades.xlsx
+++ b/BD/DiagramaActividades.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FullStack\reciclapp\BD\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9630" firstSheet="1" activeTab="2"/>
   </bookViews>
@@ -20,7 +15,7 @@
     <sheet name="PLANILLASREPORTE" sheetId="7" r:id="rId6"/>
     <sheet name="USUARIO" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="241">
   <si>
     <t>N° Actividad</t>
   </si>
@@ -89,9 +84,6 @@
     <t>PUNTACION</t>
   </si>
   <si>
-    <t>USUARIOS</t>
-  </si>
-  <si>
     <t>idusuario</t>
   </si>
   <si>
@@ -347,9 +339,6 @@
     <t>idpuntoecologico</t>
   </si>
   <si>
-    <t>Ubicación</t>
-  </si>
-  <si>
     <t>Idretousuario</t>
   </si>
   <si>
@@ -623,9 +612,6 @@
     <t>idrecoleccion</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>celular</t>
   </si>
   <si>
@@ -662,16 +648,112 @@
     <t xml:space="preserve">:datetime </t>
   </si>
   <si>
-    <t xml:space="preserve">rails generate scaffold usuario </t>
-  </si>
-  <si>
     <t>rails generate scaffold usuario idusuario:integer nombre:string apellido:string celular:string email:string fechanacimiento:datetime direccion:string barrio:string edificio:string genero:string empresa:string clienteacueducto:string jac:string idperfildetpar:integer idlocalidad:integer  --force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rails generate scaffold </t>
+  </si>
+  <si>
+    <t xml:space="preserve">usuario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">parametro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">detalleparametro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rails generate scaffold parametro idparametro:integer nombre:string </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rails generate scaffold detalleparametro iddetalleparametro:integer idparametro:integer nombre:string </t>
+  </si>
+  <si>
+    <t>lema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retousuario </t>
+  </si>
+  <si>
+    <t>idusuario_origina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rails generate scaffold reto Idreto:integer idusuario_origina:integer nombre:string </t>
+  </si>
+  <si>
+    <t xml:space="preserve">recoleccion </t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rails generate scaffold meta Idmeta:integer idusuario:integer iddetalleparametro:integer idreto:integer Fechaexpiracion:datetime cantidad:integer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">redencion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">puntoecologico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rails generate scaffold redencion idredencion:integer idusuario:integer idpremio:integer fecharedencion:datetime Cantidadpremio:integer </t>
+  </si>
+  <si>
+    <t>idventas</t>
+  </si>
+  <si>
+    <t>fechaventa</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">venta </t>
+  </si>
+  <si>
+    <t>USUARIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rails generate scaffold retousuario idreto:integer idusu_invitado:integer lema:integer </t>
+  </si>
+  <si>
+    <t>Idreto (fk)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rails generate scaffold recoleccion idrecoleccion:integer Idretousuario:integer idusu_invitado:integer iddetalleparametro:integer idredencion:integer idpuntorecoleccion:integer Estado:string Fecha:datetime Cantidad:integer </t>
+  </si>
+  <si>
+    <t>Ubicacionx</t>
+  </si>
+  <si>
+    <t>Ubicaciony</t>
+  </si>
+  <si>
+    <t>rails g scaffold list name</t>
+  </si>
+  <si>
+    <t>rails g scaffold task name list:references</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:decimal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rails generate scaffold puntoecologico idpuntoecologico:integer Ubicacionx:decimal Ubicaciony:decimal Nombre:string idresponsable:integer Fechainicio:datetime Fechacierre:datetime </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rails generate scaffold venta idventas:integer idpuntoecologico:integer iddetalleparametro:integer fechaventa:datetime cantidad:integer valor:integer donacion:string </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -717,7 +799,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -739,6 +821,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,7 +896,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -842,6 +930,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -911,15 +1000,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>109714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>45178</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>149954</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -942,8 +1031,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1123950" y="1419225"/>
-          <a:ext cx="10058400" cy="6436453"/>
+          <a:off x="1133475" y="2586214"/>
+          <a:ext cx="9886950" cy="6326740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1210,7 +1299,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1734,56 +1823,56 @@
       <c r="B15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="20"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>1</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="17"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2</v>
       </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="17"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>3</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="17"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
@@ -1855,7 +1944,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="I2" sqref="I2:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1863,18 +1952,19 @@
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>230</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -1883,33 +1973,33 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E1" t="s">
-        <v>62</v>
+        <v>100</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>193</v>
       </c>
       <c r="G1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>66</v>
+        <v>220</v>
+      </c>
+      <c r="H1" t="s">
+        <v>74</v>
       </c>
       <c r="I1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -1918,309 +2008,677 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="I2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" t="s">
         <v>106</v>
       </c>
-      <c r="J2" t="s">
-        <v>104</v>
-      </c>
       <c r="K2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="J3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K3" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>90</v>
       </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
       <c r="I4" t="s">
-        <v>164</v>
+        <v>235</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" t="s">
-        <v>92</v>
+      <c r="G5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" t="s">
+        <v>91</v>
       </c>
       <c r="I5" t="s">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>187</v>
-      </c>
-      <c r="K5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" t="s">
-        <v>64</v>
+        <v>191</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" t="s">
+        <v>185</v>
       </c>
       <c r="J6" t="s">
-        <v>169</v>
-      </c>
-      <c r="K6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" t="s">
-        <v>65</v>
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" t="s">
+        <v>167</v>
       </c>
       <c r="J7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D8" t="s">
-        <v>102</v>
-      </c>
-      <c r="K8" t="s">
-        <v>111</v>
+        <v>192</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" t="s">
+        <v>168</v>
+      </c>
+      <c r="J8" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" t="s">
-        <v>57</v>
+        <v>96</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
+        <v>97</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="3.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D3" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="E1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I3" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J3" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K3" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L3" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M3" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="O3" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="K1" t="s">
-        <v>204</v>
-      </c>
-      <c r="L1" t="s">
-        <v>205</v>
-      </c>
-      <c r="M1" t="s">
-        <v>96</v>
-      </c>
-      <c r="N1" t="s">
-        <v>186</v>
-      </c>
-      <c r="O1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D3" t="str">
-        <f>CONCATENATE(A3,A1,A5,B1,A4,C1,A4,D1,A4,E1,A4,F1,A6,G1,A4,H1,A4,I1,A4,J1,A4,K1,A4,L1,A4,M1,A4,N1,A5,O1,A5," --force")</f>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>CONCATENATE(F1,A2,A3,B1,B3,A1,C3,A1,D3,A1,E3,A1,F3,C1,G3,A1,H3,A1,I3,A1,J3,A1,K3,A1,L3,A1,M3,A1,N3,B1,O3,B1," --force")</f>
         <v>rails generate scaffold usuario idusuario:integer nombre:string apellido:string celular:string email:string fechanacimiento:datetime direccion:string barrio:string edificio:string genero:string empresa:string clienteacueducto:string jac:string idperfildetpar:integer idlocalidad:integer  --force</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>CONCATENATE($F$1,A8,A9,B1,B9,A1)</f>
+        <v xml:space="preserve">rails generate scaffold parametro idparametro:integer nombre:string </v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>CONCATENATE($F$1,A15,A16,B1,B16,B1,C16,A1)</f>
+        <v xml:space="preserve">rails generate scaffold detalleparametro iddetalleparametro:integer idparametro:integer nombre:string </v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>CONCATENATE($F$1,A22,A23,B1,B23,B1,C23,B1)</f>
+        <v xml:space="preserve">rails generate scaffold retousuario idreto:integer idusu_invitado:integer lema:integer </v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>CONCATENATE($F$1,A29,A30,$B$1,B30,$B$1,C30,$A$1)</f>
+        <v xml:space="preserve">rails generate scaffold reto Idreto:integer idusuario_origina:integer nombre:string </v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="15"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f>CONCATENATE($F$1,A36,A37,$B$1,B37,$B$1,C37,$B$1,D37,B1,E37,B1,F37,B1,G37,A1,H37,C1,I37,B1)</f>
+        <v xml:space="preserve">rails generate scaffold recoleccion idrecoleccion:integer Idretousuario:integer idusu_invitado:integer iddetalleparametro:integer idredencion:integer idpuntorecoleccion:integer Estado:string Fecha:datetime Cantidad:integer </v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f>CONCATENATE($F$1,A43,A44,$B$1,B44,$B$1,C44,$B$1,D44,B1,E44,C1,F44,B1)</f>
+        <v xml:space="preserve">rails generate scaffold meta Idmeta:integer idusuario:integer iddetalleparametro:integer idreto:integer Fechaexpiracion:datetime cantidad:integer </v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f>CONCATENATE($F$1,A50,A51,$B$1,B51,$B$1,C51,$B$1,D51,$C$1,E51,$B$1)</f>
+        <v xml:space="preserve">rails generate scaffold redencion idredencion:integer idusuario:integer idpremio:integer fecharedencion:datetime Cantidadpremio:integer </v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f>CONCATENATE($F$1,A56,A57,$B$1,B57,$D$1,C57,$D$1,D57,$A$1,E57,$B$1,F57,C1,G57,C1)</f>
+        <v xml:space="preserve">rails generate scaffold puntoecologico idpuntoecologico:integer Ubicacionx:decimal Ubicaciony:decimal Nombre:string idresponsable:integer Fechainicio:datetime Fechacierre:datetime </v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f>CONCATENATE($F$1,A63,A64,$B$1,B64,$B$1,C64,$B$1,D64,$C$1,E64,$B$1,F64,$B$1,G64,$A$1)</f>
+        <v xml:space="preserve">rails generate scaffold venta idventas:integer idpuntoecologico:integer iddetalleparametro:integer fechaventa:datetime cantidad:integer valor:integer donacion:string </v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2246,7 +2704,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -2266,7 +2724,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -2275,20 +2733,20 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M2" t="str">
         <f>CONCATENATE(K2,H2,",",I2,",'",J2,"'),")</f>
         <v>(1,1,'Aceite'),</v>
       </c>
       <c r="N2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2299,20 +2757,20 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M3" t="str">
         <f>CONCATENATE(K3,H3,",",I3,",'",J3,"'),")</f>
         <v>(2,1,'Medicamentos'),</v>
       </c>
       <c r="N3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2323,20 +2781,20 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L4" s="13" t="s">
         <v>114</v>
-      </c>
-      <c r="K4" t="s">
-        <v>117</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>116</v>
       </c>
       <c r="M4" t="str">
         <f>CONCATENATE(K4,H4,",",I4,",'",J4,"'),")</f>
         <v>(3,1,'Metal'),</v>
       </c>
       <c r="N4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -2347,20 +2805,20 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" ref="M5:M34" si="0">CONCATENATE(K5,H5,",",I5,",'",J5,"'),")</f>
         <v>(4,1,'Papel'),</v>
       </c>
       <c r="N5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -2371,20 +2829,20 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="0"/>
         <v>(5,1,'Plastico'),</v>
       </c>
       <c r="N6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -2395,20 +2853,20 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="0"/>
         <v>(6,1,'Tecnologico'),</v>
       </c>
       <c r="N7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -2419,20 +2877,20 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="0"/>
         <v>(7,1,'Telas'),</v>
       </c>
       <c r="N8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -2440,7 +2898,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -2449,20 +2907,20 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="0"/>
         <v>(8,2,'Usaquén'),</v>
       </c>
       <c r="N9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -2473,20 +2931,20 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="0"/>
         <v>(9,2,'Chapinero'),</v>
       </c>
       <c r="N10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -2497,20 +2955,20 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="0"/>
         <v>(10,2,'Santa Fe'),</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2521,20 +2979,20 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="0"/>
         <v>(11,2,'San Cristóbal'),</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2545,20 +3003,20 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="0"/>
         <v>(12,2,'Usme'),</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2569,20 +3027,20 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="0"/>
         <v>(13,2,'Tunjuelito'),</v>
       </c>
       <c r="N14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2593,20 +3051,20 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="0"/>
         <v>(14,2,'Bosa'),</v>
       </c>
       <c r="N15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2617,20 +3075,20 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="0"/>
         <v>(15,2,'Kennedy'),</v>
       </c>
       <c r="N16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -2641,20 +3099,20 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="0"/>
         <v>(16,2,'Fontibón'),</v>
       </c>
       <c r="N17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2665,20 +3123,20 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="0"/>
         <v>(17,2,'Engativá'),</v>
       </c>
       <c r="N18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2689,20 +3147,20 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="0"/>
         <v>(18,2,'Suba'),</v>
       </c>
       <c r="N19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2713,20 +3171,20 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="0"/>
         <v>(19,2,'Barrios Unidos'),</v>
       </c>
       <c r="N20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -2737,20 +3195,20 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="0"/>
         <v>(20,2,'Teusaquillo'),</v>
       </c>
       <c r="N21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -2761,20 +3219,20 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" si="0"/>
         <v>(21,2,'Los Mártires'),</v>
       </c>
       <c r="N22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -2785,20 +3243,20 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" si="0"/>
         <v>(22,2,'Antonio Nariño'),</v>
       </c>
       <c r="N23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2809,20 +3267,20 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M24" t="str">
         <f t="shared" si="0"/>
         <v>(23,2,'Puente Aranda'),</v>
       </c>
       <c r="N24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -2833,20 +3291,20 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M25" t="str">
         <f t="shared" si="0"/>
         <v>(24,2,'La Candelaria'),</v>
       </c>
       <c r="N25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -2857,20 +3315,20 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M26" t="str">
         <f t="shared" si="0"/>
         <v>(25,2,'Rafael Uribe Uribe'),</v>
       </c>
       <c r="N26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -2881,20 +3339,20 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M27" t="str">
         <f t="shared" si="0"/>
         <v>(26,2,'Ciudad Bolívar'),</v>
       </c>
       <c r="N27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2905,20 +3363,20 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L28" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" si="0"/>
         <v>(27,2,'Sumapaz'),</v>
       </c>
       <c r="N28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -2926,7 +3384,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H29">
         <v>28</v>
@@ -2935,20 +3393,20 @@
         <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M29" t="str">
         <f t="shared" si="0"/>
         <v>(28,3,'Pendiente'),</v>
       </c>
       <c r="N29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2959,20 +3417,20 @@
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M30" t="str">
         <f t="shared" si="0"/>
         <v>(29,3,'Redimido'),</v>
       </c>
       <c r="N30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2980,7 +3438,7 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H31">
         <v>30</v>
@@ -2989,20 +3447,20 @@
         <v>4</v>
       </c>
       <c r="J31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M31" t="str">
         <f t="shared" si="0"/>
         <v>(30,4,'Boletas Cine'),</v>
       </c>
       <c r="N31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -3013,20 +3471,20 @@
         <v>4</v>
       </c>
       <c r="J32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M32" t="str">
         <f t="shared" si="0"/>
         <v>(31,4,'Boletas Maloka'),</v>
       </c>
       <c r="N32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -3037,20 +3495,20 @@
         <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L33" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M33" t="str">
         <f t="shared" si="0"/>
         <v>(32,4,'Dto 25%'),</v>
       </c>
       <c r="N33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -3061,20 +3519,20 @@
         <v>4</v>
       </c>
       <c r="J34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M34" t="str">
         <f t="shared" si="0"/>
         <v>(33,4,'Dto 20%'),</v>
       </c>
       <c r="N34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -3085,20 +3543,20 @@
         <v>4</v>
       </c>
       <c r="J35" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M35" t="str">
         <f>CONCATENATE(K35,H35,",",I35,",'",J35,"'),")</f>
         <v>(34,4,'Ganancia Recoleccion'),</v>
       </c>
       <c r="N35" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -3106,7 +3564,7 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H36">
         <v>35</v>
@@ -3115,20 +3573,20 @@
         <v>5</v>
       </c>
       <c r="J36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M36" t="str">
         <f>CONCATENATE(K36,H36,",",I36,",'",J36,"'),")</f>
         <v>(35,5,'Administrador'),</v>
       </c>
       <c r="N36" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -3139,20 +3597,20 @@
         <v>5</v>
       </c>
       <c r="J37" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M37" t="str">
         <f>CONCATENATE(K37,H37,",",I37,",'",J37,"'),")</f>
         <v>(36,5,'Responsalbe'),</v>
       </c>
       <c r="N37" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -3163,20 +3621,20 @@
         <v>5</v>
       </c>
       <c r="J38" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L38" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M38" t="str">
         <f>CONCATENATE(K38,H38,",",I38,",'",J38,"'),")</f>
         <v>(37,5,'Voluntario'),</v>
       </c>
       <c r="N38" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -3187,20 +3645,20 @@
         <v>5</v>
       </c>
       <c r="J39" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L39" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M39" t="str">
         <f>CONCATENATE(K39,H39,",",I39,",'",J39,"'),")</f>
         <v>(38,5,'Usuario'),</v>
       </c>
       <c r="N39" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3223,7 +3681,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3231,45 +3689,45 @@
         <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" t="s">
         <v>64</v>
-      </c>
-      <c r="M3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -3289,7 +3747,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -3324,7 +3782,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -3344,18 +3802,18 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H11" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" t="s">
         <v>66</v>
       </c>
-      <c r="I11" t="s">
-        <v>67</v>
-      </c>
       <c r="J11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s">
         <v>15</v>
@@ -3369,29 +3827,29 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -3403,7 +3861,7 @@
         <v>2</v>
       </c>
       <c r="L19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -3417,7 +3875,7 @@
         <v>3</v>
       </c>
       <c r="L20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -3431,7 +3889,7 @@
         <v>4</v>
       </c>
       <c r="L21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3456,13 +3914,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -3476,7 +3934,7 @@
         <v>43379</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3490,7 +3948,7 @@
         <v>43379</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3504,7 +3962,7 @@
         <v>43379</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3518,7 +3976,7 @@
         <v>43379</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -3532,7 +3990,7 @@
         <v>43379</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3546,7 +4004,7 @@
         <v>43379</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -3560,7 +4018,7 @@
         <v>43379</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3575,7 +4033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T7"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -3596,49 +4054,49 @@
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
+      <c r="L2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>115</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
       <c r="N2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -3646,31 +4104,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
         <v>77</v>
-      </c>
-      <c r="C3" t="s">
-        <v>78</v>
       </c>
       <c r="D3">
         <v>319360</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F3" s="11">
         <v>31507</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I3" t="s">
         <v>153</v>
       </c>
-      <c r="I3" t="s">
-        <v>155</v>
-      </c>
       <c r="K3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L3" t="str">
         <f>CONCATENATE(B3," ",C3)</f>
@@ -3680,26 +4138,26 @@
         <v>456879</v>
       </c>
       <c r="N3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O3">
         <v>35</v>
       </c>
       <c r="P3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S3" t="str">
         <f>CONCATENATE(P3,A3,",",Q3,B3,R3,C3,R3,D3,R3,,E3,R3,F3,R3,G3,R3,H3,R3,I3,R3,J3,R3,K3,R3,L3,R3,M3,R3,N3,R3,O3,"'),")</f>
         <v>(1,'NIKOLAY','CARDENAS','319360','nikolay37@hotmail.com','31507','Suba','Calle 136','Costa Azul','','M','NIKOLAY CARDENAS','456879','Costa Azul','35'),</v>
       </c>
       <c r="T3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -3707,28 +4165,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
         <v>80</v>
-      </c>
-      <c r="C4" t="s">
-        <v>81</v>
       </c>
       <c r="D4">
         <v>319360</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" s="11">
         <v>31507</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L4" t="str">
         <f>CONCATENATE(B4," ",C4)</f>
@@ -3738,26 +4196,26 @@
         <v>654987</v>
       </c>
       <c r="N4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O4">
         <v>35</v>
       </c>
       <c r="P4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S4" t="str">
         <f>CONCATENATE(P4,A4,",",Q4,B4,R4,C4,R4,D4,R4,,E4,R4,F4,R4,G4,R4,H4,R4,I4,R4,J4,R4,K4,R4,L4,R4,M4,R4,N4,R4,O4,"'),")</f>
         <v>(2,'JULIAN','RESTREPO','319360','julianrd19@hotmail.com','31507','Suba','Calle 138','','','M','JULIAN RESTREPO','654987','Costa Azul I','35'),</v>
       </c>
       <c r="T4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -3765,28 +4223,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
         <v>82</v>
-      </c>
-      <c r="C5" t="s">
-        <v>83</v>
       </c>
       <c r="D5">
         <v>319360</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F5" s="11">
         <v>31507</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L5" t="str">
         <f>CONCATENATE(B5," ",C5)</f>
@@ -3796,26 +4254,26 @@
         <v>753159</v>
       </c>
       <c r="N5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O5">
         <v>35</v>
       </c>
       <c r="P5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R5" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S5" t="str">
         <f>CONCATENATE(P5,A5,",",Q5,B5,R5,C5,R5,D5,R5,,E5,R5,F5,R5,G5,R5,H5,R5,I5,R5,J5,R5,K5,R5,L5,R5,M5,R5,N5,R5,O5,"'),")</f>
         <v>(3,'ANDRES','MORENO','319360','andresmorenopinzon@gmail.com','31507','Suba','Calle 140','','','M','ANDRES MORENO','753159','jac 1','35'),</v>
       </c>
       <c r="T5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -3823,28 +4281,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
         <v>85</v>
-      </c>
-      <c r="C6" t="s">
-        <v>86</v>
       </c>
       <c r="D6">
         <v>3178140952</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="11">
         <v>31507</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L6" t="str">
         <f>CONCATENATE(B6," ",C6)</f>
@@ -3854,26 +4312,26 @@
         <v>258147</v>
       </c>
       <c r="N6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O6">
         <v>38</v>
       </c>
       <c r="P6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R6" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S6" t="str">
         <f>CONCATENATE(P6,A6,",",Q6,B6,R6,C6,R6,D6,R6,,E6,R6,F6,R6,G6,R6,H6,R6,I6,R6,J6,R6,K6,R6,L6,R6,M6,R6,N6,R6,O6,"'),")</f>
         <v>(4,'DIEGO','MENA','3178140952','ingelectronicadj@gmail.com','31507','Suba','Calle 142','','','M','DIEGO MENA','258147','jac 1','38'),</v>
       </c>
       <c r="T6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -3881,31 +4339,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D7">
         <v>3143815824</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F7" s="11">
         <v>31507</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L7" t="str">
         <f>CONCATENATE(B7," ",C7)</f>
@@ -3915,26 +4373,26 @@
         <v>258147</v>
       </c>
       <c r="N7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O7">
         <v>38</v>
       </c>
       <c r="P7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S7" t="str">
         <f>CONCATENATE(P7,A7,",",Q7,B7,R7,C7,R7,D7,R7,,E7,R7,F7,R7,G7,R7,H7,R7,I7,R7,J7,R7,K7,R7,L7,R7,M7,R7,N7,R7,O7,"'),")</f>
         <v>(5,'NATALIA','ORTIZ','3143815824','nataliaortiz@gmail.com','31507','Suba','Calle 144','','Las Brisas','F','NATALIA ORTIZ','258147','jac 3','38'),</v>
       </c>
       <c r="T7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3946,6 +4404,5 @@
     <hyperlink ref="E7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/BD/DiagramaActividades.xlsx
+++ b/BD/DiagramaActividades.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sinergia10\Reciclapp\BD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9630" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9630" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico" sheetId="2" r:id="rId1"/>
     <sheet name="BD" sheetId="3" r:id="rId2"/>
-    <sheet name="Scaffold" sheetId="9" r:id="rId3"/>
-    <sheet name="PARAMETROS" sheetId="4" r:id="rId4"/>
-    <sheet name="PUNTUACION" sheetId="6" r:id="rId5"/>
-    <sheet name="PLANILLASREPORTE" sheetId="7" r:id="rId6"/>
-    <sheet name="USUARIO" sheetId="8" r:id="rId7"/>
+    <sheet name="Scaffold (Rails)" sheetId="10" r:id="rId3"/>
+    <sheet name="Scaffold" sheetId="9" r:id="rId4"/>
+    <sheet name="PARAMETROS" sheetId="4" r:id="rId5"/>
+    <sheet name="PUNTUACION" sheetId="6" r:id="rId6"/>
+    <sheet name="PLANILLASREPORTE" sheetId="7" r:id="rId7"/>
+    <sheet name="USUARIO" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="246">
   <si>
     <t>N° Actividad</t>
   </si>
@@ -666,9 +672,6 @@
     <t xml:space="preserve">rails generate scaffold parametro idparametro:integer nombre:string </t>
   </si>
   <si>
-    <t xml:space="preserve">rails generate scaffold detalleparametro iddetalleparametro:integer idparametro:integer nombre:string </t>
-  </si>
-  <si>
     <t>lema</t>
   </si>
   <si>
@@ -748,6 +751,24 @@
   </si>
   <si>
     <t xml:space="preserve">rails generate scaffold venta idventas:integer idpuntoecologico:integer iddetalleparametro:integer fechaventa:datetime cantidad:integer valor:integer donacion:string </t>
+  </si>
+  <si>
+    <t>rails generate scaffold detalleparametro iddetalleparametro:integer idparametro:integer nombre:string parametro:references</t>
+  </si>
+  <si>
+    <t>cedula</t>
+  </si>
+  <si>
+    <t>rails generate scaffold usuario cedula:string nombre:string apellido:string celular:string email:string fechanacimiento:datetime direccion:string barrio:string edificio:string genero:string empresa:string clienteacueducto:string jac:string idperfildetpar:integer idlocalidad:integer  --force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rails generate scaffold parametro nombre:integer </t>
+  </si>
+  <si>
+    <t>rails generate scaffold detalleparametro idparametro:integer nombre:string parametro:references</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rails generate scaffold retousuario idusu_invitado:integer lema:string </t>
   </si>
 </sst>
 </file>
@@ -896,7 +917,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -949,6 +970,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1299,7 +1321,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1943,7 +1965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I7"/>
     </sheetView>
   </sheetViews>
@@ -1964,7 +1986,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -1982,7 +2004,7 @@
         <v>193</v>
       </c>
       <c r="G1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H1" t="s">
         <v>74</v>
@@ -2008,7 +2030,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E2" t="s">
         <v>66</v>
@@ -2046,7 +2068,7 @@
         <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F3" t="s">
         <v>104</v>
@@ -2058,7 +2080,7 @@
         <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J3" t="s">
         <v>103</v>
@@ -2075,7 +2097,7 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
@@ -2090,7 +2112,7 @@
         <v>90</v>
       </c>
       <c r="I4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
@@ -2225,11 +2247,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2249,7 +2271,7 @@
         <v>206</v>
       </c>
       <c r="D1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F1" t="s">
         <v>208</v>
@@ -2276,6 +2298,459 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>CONCATENATE(F1,A2,A3,A1,B3,A1,C3,A1,D3,A1,E3,A1,F3,C1,G3,A1,H3,A1,I3,A1,J3,A1,K3,A1,L3,A1,M3,A1,N3,B1,O3,B1," --force")</f>
+        <v>rails generate scaffold usuario cedula:string nombre:string apellido:string celular:string email:string fechanacimiento:datetime direccion:string barrio:string edificio:string genero:string empresa:string clienteacueducto:string jac:string idperfildetpar:integer idlocalidad:integer  --force</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>CONCATENATE($F$1,A9,A10,$B$1,B10,$B$1,C10,$A$1)</f>
+        <v xml:space="preserve">rails generate scaffold reto Idreto:integer idusuario_origina:integer nombre:string </v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="15"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>CONCATENATE($F$1,A15,A16,B1,B16,A1)</f>
+        <v xml:space="preserve">rails generate scaffold retousuario idusu_invitado:integer lema:string </v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="15"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>CONCATENATE($F$1,A21,A22,$B$1,B22,$B$1,C22,$B$1,D22,B1,E22,B1,F22,B1,G22,A1,H22,C1,I22,B1)</f>
+        <v xml:space="preserve">rails generate scaffold recoleccion idrecoleccion:integer Idretousuario:integer idusu_invitado:integer iddetalleparametro:integer idredencion:integer idpuntorecoleccion:integer Estado:string Fecha:datetime Cantidad:integer </v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>CONCATENATE($F$1,A28,A29,$B$1,B29,$B$1,C29,$B$1,D29,B1,E29,C1,F29,B1)</f>
+        <v xml:space="preserve">rails generate scaffold meta Idmeta:integer idusuario:integer iddetalleparametro:integer idreto:integer Fechaexpiracion:datetime cantidad:integer </v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>CONCATENATE($F$1,A35,A36,$B$1,B36,$B$1,C36,$B$1,D36,$C$1,E36,$B$1)</f>
+        <v xml:space="preserve">rails generate scaffold redencion idredencion:integer idusuario:integer idpremio:integer fecharedencion:datetime Cantidadpremio:integer </v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>CONCATENATE($F$1,A41,A42,$B$1,B42,$D$1,C42,$D$1,D42,$A$1,E42,$B$1,F42,C1,G42,C1)</f>
+        <v xml:space="preserve">rails generate scaffold puntoecologico idpuntoecologico:integer Ubicacionx:decimal Ubicaciony:decimal Nombre:string idresponsable:integer Fechainicio:datetime Fechacierre:datetime </v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f>CONCATENATE($F$1,A48,A49,$B$1,B49,$B$1,C49,$B$1,D49,$C$1,E49,$B$1,F49,$B$1,G49,$A$1)</f>
+        <v xml:space="preserve">rails generate scaffold venta idventas:integer idpuntoecologico:integer iddetalleparametro:integer fechaventa:datetime cantidad:integer valor:integer donacion:string </v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B58" s="15"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="15"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f>CONCATENATE($F$1,A58,A59,B1)</f>
+        <v xml:space="preserve">rails generate scaffold parametro nombre:integer </v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="15"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f>CONCATENATE($F$1,A65,A66,B1,B66,A1)</f>
+        <v xml:space="preserve">rails generate scaffold detalleparametro idparametro:integer nombre:string </v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="3.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -2383,12 +2858,12 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -2401,7 +2876,7 @@
         <v>162</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2412,12 +2887,12 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -2427,7 +2902,7 @@
         <v>66</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>20</v>
@@ -2441,12 +2916,12 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -2496,12 +2971,12 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
@@ -2537,12 +3012,12 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -2574,12 +3049,12 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
@@ -2592,10 +3067,10 @@
         <v>103</v>
       </c>
       <c r="B57" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C57" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>15</v>
@@ -2618,12 +3093,12 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -2634,7 +3109,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>103</v>
@@ -2643,13 +3118,13 @@
         <v>17</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E64" s="15" t="s">
         <v>64</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G64" s="15" t="s">
         <v>109</v>
@@ -2663,17 +3138,17 @@
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2682,12 +3157,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3666,12 +4141,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3897,12 +4372,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F25" sqref="F25:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4029,12 +4504,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BD/DiagramaActividades.xlsx
+++ b/BD/DiagramaActividades.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sinergia10\Reciclapp\BD\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9630" activeTab="2"/>
   </bookViews>
@@ -21,7 +16,7 @@
     <sheet name="PLANILLASREPORTE" sheetId="7" r:id="rId7"/>
     <sheet name="USUARIO" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="259">
   <si>
     <t>N° Actividad</t>
   </si>
@@ -768,7 +763,46 @@
     <t>rails generate scaffold detalleparametro idparametro:integer nombre:string parametro:references</t>
   </si>
   <si>
-    <t xml:space="preserve">rails generate scaffold retousuario idusu_invitado:integer lema:string </t>
+    <t xml:space="preserve">rails generate scaffold reto idusuario_origina:integer nombre:string </t>
+  </si>
+  <si>
+    <t>rails generate scaffold retousuario idusu_invitado:integer lema:string reto:references</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rails generate scaffold recoleccion Idretousuario:integer idusu_invitado:integer iddetalleparametro:integer idredencion:integer idpuntorecoleccion:integer estado:string fecha:datetime cantidad:integer </t>
+  </si>
+  <si>
+    <t>rails generate scaffold meta idusuario:integer iddetalleparametro:integer idreto:integer Fechaexpiracion:datetime cantidad:integer reto:references</t>
+  </si>
+  <si>
+    <t>ubicacionx</t>
+  </si>
+  <si>
+    <t>ubicaciony</t>
+  </si>
+  <si>
+    <t>fechainicio</t>
+  </si>
+  <si>
+    <t>fechacierre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rails generate scaffold puntoecologico ubicacionx:decimal ubicaciony:decimal nombre:string idresponsable:string fechainicio:datetime fechacierre:datetime </t>
+  </si>
+  <si>
+    <t>valorunidad</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rails generate scaffold venta iddetalleparametro:integer idredencion:integer fechaventa:datetime cantidad:integer valorunidad:integer total:integer donacion:string </t>
   </si>
 </sst>
 </file>
@@ -952,6 +986,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -970,7 +1005,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1321,7 +1355,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1845,56 +1879,56 @@
       <c r="B15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="21"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="22"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>1</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="18"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2</v>
       </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="18"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>3</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
     </row>
     <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
@@ -2247,11 +2281,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O69"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2359,28 +2393,24 @@
         <v>216</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="C10" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>CONCATENATE($F$1,A9,A10,$B$1,B10,$B$1,C10,$A$1)</f>
-        <v xml:space="preserve">rails generate scaffold reto Idreto:integer idusuario_origina:integer nombre:string </v>
+        <f>CONCATENATE($F$1,A9,A10,$B$1,B10,$A$1)</f>
+        <v xml:space="preserve">rails generate scaffold reto idusuario_origina:integer nombre:string </v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -2388,7 +2418,6 @@
         <v>214</v>
       </c>
       <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
@@ -2397,7 +2426,6 @@
       <c r="B16" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="C16" s="15"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
@@ -2406,289 +2434,267 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>245</v>
+      <c r="A19" s="16" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>194</v>
+        <v>99</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="15"/>
+        <v>64</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f>CONCATENATE($F$1,A21,A22,$B$1,B22,$B$1,C22,$B$1,D22,B1,E22,B1,F22,B1,G22,A1,H22,C1,I22,B1)</f>
-        <v xml:space="preserve">rails generate scaffold recoleccion idrecoleccion:integer Idretousuario:integer idusu_invitado:integer iddetalleparametro:integer idredencion:integer idpuntorecoleccion:integer Estado:string Fecha:datetime Cantidad:integer </v>
+        <f>CONCATENATE($F$1,A21,A22,$B$1,B22,$B$1,C22,$B$1,D22,C1,E22,B1)</f>
+        <v xml:space="preserve">rails generate scaffold meta idreto:integer iddetalleparametro:integer idusuario:integer Fechaexpiracion:datetime cantidad:integer </v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>232</v>
-      </c>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>CONCATENATE($F$1,A27,A28,$B$1,B28,$B$1,C28,$B$1,D28,B1,E28,B1,F28,A1,G28,C1,H28,B1)</f>
+        <v xml:space="preserve">rails generate scaffold recoleccion Idretousuario:integer idusu_invitado:integer iddetalleparametro:integer idredencion:integer idpuntorecoleccion:integer estado:string fecha:datetime cantidad:integer </v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C34" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f>CONCATENATE($F$1,A33,A34,$B$1,B34,$B$1,C34,$B$1,D34,$C$1,E34,$B$1)</f>
+        <v xml:space="preserve">rails generate scaffold redencion idredencion:integer idusuario:integer idpremio:integer fecharedencion:datetime Cantidadpremio:integer </v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f>CONCATENATE($F$1,A39,A40,$D$1,B40,$D$1,C40,$A$1,D40,$A$1,E40,$C$1,F40,C1)</f>
+        <v xml:space="preserve">rails generate scaffold puntoecologico ubicacionx:decimal ubicaciony:decimal nombre:string idresponsable:string fechainicio:datetime fechacierre:datetime </v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="15" t="s">
+      <c r="B47" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D47" s="15" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f>CONCATENATE($F$1,A28,A29,$B$1,B29,$B$1,C29,$B$1,D29,B1,E29,C1,F29,B1)</f>
-        <v xml:space="preserve">rails generate scaffold meta Idmeta:integer idusuario:integer iddetalleparametro:integer idreto:integer Fechaexpiracion:datetime cantidad:integer </v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="str">
-        <f>CONCATENATE($F$1,A35,A36,$B$1,B36,$B$1,C36,$B$1,D36,$C$1,E36,$B$1)</f>
-        <v xml:space="preserve">rails generate scaffold redencion idredencion:integer idusuario:integer idpremio:integer fecharedencion:datetime Cantidadpremio:integer </v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="str">
-        <f>CONCATENATE($F$1,A41,A42,$B$1,B42,$D$1,C42,$D$1,D42,$A$1,E42,$B$1,F42,C1,G42,C1)</f>
-        <v xml:space="preserve">rails generate scaffold puntoecologico idpuntoecologico:integer Ubicacionx:decimal Ubicaciony:decimal Nombre:string idresponsable:integer Fechainicio:datetime Fechacierre:datetime </v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="G49" s="15" t="s">
+      <c r="E47" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="G47" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="str">
-        <f>CONCATENATE($F$1,A48,A49,$B$1,B49,$B$1,C49,$B$1,D49,$C$1,E49,$B$1,F49,$B$1,G49,$A$1)</f>
-        <v xml:space="preserve">rails generate scaffold venta idventas:integer idpuntoecologico:integer iddetalleparametro:integer fechaventa:datetime cantidad:integer valor:integer donacion:string </v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>CONCATENATE($F$1,A46,A47,$B$1,B47,$B$1,C47,$C$1,D47,$B$1,E47,$B$1,F47,$B$1,G47,A1)</f>
+        <v xml:space="preserve">rails generate scaffold venta iddetalleparametro:integer idredencion:integer fechaventa:datetime cantidad:integer valorunidad:integer total:integer donacion:string </v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="B58" s="15"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B59" s="15"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="str">
-        <f>CONCATENATE($F$1,A58,A59,B1)</f>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f>CONCATENATE($F$1,A53,A54,B1)</f>
         <v xml:space="preserve">rails generate scaffold parametro nombre:integer </v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="15" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B61" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C66" s="15"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="str">
-        <f>CONCATENATE($F$1,A65,A66,B1,B66,A1)</f>
+      <c r="C61" s="15"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f>CONCATENATE($F$1,A60,A61,B1,B61,A1)</f>
         <v xml:space="preserve">rails generate scaffold detalleparametro idparametro:integer nombre:string </v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2703,8 +2709,8 @@
   <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BD/DiagramaActividades.xlsx
+++ b/BD/DiagramaActividades.xlsx
@@ -9,12 +9,13 @@
   <sheets>
     <sheet name="Gráfico" sheetId="2" r:id="rId1"/>
     <sheet name="BD" sheetId="3" r:id="rId2"/>
-    <sheet name="Scaffold (Rails)" sheetId="10" r:id="rId3"/>
-    <sheet name="Scaffold" sheetId="9" r:id="rId4"/>
-    <sheet name="PARAMETROS" sheetId="4" r:id="rId5"/>
-    <sheet name="PUNTUACION" sheetId="6" r:id="rId6"/>
-    <sheet name="PLANILLASREPORTE" sheetId="7" r:id="rId7"/>
-    <sheet name="USUARIO" sheetId="8" r:id="rId8"/>
+    <sheet name="Scaffold (Rails) (FK)" sheetId="11" r:id="rId3"/>
+    <sheet name="Scaffold (Rails)" sheetId="10" r:id="rId4"/>
+    <sheet name="Scaffold" sheetId="9" r:id="rId5"/>
+    <sheet name="PARAMETROS" sheetId="4" r:id="rId6"/>
+    <sheet name="PUNTUACION" sheetId="6" r:id="rId7"/>
+    <sheet name="PLANILLASREPORTE" sheetId="7" r:id="rId8"/>
+    <sheet name="USUARIO" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="270">
   <si>
     <t>N° Actividad</t>
   </si>
@@ -803,6 +804,39 @@
   </si>
   <si>
     <t xml:space="preserve">rails generate scaffold venta iddetalleparametro:integer idredencion:integer fechaventa:datetime cantidad:integer valorunidad:integer total:integer donacion:string </t>
+  </si>
+  <si>
+    <t>reto:references usuario:references</t>
+  </si>
+  <si>
+    <t>reto:references reto:detalleparametro</t>
+  </si>
+  <si>
+    <t>reto:retousuario reto:detalleparametro</t>
+  </si>
+  <si>
+    <t>idventa</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>rails generate scaffold retousuario lema:string reto:references users:references</t>
+  </si>
+  <si>
+    <t>fechaexpiracion</t>
+  </si>
+  <si>
+    <t>rails generate scaffold meta fechaexpiracion:datetime cantidad:integer retos:references detalleparametros:references</t>
+  </si>
+  <si>
+    <t>rails generate scaffold recoleccion idusu_invitado:integer iddetalleparametro:integer idredencion:integer idpuntorecoleccion:integer estado:string fecha:datetime cantidad:integer idventa:integer retousuario:references detalleparametro:references</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recoleccions </t>
+  </si>
+  <si>
+    <t>rails generate scaffold redencion idusuario:integer idpremio:integer fecharedencion:integer Cantidadpremio:datetime Cantidadpremio:integer reto:references</t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1389,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2284,8 +2318,8 @@
   <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2313,7 +2347,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -2380,6 +2414,425 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(F1,A2,A3,A1,B3,A1,C3,A1,D3,A1,E3,A1,F3,C1,G3,A1,H3,A1,I3,A1,J3,A1,K3,A1,L3,A1,M3,A1,N3,B1,O3,B1," --force")</f>
+        <v>rails generate scaffold userscedula:string nombre:string apellido:string celular:string email:string fechanacimiento:datetime direccion:string barrio:string edificio:string genero:string empresa:string clienteacueducto:string jac:string idperfildetpar:integer idlocalidad:integer  --force</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>CONCATENATE($F$1,A9,A10,$B$1,B10,$A$1)</f>
+        <v xml:space="preserve">rails generate scaffold reto idusuario_origina:integer nombre:string </v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" s="15"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>CONCATENATE($F$1,A15,A16,A1)</f>
+        <v xml:space="preserve">rails generate scaffold retousuario lema:string </v>
+      </c>
+      <c r="F18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" s="15"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>CONCATENATE($F$1,A21,A22,$C$1,B22,$B$1)</f>
+        <v xml:space="preserve">rails generate scaffold meta fechaexpiracion:datetime cantidad:integer </v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="J28" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>CONCATENATE($F$1,A27,A28,$B$1,B28,$B$1,C28,$B$1,D28,B1,E28,A1,F28,C1,G28,B1,H28,B1)</f>
+        <v xml:space="preserve">rails generate scaffold recoleccions idusu_invitado:integer iddetalleparametro:integer idredencion:integer idpuntorecoleccion:integer estado:string fecha:datetime cantidad:integer idventa:integer </v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f>CONCATENATE($F$1,A33,A34,$B$1,B34,$B$1,C34,$B$1,D34,$C$1,E34,$B$1)</f>
+        <v xml:space="preserve">rails generate scaffold redencion idusuario:integer idpremio:integer fecharedencion:integer Cantidadpremio:datetime Cantidadpremio:integer </v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f>CONCATENATE($F$1,A39,A40,$D$1,B40,$D$1,C40,$A$1,D40,$A$1,E40,$C$1,F40,C1)</f>
+        <v xml:space="preserve">rails generate scaffold puntoecologico ubicacionx:decimal ubicaciony:decimal nombre:string idresponsable:string fechainicio:datetime fechacierre:datetime </v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>CONCATENATE($F$1,A46,A47,$B$1,B47,$B$1,C47,$C$1,D47,$B$1,E47,$B$1,F47,$B$1,G47,A1)</f>
+        <v xml:space="preserve">rails generate scaffold venta iddetalleparametro:integer idredencion:integer fechaventa:datetime cantidad:integer valorunidad:integer total:integer donacion:string </v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f>CONCATENATE($F$1,A53,A54,B1)</f>
+        <v xml:space="preserve">rails generate scaffold parametro nombre:integer </v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="15"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f>CONCATENATE($F$1,A60,A61,B1,B61,A1)</f>
+        <v xml:space="preserve">rails generate scaffold detalleparametro idparametro:integer nombre:string </v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="3.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>CONCATENATE(F1,A2,A3,A1,B3,A1,C3,A1,D3,A1,E3,A1,F3,C1,G3,A1,H3,A1,I3,A1,J3,A1,K3,A1,L3,A1,M3,A1,N3,B1,O3,B1," --force")</f>
         <v>rails generate scaffold usuario cedula:string nombre:string apellido:string celular:string email:string fechanacimiento:datetime direccion:string barrio:string edificio:string genero:string empresa:string clienteacueducto:string jac:string idperfildetpar:integer idlocalidad:integer  --force</v>
       </c>
     </row>
@@ -2704,7 +3157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O70"/>
   <sheetViews>
@@ -3163,7 +3616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N39"/>
   <sheetViews>
@@ -4147,7 +4600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
@@ -4378,7 +4831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -4510,7 +4963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T7"/>
   <sheetViews>

--- a/BD/DiagramaActividades.xlsx
+++ b/BD/DiagramaActividades.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FullStack\reciclapp\BD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9630" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9630" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico" sheetId="2" r:id="rId1"/>
@@ -17,7 +22,7 @@
     <sheet name="PLANILLASREPORTE" sheetId="7" r:id="rId8"/>
     <sheet name="USUARIO" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="358">
   <si>
     <t>N° Actividad</t>
   </si>
@@ -806,43 +811,307 @@
     <t xml:space="preserve">rails generate scaffold venta iddetalleparametro:integer idredencion:integer fechaventa:datetime cantidad:integer valorunidad:integer total:integer donacion:string </t>
   </si>
   <si>
-    <t>reto:references usuario:references</t>
-  </si>
-  <si>
-    <t>reto:references reto:detalleparametro</t>
-  </si>
-  <si>
-    <t>reto:retousuario reto:detalleparametro</t>
-  </si>
-  <si>
     <t>idventa</t>
   </si>
   <si>
     <t>users</t>
   </si>
   <si>
-    <t>rails generate scaffold retousuario lema:string reto:references users:references</t>
-  </si>
-  <si>
     <t>fechaexpiracion</t>
   </si>
   <si>
-    <t>rails generate scaffold meta fechaexpiracion:datetime cantidad:integer retos:references detalleparametros:references</t>
-  </si>
-  <si>
-    <t>rails generate scaffold recoleccion idusu_invitado:integer iddetalleparametro:integer idredencion:integer idpuntorecoleccion:integer estado:string fecha:datetime cantidad:integer idventa:integer retousuario:references detalleparametro:references</t>
-  </si>
-  <si>
     <t xml:space="preserve">recoleccions </t>
   </si>
   <si>
-    <t>rails generate scaffold redencion idusuario:integer idpremio:integer fecharedencion:integer Cantidadpremio:datetime Cantidadpremio:integer reto:references</t>
+    <t>patrocinadox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retos </t>
+  </si>
+  <si>
+    <t>rails la manda plural</t>
+  </si>
+  <si>
+    <t>nota</t>
+  </si>
+  <si>
+    <t>retos:references users:references</t>
+  </si>
+  <si>
+    <t>rails generate scaffold retousuario lema:string nota:string retos:references users:references</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retousuarios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">parametros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rails generate scaffold parametros nombre:string </t>
+  </si>
+  <si>
+    <t>parametros:references</t>
+  </si>
+  <si>
+    <t>rails generate scaffold detalleparametro nombre:string parametros:references</t>
+  </si>
+  <si>
+    <t>retos:references detalleparametros:references</t>
+  </si>
+  <si>
+    <t>rails generate scaffold meta fechaexpiracion:datetime cantidad:integer nota:string retos:references detalleparametros:references</t>
+  </si>
+  <si>
+    <t>retousuarios:references detalleparametros:references</t>
+  </si>
+  <si>
+    <t>rails generate scaffold recoleccions idventa:integer iddetalleparametro:integer idredencion:integer idpuntorecoleccion:integer estado:string fecha:datetime cantidad:integer nota:integer nota:string retousuarios:references detalleparametros:references</t>
+  </si>
+  <si>
+    <t>detalleparametros:references</t>
+  </si>
+  <si>
+    <t>disponible</t>
+  </si>
+  <si>
+    <t>rails generate scaffold redencion idusuario:integer fecharedencion:datetime Cantidadpremio:integer disponible:integer nota:string detalleparametros:references</t>
+  </si>
+  <si>
+    <t>puntofijo</t>
+  </si>
+  <si>
+    <t>convenio</t>
+  </si>
+  <si>
+    <t>Imperial</t>
+  </si>
+  <si>
+    <t>Uaesp</t>
+  </si>
+  <si>
+    <t>Acueducto</t>
+  </si>
+  <si>
+    <t>U.Piloto</t>
+  </si>
+  <si>
+    <t>Alcaldia de Suba</t>
+  </si>
+  <si>
+    <t>(39,6,'Imperial'),</t>
+  </si>
+  <si>
+    <t>(40,6,'Uaesp'),</t>
+  </si>
+  <si>
+    <t>(41,6,'Acueducto'),</t>
+  </si>
+  <si>
+    <t>(42,6,'U.Piloto'),</t>
+  </si>
+  <si>
+    <t>(43,6,'Alcaldia de Suba'),</t>
+  </si>
+  <si>
+    <t>detalleparametros:references users:references</t>
+  </si>
+  <si>
+    <t>rails generate scaffold puntoecologico ubicacionx:decimal ubicaciony:decimal nombre:string idresponsable:string fechainicio:datetime fechacierre:datetime detalleparametros:references users:references</t>
+  </si>
+  <si>
+    <t>comprador</t>
+  </si>
+  <si>
+    <t>detalleparametros:references redencions:references</t>
+  </si>
+  <si>
+    <t>rails generate scaffold venta fechaventa:datetime cantidad:integer valorunidad:integer total:integer donacion:string comprador:string detalleparametros:references redencions:references</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>2018-10-14 00:13:40.633799</t>
+  </si>
+  <si>
+    <t>2018-10-14 00:14:08.197595</t>
+  </si>
+  <si>
+    <t>2018-10-14 00:14:17.452426</t>
+  </si>
+  <si>
+    <t>2018-10-14 00:14:32.001796</t>
+  </si>
+  <si>
+    <t>2018-10-14 00:14:39.266134</t>
+  </si>
+  <si>
+    <t>Convenio</t>
+  </si>
+  <si>
+    <t>2018-10-14 00:14:56.555129</t>
+  </si>
+  <si>
+    <t>parametro_id</t>
+  </si>
+  <si>
+    <t>',</t>
+  </si>
+  <si>
+    <t>),</t>
+  </si>
+  <si>
+    <t>(1,'Aceite',1,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(2,'Medicamentos',1,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(3,'Metal',1,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(4,'Papel',1,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(5,'Plastico',1,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(6,'Tecnologico',1,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(7,'Telas',1,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(8,'Usaquén',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(9,'Chapinero',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(10,'Santa Fe',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(11,'San Cristóbal',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(12,'Usme',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(13,'Tunjuelito',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(14,'Bosa',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(15,'Kennedy',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(16,'Fontibón',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(17,'Engativá',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(18,'Suba',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(19,'Barrios Unidos',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(20,'Teusaquillo',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(21,'Los Mártires',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(22,'Antonio Nariño',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(23,'Puente Aranda',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(24,'La Candelaria',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(25,'Rafael Uribe Uribe',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(26,'Ciudad Bolívar',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(27,'Sumapaz',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(28,'Pendiente',3,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(29,'Redimido',3,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(30,'Boletas Cine',4,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(31,'Boletas Maloka',4,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(32,'Dto 25%',4,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(33,'Dto 20%',4,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(34,'Ganancia Recoleccion',4,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(35,'Administrador',5,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(36,'Responsalbe',5,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(37,'Voluntario',5,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(38,'Usuario',5,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(39,'Imperial',6,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(40,'Uaesp',6,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(41,'Acueducto',6,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(42,'U.Piloto',6,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>(43,'Alcaldia de Suba',6,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</t>
+  </si>
+  <si>
+    <t>rails generate scaffold retos nombre:string patrocinadox:string users:references</t>
+  </si>
+  <si>
+    <t>INSERT INTO public.retos(</t>
+  </si>
+  <si>
+    <t>id, nombre, patrocinadox, users_id, created_at, updated_at)</t>
+  </si>
+  <si>
+    <t>VALUES (1, 'RETO A LA JAC COSTA AZUL 2DO SECTOR','Idpac',1,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799');</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1389,7 +1658,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2033,7 +2302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I7"/>
     </sheetView>
   </sheetViews>
@@ -2317,9 +2586,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2347,7 +2616,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -2424,32 +2693,34 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="B9" s="15"/>
+        <v>264</v>
+      </c>
+      <c r="F9" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>215</v>
+        <v>20</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>20</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>CONCATENATE($F$1,A9,A10,$B$1,B10,$A$1)</f>
-        <v xml:space="preserve">rails generate scaffold reto idusuario_origina:integer nombre:string </v>
+        <f>CONCATENATE($F$1,A9,A10,$A$1,B10,$A$1)</f>
+        <v xml:space="preserve">rails generate scaffold retos nombre:string patrocinadox:string </v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>245</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>214</v>
+        <v>269</v>
       </c>
       <c r="B15" s="15"/>
     </row>
@@ -2458,21 +2729,21 @@
         <v>213</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>213</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f>CONCATENATE($F$1,A15,A16,A1)</f>
-        <v xml:space="preserve">rails generate scaffold retousuario lema:string </v>
+        <f>CONCATENATE($F$1,A15,A16,A1,B16,A1)</f>
+        <v xml:space="preserve">rails generate scaffold retousuarios lema:string nota:string </v>
       </c>
       <c r="F18" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2483,31 +2754,34 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>64</v>
       </c>
+      <c r="C22" s="15" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f>CONCATENATE($F$1,A21,A22,$C$1,B22,$B$1)</f>
-        <v xml:space="preserve">rails generate scaffold meta fechaexpiracion:datetime cantidad:integer </v>
+        <f>CONCATENATE($F$1,A21,A22,$C$1,B22,$B$1,C22,A1)</f>
+        <v xml:space="preserve">rails generate scaffold meta fechaexpiracion:datetime cantidad:integer nota:string </v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -2518,7 +2792,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>162</v>
+        <v>259</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>17</v>
@@ -2539,24 +2813,24 @@
         <v>64</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="J28" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f>CONCATENATE($F$1,A27,A28,$B$1,B28,$B$1,C28,$B$1,D28,B1,E28,A1,F28,C1,G28,B1,H28,B1)</f>
-        <v xml:space="preserve">rails generate scaffold recoleccions idusu_invitado:integer iddetalleparametro:integer idredencion:integer idpuntorecoleccion:integer estado:string fecha:datetime cantidad:integer idventa:integer </v>
+        <f>CONCATENATE($F$1,A27,A28,$B$1,B28,$B$1,C28,$B$1,D28,B1,E28,A1,F28,C1,G28,B1,H28,B1,H28,A1)</f>
+        <v xml:space="preserve">rails generate scaffold recoleccions idventa:integer iddetalleparametro:integer idredencion:integer idpuntorecoleccion:integer estado:string fecha:datetime cantidad:integer nota:integer nota:string </v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>222</v>
       </c>
@@ -2565,35 +2839,39 @@
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>92</v>
+        <v>279</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="I34" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f>CONCATENATE($F$1,A33,A34,$B$1,B34,$B$1,C34,$B$1,D34,$C$1,E34,$B$1)</f>
-        <v xml:space="preserve">rails generate scaffold redencion idusuario:integer idpremio:integer fecharedencion:integer Cantidadpremio:datetime Cantidadpremio:integer </v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <f>CONCATENATE($F$1,A33,A34,$B$1,B34,$C$1,C34,$B$1,D34,$B$1,E34,$A$1)</f>
+        <v xml:space="preserve">rails generate scaffold redencion idusuario:integer fecharedencion:datetime Cantidadpremio:integer disponible:integer nota:string </v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>223</v>
       </c>
@@ -2603,7 +2881,7 @@
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>251</v>
       </c>
@@ -2614,7 +2892,7 @@
         <v>20</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>185</v>
+        <v>281</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>253</v>
@@ -2622,19 +2900,23 @@
       <c r="F40" s="15" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G40" s="15"/>
+      <c r="I40" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>CONCATENATE($F$1,A39,A40,$D$1,B40,$D$1,C40,$A$1,D40,$A$1,E40,$C$1,F40,C1)</f>
-        <v xml:space="preserve">rails generate scaffold puntoecologico ubicacionx:decimal ubicaciony:decimal nombre:string idresponsable:string fechainicio:datetime fechacierre:datetime </v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">rails generate scaffold puntoecologico ubicacionx:decimal ubicaciony:decimal nombre:string puntofijo:string fechainicio:datetime fechacierre:datetime </v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>228</v>
       </c>
@@ -2644,86 +2926,85 @@
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>17</v>
+        <v>226</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>64</v>
+        <v>257</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>256</v>
+        <v>109</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="J47" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
-        <f>CONCATENATE($F$1,A46,A47,$B$1,B47,$B$1,C47,$C$1,D47,$B$1,E47,$B$1,F47,$B$1,G47,A1)</f>
-        <v xml:space="preserve">rails generate scaffold venta iddetalleparametro:integer idredencion:integer fechaventa:datetime cantidad:integer valorunidad:integer total:integer donacion:string </v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <f>CONCATENATE($F$1,A46,A47,$C$1,B47,$B$1,C47,$B$1,D47,$B$1,E47,$A$1,F47,$A$1)</f>
+        <v xml:space="preserve">rails generate scaffold venta fechaventa:datetime cantidad:integer valorunidad:integer total:integer donacion:string comprador:string </v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
-        <f>CONCATENATE($F$1,A53,A54,B1)</f>
-        <v xml:space="preserve">rails generate scaffold parametro nombre:integer </v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <f>CONCATENATE($F$1,A53,A54,A1)</f>
+        <v xml:space="preserve">rails generate scaffold parametros nombre:string </v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="15"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
-        <f>CONCATENATE($F$1,A60,A61,B1,B61,A1)</f>
-        <v xml:space="preserve">rails generate scaffold detalleparametro idparametro:integer nombre:string </v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <f>CONCATENATE($F$1,A60,A61,A1)</f>
+        <v xml:space="preserve">rails generate scaffold detalleparametro nombre:string </v>
+      </c>
+      <c r="H63" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -3162,7 +3443,7 @@
   <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23:C23"/>
     </sheetView>
   </sheetViews>
@@ -3618,981 +3899,1694 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="1.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" customWidth="1"/>
+    <col min="13" max="13" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="N1" t="s">
+        <v>298</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>299</v>
+      </c>
+      <c r="R1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q2" t="s">
+        <v>301</v>
+      </c>
+      <c r="R2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="H2">
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+      <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="K2" t="s">
+      <c r="G3" t="s">
         <v>115</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="M2" t="str">
-        <f>CONCATENATE(K2,H2,",",I2,",'",J2,"'),")</f>
+      <c r="I3" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K3" t="str">
+        <f>CONCATENATE(G3,D3,",",E3,",'",F3,"'),")</f>
         <v>(1,1,'Aceite'),</v>
       </c>
-      <c r="N2" t="s">
+      <c r="L3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H3">
+      <c r="M3" t="str">
+        <f>CONCATENATE(G3,D3,",'",F3,I3,E3,",",H3,$Q$2,I3,H3,$R$2,H3,J3)</f>
+        <v>(1,'Aceite',1,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
+      <c r="F4" t="s">
         <v>110</v>
       </c>
-      <c r="K3" t="s">
+      <c r="G4" t="s">
         <v>115</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="H4" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="M3" t="str">
-        <f>CONCATENATE(K3,H3,",",I3,",'",J3,"'),")</f>
+      <c r="I4" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K4" t="str">
+        <f>CONCATENATE(G4,D4,",",E4,",'",F4,"'),")</f>
         <v>(2,1,'Medicamentos'),</v>
       </c>
-      <c r="N3" t="s">
+      <c r="L4" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H4">
+      <c r="M4" t="str">
+        <f t="shared" ref="M4:M45" si="0">CONCATENATE(G4,D4,",'",F4,I4,E4,",",H4,$Q$2,I4,H4,$R$2,H4,J4)</f>
+        <v>(2,'Medicamentos',1,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="I4">
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
+      <c r="F5" t="s">
         <v>112</v>
       </c>
-      <c r="K4" t="s">
+      <c r="G5" t="s">
         <v>115</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="H5" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="M4" t="str">
-        <f>CONCATENATE(K4,H4,",",I4,",'",J4,"'),")</f>
+      <c r="I5" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K5" t="str">
+        <f>CONCATENATE(G5,D5,",",E5,",'",F5,"'),")</f>
         <v>(3,1,'Metal'),</v>
       </c>
-      <c r="N4" t="s">
+      <c r="L5" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H5">
+      <c r="M5" t="str">
+        <f t="shared" si="0"/>
+        <v>(3,'Metal',1,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="I5">
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
+      <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="K5" t="s">
+      <c r="G6" t="s">
         <v>115</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="H6" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="M5" t="str">
-        <f t="shared" ref="M5:M34" si="0">CONCATENATE(K5,H5,",",I5,",'",J5,"'),")</f>
+      <c r="I6" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" ref="K6:K35" si="1">CONCATENATE(G6,D6,",",E6,",'",F6,"'),")</f>
         <v>(4,1,'Papel'),</v>
       </c>
-      <c r="N5" t="s">
+      <c r="L6" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" t="s">
-        <v>115</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="0"/>
+        <v>(4,'Papel',1,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
         <v>(5,1,'Plastico'),</v>
       </c>
-      <c r="N6" t="s">
+      <c r="L7" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H7">
-        <v>6</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="0"/>
+        <v>(5,'Plastico',1,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
         <v>(6,1,'Tecnologico'),</v>
       </c>
-      <c r="N7" t="s">
+      <c r="L8" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H8">
-        <v>7</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>111</v>
-      </c>
-      <c r="K8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="0"/>
+        <v>(6,'Tecnologico',1,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
         <v>(7,1,'Telas'),</v>
       </c>
-      <c r="N8" t="s">
+      <c r="L9" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9">
-        <v>8</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" t="s">
-        <v>115</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="0"/>
+        <v>(7,'Telas',1,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
         <v>(8,2,'Usaquén'),</v>
       </c>
-      <c r="N9" t="s">
+      <c r="L10" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H10">
-        <v>9</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" t="s">
-        <v>115</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="0"/>
+        <v>(8,'Usaquén',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="1"/>
         <v>(9,2,'Chapinero'),</v>
       </c>
-      <c r="N10" t="s">
+      <c r="L11" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H11">
-        <v>10</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" t="s">
-        <v>115</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="0"/>
+        <v>(9,'Chapinero',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="1"/>
         <v>(10,2,'Santa Fe'),</v>
       </c>
-      <c r="N11" t="s">
+      <c r="L12" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H12">
-        <v>11</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" t="s">
-        <v>115</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="0"/>
+        <v>(10,'Santa Fe',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O12" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="1"/>
         <v>(11,2,'San Cristóbal'),</v>
       </c>
-      <c r="N12" t="s">
+      <c r="L13" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H13">
-        <v>12</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-      <c r="J13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" t="s">
-        <v>115</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="0"/>
+        <v>(11,'San Cristóbal',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="1"/>
         <v>(12,2,'Usme'),</v>
       </c>
-      <c r="N13" t="s">
+      <c r="L14" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H14">
-        <v>13</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="J14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14" t="s">
-        <v>115</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="0"/>
+        <v>(12,'Usme',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="1"/>
         <v>(13,2,'Tunjuelito'),</v>
       </c>
-      <c r="N14" t="s">
+      <c r="L15" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H15">
-        <v>14</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="J15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" t="s">
-        <v>115</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="0"/>
+        <v>(13,'Tunjuelito',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="1"/>
         <v>(14,2,'Bosa'),</v>
       </c>
-      <c r="N15" t="s">
+      <c r="L16" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H16">
-        <v>15</v>
-      </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16" t="s">
-        <v>42</v>
-      </c>
-      <c r="K16" t="s">
-        <v>115</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="0"/>
+        <v>(14,'Bosa',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="1"/>
         <v>(15,2,'Kennedy'),</v>
       </c>
-      <c r="N16" t="s">
+      <c r="L17" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H17">
-        <v>16</v>
-      </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" t="s">
-        <v>115</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="0"/>
+        <v>(15,'Kennedy',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="1"/>
         <v>(16,2,'Fontibón'),</v>
       </c>
-      <c r="N17" t="s">
+      <c r="L18" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H18">
-        <v>17</v>
-      </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="J18" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18" t="s">
-        <v>115</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="0"/>
+        <v>(16,'Fontibón',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="1"/>
         <v>(17,2,'Engativá'),</v>
       </c>
-      <c r="N18" t="s">
+      <c r="L19" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H19">
-        <v>18</v>
-      </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="J19" t="s">
-        <v>35</v>
-      </c>
-      <c r="K19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="0"/>
+        <v>(17,'Engativá',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O19" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="1"/>
         <v>(18,2,'Suba'),</v>
       </c>
-      <c r="N19" t="s">
+      <c r="L20" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H20">
-        <v>19</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="0"/>
+        <v>(18,'Suba',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O20" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="1"/>
         <v>(19,2,'Barrios Unidos'),</v>
       </c>
-      <c r="N20" t="s">
+      <c r="L21" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H21">
-        <v>20</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" t="s">
-        <v>115</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="0"/>
+        <v>(19,'Barrios Unidos',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="1"/>
         <v>(20,2,'Teusaquillo'),</v>
       </c>
-      <c r="N21" t="s">
+      <c r="L22" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H22">
-        <v>21</v>
-      </c>
-      <c r="I22">
-        <v>2</v>
-      </c>
-      <c r="J22" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22" t="s">
-        <v>115</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" si="0"/>
+        <v>(20,'Teusaquillo',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O22" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" t="s">
+        <v>115</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="1"/>
         <v>(21,2,'Los Mártires'),</v>
       </c>
-      <c r="N22" t="s">
+      <c r="L23" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H23">
-        <v>22</v>
-      </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
-      <c r="J23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K23" t="s">
-        <v>115</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" si="0"/>
+        <v>(21,'Los Mártires',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O23" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="1"/>
         <v>(22,2,'Antonio Nariño'),</v>
       </c>
-      <c r="N23" t="s">
+      <c r="L24" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H24">
-        <v>23</v>
-      </c>
-      <c r="I24">
-        <v>2</v>
-      </c>
-      <c r="J24" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24" t="s">
-        <v>115</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="M24" t="str">
         <f t="shared" si="0"/>
+        <v>(22,'Antonio Nariño',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O24" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="1"/>
         <v>(23,2,'Puente Aranda'),</v>
       </c>
-      <c r="N24" t="s">
+      <c r="L25" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H25">
-        <v>24</v>
-      </c>
-      <c r="I25">
-        <v>2</v>
-      </c>
-      <c r="J25" t="s">
-        <v>50</v>
-      </c>
-      <c r="K25" t="s">
-        <v>115</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="M25" t="str">
         <f t="shared" si="0"/>
+        <v>(23,'Puente Aranda',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O25" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="1"/>
         <v>(24,2,'La Candelaria'),</v>
       </c>
-      <c r="N25" t="s">
+      <c r="L26" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H26">
-        <v>25</v>
-      </c>
-      <c r="I26">
-        <v>2</v>
-      </c>
-      <c r="J26" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26" t="s">
-        <v>115</v>
-      </c>
-      <c r="L26" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="M26" t="str">
         <f t="shared" si="0"/>
+        <v>(24,'La Candelaria',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O26" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="1"/>
         <v>(25,2,'Rafael Uribe Uribe'),</v>
       </c>
-      <c r="N26" t="s">
+      <c r="L27" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H27">
-        <v>26</v>
-      </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
-      <c r="J27" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27" t="s">
-        <v>115</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="M27" t="str">
         <f t="shared" si="0"/>
+        <v>(25,'Rafael Uribe Uribe',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O27" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="1"/>
         <v>(26,2,'Ciudad Bolívar'),</v>
       </c>
-      <c r="N27" t="s">
+      <c r="L28" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H28">
-        <v>27</v>
-      </c>
-      <c r="I28">
-        <v>2</v>
-      </c>
-      <c r="J28" t="s">
-        <v>53</v>
-      </c>
-      <c r="K28" t="s">
-        <v>115</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" si="0"/>
+        <v>(26,'Ciudad Bolívar',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O28" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="1"/>
         <v>(27,2,'Sumapaz'),</v>
       </c>
-      <c r="N28" t="s">
+      <c r="L29" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>3</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-      <c r="H29">
-        <v>28</v>
-      </c>
-      <c r="I29">
-        <v>3</v>
-      </c>
-      <c r="J29" t="s">
-        <v>58</v>
-      </c>
-      <c r="K29" t="s">
-        <v>115</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="M29" t="str">
         <f t="shared" si="0"/>
+        <v>(27,'Sumapaz',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O29" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30">
+        <v>28</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="1"/>
         <v>(28,3,'Pendiente'),</v>
       </c>
-      <c r="N29" t="s">
+      <c r="L30" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H30">
-        <v>29</v>
-      </c>
-      <c r="I30">
-        <v>3</v>
-      </c>
-      <c r="J30" t="s">
-        <v>59</v>
-      </c>
-      <c r="K30" t="s">
-        <v>115</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="M30" t="str">
         <f t="shared" si="0"/>
+        <v>(28,'Pendiente',3,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O30" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="1"/>
         <v>(29,3,'Redimido'),</v>
       </c>
-      <c r="N30" t="s">
+      <c r="L31" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
-      <c r="H31">
-        <v>30</v>
-      </c>
-      <c r="I31">
-        <v>4</v>
-      </c>
-      <c r="J31" t="s">
-        <v>70</v>
-      </c>
-      <c r="K31" t="s">
-        <v>115</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="M31" t="str">
         <f t="shared" si="0"/>
+        <v>(29,'Redimido',3,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O31" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" t="s">
+        <v>115</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="1"/>
         <v>(30,4,'Boletas Cine'),</v>
       </c>
-      <c r="N31" t="s">
+      <c r="L32" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H32">
-        <v>31</v>
-      </c>
-      <c r="I32">
-        <v>4</v>
-      </c>
-      <c r="J32" t="s">
-        <v>71</v>
-      </c>
-      <c r="K32" t="s">
-        <v>115</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="M32" t="str">
         <f t="shared" si="0"/>
+        <v>(30,'Boletas Cine',4,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O32" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>31</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" t="s">
+        <v>115</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="1"/>
         <v>(31,4,'Boletas Maloka'),</v>
       </c>
-      <c r="N32" t="s">
+      <c r="L33" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H33">
-        <v>32</v>
-      </c>
-      <c r="I33">
-        <v>4</v>
-      </c>
-      <c r="J33" t="s">
-        <v>72</v>
-      </c>
-      <c r="K33" t="s">
-        <v>115</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="M33" t="str">
         <f t="shared" si="0"/>
+        <v>(31,'Boletas Maloka',4,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O33" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>32</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" t="s">
+        <v>115</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="1"/>
         <v>(32,4,'Dto 25%'),</v>
       </c>
-      <c r="N33" t="s">
+      <c r="L34" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H34">
-        <v>33</v>
-      </c>
-      <c r="I34">
-        <v>4</v>
-      </c>
-      <c r="J34" t="s">
-        <v>73</v>
-      </c>
-      <c r="K34" t="s">
-        <v>115</v>
-      </c>
-      <c r="L34" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="M34" t="str">
         <f t="shared" si="0"/>
+        <v>(32,'Dto 25%',4,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O34" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>33</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" t="s">
+        <v>115</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="1"/>
         <v>(33,4,'Dto 20%'),</v>
       </c>
-      <c r="N34" t="s">
+      <c r="L35" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H35">
+      <c r="M35" t="str">
+        <f t="shared" si="0"/>
+        <v>(33,'Dto 20%',4,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O35" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D36">
         <v>34</v>
       </c>
-      <c r="I35">
+      <c r="E36">
         <v>4</v>
       </c>
-      <c r="J35" t="s">
+      <c r="F36" t="s">
         <v>173</v>
       </c>
-      <c r="K35" t="s">
+      <c r="G36" t="s">
         <v>115</v>
       </c>
-      <c r="L35" s="13" t="s">
+      <c r="H36" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="M35" t="str">
-        <f>CONCATENATE(K35,H35,",",I35,",'",J35,"'),")</f>
+      <c r="I36" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" ref="K36:K41" si="2">CONCATENATE(G36,D36,",",E36,",'",F36,"'),")</f>
         <v>(34,4,'Ganancia Recoleccion'),</v>
       </c>
-      <c r="N35" t="s">
+      <c r="L36" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="M36" t="str">
+        <f t="shared" si="0"/>
+        <v>(34,'Ganancia Recoleccion',4,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O36" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>5</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>183</v>
       </c>
-      <c r="H36">
+      <c r="D37">
         <v>35</v>
       </c>
-      <c r="I36">
+      <c r="E37">
         <v>5</v>
       </c>
-      <c r="J36" t="s">
+      <c r="F37" t="s">
         <v>175</v>
       </c>
-      <c r="K36" t="s">
+      <c r="G37" t="s">
         <v>115</v>
       </c>
-      <c r="L36" s="13" t="s">
+      <c r="H37" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="M36" t="str">
-        <f>CONCATENATE(K36,H36,",",I36,",'",J36,"'),")</f>
+      <c r="I37" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="2"/>
         <v>(35,5,'Administrador'),</v>
       </c>
-      <c r="N36" t="s">
+      <c r="L37" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H37">
+      <c r="M37" t="str">
+        <f t="shared" si="0"/>
+        <v>(35,'Administrador',5,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O37" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D38">
         <v>36</v>
       </c>
-      <c r="I37">
+      <c r="E38">
         <v>5</v>
       </c>
-      <c r="J37" t="s">
+      <c r="F38" t="s">
         <v>176</v>
       </c>
-      <c r="K37" t="s">
+      <c r="G38" t="s">
         <v>115</v>
       </c>
-      <c r="L37" s="13" t="s">
+      <c r="H38" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="M37" t="str">
-        <f>CONCATENATE(K37,H37,",",I37,",'",J37,"'),")</f>
+      <c r="I38" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="2"/>
         <v>(36,5,'Responsalbe'),</v>
       </c>
-      <c r="N37" t="s">
+      <c r="L38" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H38">
+      <c r="M38" t="str">
+        <f t="shared" si="0"/>
+        <v>(36,'Responsalbe',5,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O38" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D39">
         <v>37</v>
       </c>
-      <c r="I38">
+      <c r="E39">
         <v>5</v>
       </c>
-      <c r="J38" t="s">
+      <c r="F39" t="s">
         <v>177</v>
       </c>
-      <c r="K38" t="s">
+      <c r="G39" t="s">
         <v>115</v>
       </c>
-      <c r="L38" s="13" t="s">
+      <c r="H39" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="M38" t="str">
-        <f>CONCATENATE(K38,H38,",",I38,",'",J38,"'),")</f>
+      <c r="I39" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="2"/>
         <v>(37,5,'Voluntario'),</v>
       </c>
-      <c r="N38" t="s">
+      <c r="L39" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H39">
+      <c r="M39" t="str">
+        <f t="shared" si="0"/>
+        <v>(37,'Voluntario',5,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O39" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D40">
         <v>38</v>
       </c>
-      <c r="I39">
+      <c r="E40">
         <v>5</v>
       </c>
-      <c r="J39" t="s">
+      <c r="F40" t="s">
         <v>181</v>
       </c>
-      <c r="K39" t="s">
+      <c r="G40" t="s">
         <v>115</v>
       </c>
-      <c r="L39" s="13" t="s">
+      <c r="H40" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="M39" t="str">
-        <f>CONCATENATE(K39,H39,",",I39,",'",J39,"'),")</f>
+      <c r="I40" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="2"/>
         <v>(38,5,'Usuario'),</v>
       </c>
-      <c r="N39" t="s">
+      <c r="L40" t="s">
         <v>182</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="0"/>
+        <v>(38,'Usuario',5,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O40" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>282</v>
+      </c>
+      <c r="D41">
+        <v>39</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41" t="s">
+        <v>283</v>
+      </c>
+      <c r="G41" t="s">
+        <v>115</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="2"/>
+        <v>(39,6,'Imperial'),</v>
+      </c>
+      <c r="L41" t="s">
+        <v>288</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="0"/>
+        <v>(39,'Imperial',6,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O41" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42" t="s">
+        <v>284</v>
+      </c>
+      <c r="G42" t="s">
+        <v>115</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" ref="K42:K45" si="3">CONCATENATE(G42,D42,",",E42,",'",F42,"'),")</f>
+        <v>(40,6,'Uaesp'),</v>
+      </c>
+      <c r="L42" t="s">
+        <v>289</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="0"/>
+        <v>(40,'Uaesp',6,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O42" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>41</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="F43" t="s">
+        <v>285</v>
+      </c>
+      <c r="G43" t="s">
+        <v>115</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="3"/>
+        <v>(41,6,'Acueducto'),</v>
+      </c>
+      <c r="L43" t="s">
+        <v>290</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="0"/>
+        <v>(41,'Acueducto',6,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O43" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>42</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44" t="s">
+        <v>286</v>
+      </c>
+      <c r="G44" t="s">
+        <v>115</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="3"/>
+        <v>(42,6,'U.Piloto'),</v>
+      </c>
+      <c r="L44" t="s">
+        <v>291</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="0"/>
+        <v>(42,'U.Piloto',6,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O44" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>43</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="F45" t="s">
+        <v>287</v>
+      </c>
+      <c r="G45" t="s">
+        <v>115</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="3"/>
+        <v>(43,6,'Alcaldia de Suba'),</v>
+      </c>
+      <c r="L45" t="s">
+        <v>292</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="0"/>
+        <v>(43,'Alcaldia de Suba',6,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
+      </c>
+      <c r="O45" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -4833,10 +5827,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25:F26"/>
+      <selection activeCell="C13" sqref="C13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4958,6 +5952,104 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>298</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>303</v>
+      </c>
+      <c r="D15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>304</v>
+      </c>
+      <c r="D16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" t="s">
+        <v>305</v>
+      </c>
+      <c r="D17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C18" t="s">
+        <v>307</v>
+      </c>
+      <c r="D18" t="s">
+        <v>307</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4965,10 +6057,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T7"/>
+  <dimension ref="A2:T14"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5329,6 +6421,21 @@
         <v>190</v>
       </c>
     </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O13" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>357</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1"/>

--- a/BD/DiagramaActividades.xlsx
+++ b/BD/DiagramaActividades.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FullStack\reciclapp\BD\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9630" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9630" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico" sheetId="2" r:id="rId1"/>
@@ -21,8 +16,9 @@
     <sheet name="PUNTUACION" sheetId="6" r:id="rId7"/>
     <sheet name="PLANILLASREPORTE" sheetId="7" r:id="rId8"/>
     <sheet name="USUARIO" sheetId="8" r:id="rId9"/>
+    <sheet name="Hoja1" sheetId="12" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="362">
   <si>
     <t>N° Actividad</t>
   </si>
@@ -592,21 +588,6 @@
     <t>idresponsable</t>
   </si>
   <si>
-    <t>(1,'NIKOLAY','CARDENAS','319360','nikolay37@hotmail.com','31507','Suba','Calle 136','Costa Azul','','M','NIKOLAY CARDENAS','456879','Costa Azul','35'),</t>
-  </si>
-  <si>
-    <t>(2,'JULIAN','RESTREPO','319360','julianrd19@hotmail.com','31507','Suba','Calle 138','','','M','JULIAN RESTREPO','654987','Costa Azul I','35'),</t>
-  </si>
-  <si>
-    <t>(3,'ANDRES','MORENO','319360','andresmorenopinzon@gmail.com','31507','Suba','Calle 140','','','M','ANDRES MORENO','753159','jac 1','35'),</t>
-  </si>
-  <si>
-    <t>(4,'DIEGO','MENA','320','ingelectronicadj@gmail.com','31507','Suba','Calle 142','','','M','DIEGO MENA','258147','jac 1','38'),</t>
-  </si>
-  <si>
-    <t>(5,'NATALIA','ORTIZ','3143815824','nataliaortiz@gmail.com','31507','Suba','Calle 144','','Las Brisas','F','NATALIA ORTIZ','258147','jac 3','38'),</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -814,9 +795,6 @@
     <t>idventa</t>
   </si>
   <si>
-    <t>users</t>
-  </si>
-  <si>
     <t>fechaexpiracion</t>
   </si>
   <si>
@@ -1106,12 +1084,42 @@
   </si>
   <si>
     <t>VALUES (1, 'RETO A LA JAC COSTA AZUL 2DO SECTOR','Idpac',1,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799');</t>
+  </si>
+  <si>
+    <t>clave</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> --force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">users </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rails generate scaffold users cedula:string nombre:string apellido:string celular:string email:string fechanacimiento:datetime direccion:string barrio:string edificio:string genero:string empresa:string clienteacueducto:string jac:string idperfildetpar:integer idlocalidad:integer clave:string </t>
+  </si>
+  <si>
+    <t>Cedula</t>
+  </si>
+  <si>
+    <t>(1,'79799,'NIKOLAY','CARDENAS','319360','nikolay37@hotmail.com','31507','Suba','Calle 136','Costa Azul','','M','NIKOLAY CARDENAS','456879','Costa Azul','35'),</t>
+  </si>
+  <si>
+    <t>(2,'10100,'JULIAN','RESTREPO','319360','julianrd19@hotmail.com','31507','Suba','Calle 138','','','M','JULIAN RESTREPO','654987','Costa Azul I','35'),</t>
+  </si>
+  <si>
+    <t>(3,'10101,'ANDRES','MORENO','319360','andresmorenopinzon@gmail.com','31507','Suba','Calle 140','','','M','ANDRES MORENO','753159','jac 1','35'),</t>
+  </si>
+  <si>
+    <t>(4,'10102,'DIEGO','MENA','3178140952','ingelectronicadj@gmail.com','31507','Suba','Calle 142','','','M','DIEGO MENA','258147','jac 1','38'),</t>
+  </si>
+  <si>
+    <t>(5,'10103,'NATALIA','ORTIZ','3143815824','nataliaortiz@gmail.com','31507','Suba','Calle 144','','Las Brisas','F','NATALIA ORTIZ','258147','jac 3','38'),</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1658,7 +1666,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2298,11 +2306,23 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I7"/>
     </sheetView>
   </sheetViews>
@@ -2323,7 +2343,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -2338,10 +2358,10 @@
         <v>65</v>
       </c>
       <c r="F1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H1" t="s">
         <v>74</v>
@@ -2367,13 +2387,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E2" t="s">
         <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G2" t="s">
         <v>62</v>
@@ -2405,7 +2425,7 @@
         <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
         <v>104</v>
@@ -2417,7 +2437,7 @@
         <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J3" t="s">
         <v>103</v>
@@ -2434,7 +2454,7 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
@@ -2449,7 +2469,7 @@
         <v>90</v>
       </c>
       <c r="I4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
@@ -2480,7 +2500,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F6" t="s">
         <v>89</v>
@@ -2517,7 +2537,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -2584,11 +2604,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:P64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2597,26 +2617,26 @@
     <col min="13" max="13" width="3.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>260</v>
+        <v>354</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -2633,9 +2653,9 @@
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>20</v>
@@ -2644,31 +2664,31 @@
         <v>21</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="F3" s="15" t="s">
+      <c r="K3" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="L3" s="15" t="s">
         <v>197</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>202</v>
       </c>
       <c r="M3" s="15" t="s">
         <v>95</v>
@@ -2677,59 +2697,67 @@
         <v>184</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f>CONCATENATE(F1,A2,A3,A1,B3,A1,C3,A1,D3,A1,E3,A1,F3,C1,G3,A1,H3,A1,I3,A1,J3,A1,K3,A1,L3,A1,M3,A1,N3,B1,O3,B1," --force")</f>
-        <v>rails generate scaffold userscedula:string nombre:string apellido:string celular:string email:string fechanacimiento:datetime direccion:string barrio:string edificio:string genero:string empresa:string clienteacueducto:string jac:string idperfildetpar:integer idlocalidad:integer  --force</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <f>CONCATENATE(F1,A2,A3,A1,B3,A1,C3,A1,D3,A1,E3,A1,F3,C1,G3,A1,H3,A1,I3,A1,J3,A1,K3,A1,L3,A1,M3,A1,N3,B1,O3,B1,P3,A1)</f>
+        <v xml:space="preserve">rails generate scaffold users cedula:string nombre:string apellido:string celular:string email:string fechanacimiento:datetime direccion:string barrio:string edificio:string genero:string empresa:string clienteacueducto:string jac:string idperfildetpar:integer idlocalidad:integer clave:string </v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE($F$1,A9,A10,$A$1,B10,$A$1)</f>
         <v xml:space="preserve">rails generate scaffold retos nombre:string patrocinadox:string </v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B15" s="15"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2738,34 +2766,34 @@
         <v xml:space="preserve">rails generate scaffold retousuarios lema:string nota:string </v>
       </c>
       <c r="F18" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B21" s="15"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>64</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2776,12 +2804,12 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -2792,7 +2820,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>17</v>
@@ -2804,19 +2832,19 @@
         <v>101</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G28" s="15" t="s">
         <v>64</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J28" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2827,12 +2855,12 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -2850,14 +2878,14 @@
         <v>92</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F34" s="15"/>
       <c r="I34" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2868,12 +2896,12 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -2883,26 +2911,26 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>20</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G40" s="15"/>
       <c r="I40" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2913,12 +2941,12 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -2928,27 +2956,27 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>64</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>109</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
       <c r="J47" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2959,12 +2987,12 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2980,12 +3008,12 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2999,12 +3027,12 @@
         <v xml:space="preserve">rails generate scaffold detalleparametro nombre:string </v>
       </c>
       <c r="H63" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3018,7 +3046,7 @@
   <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -3030,24 +3058,24 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -3066,7 +3094,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>20</v>
@@ -3075,31 +3103,31 @@
         <v>21</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="F3" s="15" t="s">
+      <c r="K3" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="L3" s="15" t="s">
         <v>197</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>202</v>
       </c>
       <c r="M3" s="15" t="s">
         <v>95</v>
@@ -3108,7 +3136,7 @@
         <v>184</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -3119,18 +3147,18 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B9" s="15"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>20</v>
@@ -3144,12 +3172,12 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B15" s="15"/>
     </row>
@@ -3158,7 +3186,7 @@
         <v>162</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -3169,12 +3197,12 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -3206,12 +3234,12 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -3240,10 +3268,10 @@
         <v>101</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H28" s="15" t="s">
         <v>64</v>
@@ -3259,12 +3287,12 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -3296,12 +3324,12 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -3311,10 +3339,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>20</v>
@@ -3323,10 +3351,10 @@
         <v>185</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3337,12 +3365,12 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -3358,16 +3386,16 @@
         <v>89</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>64</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G47" s="15" t="s">
         <v>109</v>
@@ -3381,12 +3409,12 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -3402,12 +3430,12 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
@@ -3429,7 +3457,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3455,24 +3483,24 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -3500,31 +3528,31 @@
         <v>21</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="F3" s="15" t="s">
+      <c r="K3" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="L3" s="15" t="s">
         <v>197</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>202</v>
       </c>
       <c r="M3" s="15" t="s">
         <v>95</v>
@@ -3533,7 +3561,7 @@
         <v>184</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -3544,12 +3572,12 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B8" s="15"/>
     </row>
@@ -3569,12 +3597,12 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -3598,12 +3626,12 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -3616,7 +3644,7 @@
         <v>162</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -3627,12 +3655,12 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -3642,7 +3670,7 @@
         <v>66</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>20</v>
@@ -3656,12 +3684,12 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -3675,7 +3703,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>104</v>
@@ -3711,12 +3739,12 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
@@ -3752,12 +3780,12 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -3789,12 +3817,12 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
@@ -3807,10 +3835,10 @@
         <v>103</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>15</v>
@@ -3833,12 +3861,12 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -3849,7 +3877,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>103</v>
@@ -3858,13 +3886,13 @@
         <v>17</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E64" s="15" t="s">
         <v>64</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G64" s="15" t="s">
         <v>109</v>
@@ -3878,17 +3906,17 @@
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3901,8 +3929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3939,27 +3967,27 @@
         <v>15</v>
       </c>
       <c r="N1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="O1" t="s">
         <v>20</v>
       </c>
       <c r="P1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="Q1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="R1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="R2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3985,10 +4013,10 @@
         <v>114</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K3" t="str">
         <f>CONCATENATE(G3,D3,",",E3,",'",F3,"'),")</f>
@@ -4002,7 +4030,7 @@
         <v>(1,'Aceite',1,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -4022,10 +4050,10 @@
         <v>114</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K4" t="str">
         <f>CONCATENATE(G4,D4,",",E4,",'",F4,"'),")</f>
@@ -4039,7 +4067,7 @@
         <v>(2,'Medicamentos',1,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O4" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -4059,10 +4087,10 @@
         <v>114</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K5" t="str">
         <f>CONCATENATE(G5,D5,",",E5,",'",F5,"'),")</f>
@@ -4076,7 +4104,7 @@
         <v>(3,'Metal',1,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O5" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -4096,10 +4124,10 @@
         <v>114</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" ref="K6:K35" si="1">CONCATENATE(G6,D6,",",E6,",'",F6,"'),")</f>
@@ -4113,7 +4141,7 @@
         <v>(4,'Papel',1,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O6" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -4133,10 +4161,10 @@
         <v>114</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="1"/>
@@ -4150,7 +4178,7 @@
         <v>(5,'Plastico',1,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -4170,10 +4198,10 @@
         <v>114</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="1"/>
@@ -4187,7 +4215,7 @@
         <v>(6,'Tecnologico',1,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O8" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -4207,10 +4235,10 @@
         <v>114</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="1"/>
@@ -4224,7 +4252,7 @@
         <v>(7,'Telas',1,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O9" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -4250,10 +4278,10 @@
         <v>114</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="1"/>
@@ -4267,7 +4295,7 @@
         <v>(8,'Usaquén',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O10" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -4287,10 +4315,10 @@
         <v>114</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="1"/>
@@ -4304,7 +4332,7 @@
         <v>(9,'Chapinero',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O11" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -4324,10 +4352,10 @@
         <v>114</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="1"/>
@@ -4341,7 +4369,7 @@
         <v>(10,'Santa Fe',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O12" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -4361,10 +4389,10 @@
         <v>114</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="1"/>
@@ -4378,7 +4406,7 @@
         <v>(11,'San Cristóbal',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O13" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -4398,10 +4426,10 @@
         <v>114</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="1"/>
@@ -4415,7 +4443,7 @@
         <v>(12,'Usme',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O14" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -4435,10 +4463,10 @@
         <v>114</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="1"/>
@@ -4452,7 +4480,7 @@
         <v>(13,'Tunjuelito',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O15" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -4472,10 +4500,10 @@
         <v>114</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="1"/>
@@ -4489,7 +4517,7 @@
         <v>(14,'Bosa',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O16" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -4509,10 +4537,10 @@
         <v>114</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="1"/>
@@ -4526,7 +4554,7 @@
         <v>(15,'Kennedy',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O17" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -4546,10 +4574,10 @@
         <v>114</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="1"/>
@@ -4563,7 +4591,7 @@
         <v>(16,'Fontibón',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O18" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -4583,10 +4611,10 @@
         <v>114</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="1"/>
@@ -4600,7 +4628,7 @@
         <v>(17,'Engativá',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O19" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -4620,10 +4648,10 @@
         <v>114</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="1"/>
@@ -4637,7 +4665,7 @@
         <v>(18,'Suba',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O20" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -4657,10 +4685,10 @@
         <v>114</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="1"/>
@@ -4674,7 +4702,7 @@
         <v>(19,'Barrios Unidos',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O21" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -4694,10 +4722,10 @@
         <v>114</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="1"/>
@@ -4711,7 +4739,7 @@
         <v>(20,'Teusaquillo',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O22" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -4731,10 +4759,10 @@
         <v>114</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="1"/>
@@ -4748,7 +4776,7 @@
         <v>(21,'Los Mártires',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O23" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -4768,10 +4796,10 @@
         <v>114</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="1"/>
@@ -4785,7 +4813,7 @@
         <v>(22,'Antonio Nariño',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O24" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -4805,10 +4833,10 @@
         <v>114</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="1"/>
@@ -4822,7 +4850,7 @@
         <v>(23,'Puente Aranda',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O25" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -4842,10 +4870,10 @@
         <v>114</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="1"/>
@@ -4859,7 +4887,7 @@
         <v>(24,'La Candelaria',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O26" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -4879,10 +4907,10 @@
         <v>114</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="1"/>
@@ -4896,7 +4924,7 @@
         <v>(25,'Rafael Uribe Uribe',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O27" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -4916,10 +4944,10 @@
         <v>114</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="1"/>
@@ -4933,7 +4961,7 @@
         <v>(26,'Ciudad Bolívar',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O28" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -4953,10 +4981,10 @@
         <v>114</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="1"/>
@@ -4970,7 +4998,7 @@
         <v>(27,'Sumapaz',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O29" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -4996,10 +5024,10 @@
         <v>114</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="1"/>
@@ -5013,7 +5041,7 @@
         <v>(28,'Pendiente',3,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O30" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -5033,10 +5061,10 @@
         <v>114</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="1"/>
@@ -5050,7 +5078,7 @@
         <v>(29,'Redimido',3,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O31" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -5076,10 +5104,10 @@
         <v>114</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="1"/>
@@ -5093,7 +5121,7 @@
         <v>(30,'Boletas Cine',4,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O32" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -5113,10 +5141,10 @@
         <v>114</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="1"/>
@@ -5130,7 +5158,7 @@
         <v>(31,'Boletas Maloka',4,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O33" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -5150,10 +5178,10 @@
         <v>114</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="1"/>
@@ -5167,7 +5195,7 @@
         <v>(32,'Dto 25%',4,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O34" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -5187,10 +5215,10 @@
         <v>114</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="1"/>
@@ -5204,7 +5232,7 @@
         <v>(33,'Dto 20%',4,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O35" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -5224,10 +5252,10 @@
         <v>114</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" ref="K36:K41" si="2">CONCATENATE(G36,D36,",",E36,",'",F36,"'),")</f>
@@ -5241,7 +5269,7 @@
         <v>(34,'Ganancia Recoleccion',4,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O36" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -5267,10 +5295,10 @@
         <v>114</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="2"/>
@@ -5284,7 +5312,7 @@
         <v>(35,'Administrador',5,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O37" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -5304,10 +5332,10 @@
         <v>114</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="2"/>
@@ -5321,7 +5349,7 @@
         <v>(36,'Responsalbe',5,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O38" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -5341,10 +5369,10 @@
         <v>114</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="2"/>
@@ -5358,7 +5386,7 @@
         <v>(37,'Voluntario',5,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O39" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -5378,10 +5406,10 @@
         <v>114</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" si="2"/>
@@ -5395,7 +5423,7 @@
         <v>(38,'Usuario',5,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O40" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -5403,7 +5431,7 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D41">
         <v>39</v>
@@ -5412,7 +5440,7 @@
         <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G41" t="s">
         <v>115</v>
@@ -5421,24 +5449,24 @@
         <v>114</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="2"/>
         <v>(39,6,'Imperial'),</v>
       </c>
       <c r="L41" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="M41" t="str">
         <f t="shared" si="0"/>
         <v>(39,'Imperial',6,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O41" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -5449,7 +5477,7 @@
         <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G42" t="s">
         <v>115</v>
@@ -5458,24 +5486,24 @@
         <v>114</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" ref="K42:K45" si="3">CONCATENATE(G42,D42,",",E42,",'",F42,"'),")</f>
         <v>(40,6,'Uaesp'),</v>
       </c>
       <c r="L42" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="M42" t="str">
         <f t="shared" si="0"/>
         <v>(40,'Uaesp',6,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O42" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -5486,7 +5514,7 @@
         <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G43" t="s">
         <v>115</v>
@@ -5495,24 +5523,24 @@
         <v>114</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" si="3"/>
         <v>(41,6,'Acueducto'),</v>
       </c>
       <c r="L43" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="M43" t="str">
         <f t="shared" si="0"/>
         <v>(41,'Acueducto',6,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O43" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -5523,7 +5551,7 @@
         <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G44" t="s">
         <v>115</v>
@@ -5532,24 +5560,24 @@
         <v>114</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="3"/>
         <v>(42,6,'U.Piloto'),</v>
       </c>
       <c r="L44" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M44" t="str">
         <f t="shared" si="0"/>
         <v>(42,'U.Piloto',6,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O44" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -5560,7 +5588,7 @@
         <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G45" t="s">
         <v>115</v>
@@ -5569,24 +5597,24 @@
         <v>114</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="3"/>
         <v>(43,6,'Alcaldia de Suba'),</v>
       </c>
       <c r="L45" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M45" t="str">
         <f t="shared" si="0"/>
         <v>(43,'Alcaldia de Suba',6,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O45" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -5598,7 +5626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -5829,8 +5857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:E13"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5954,16 +5982,16 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D12" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -5974,10 +6002,10 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D13" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5988,10 +6016,10 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D14" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -6002,10 +6030,10 @@
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D15" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -6016,10 +6044,10 @@
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D16" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -6030,10 +6058,10 @@
         <v>183</v>
       </c>
       <c r="C17" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D17" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -6041,13 +6069,13 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C18" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D18" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -6057,392 +6085,430 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T14"/>
+  <dimension ref="A2:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" customWidth="1"/>
-    <col min="11" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="1.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" customWidth="1"/>
+    <col min="12" max="15" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" customWidth="1"/>
+    <col min="18" max="18" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="1.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>96</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>97</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>98</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>113</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>27</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>95</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>79799</v>
+      </c>
+      <c r="C3" t="s">
         <v>76</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>77</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>319360</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="F3" s="11">
+      <c r="G3" s="11">
         <v>31507</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>151</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>153</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>78</v>
       </c>
-      <c r="L3" t="str">
-        <f>CONCATENATE(B3," ",C3)</f>
+      <c r="M3" t="str">
+        <f>CONCATENATE(C3," ",D3)</f>
         <v>NIKOLAY CARDENAS</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>456879</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>153</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>35</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3">
+        <v>1234</v>
+      </c>
+      <c r="R3" t="s">
         <v>115</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="S3" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="T3" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="S3" t="str">
-        <f>CONCATENATE(P3,A3,",",Q3,B3,R3,C3,R3,D3,R3,,E3,R3,F3,R3,G3,R3,H3,R3,I3,R3,J3,R3,K3,R3,L3,R3,M3,R3,N3,R3,O3,"'),")</f>
-        <v>(1,'NIKOLAY','CARDENAS','319360','nikolay37@hotmail.com','31507','Suba','Calle 136','Costa Azul','','M','NIKOLAY CARDENAS','456879','Costa Azul','35'),</v>
-      </c>
-      <c r="T3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3" t="str">
+        <f>CONCATENATE(R3,A3,",",S3,B3,",",S3,C3,T3,D3,T3,E3,T3,,F3,T3,G3,T3,H3,T3,I3,T3,J3,T3,K3,T3,L3,T3,M3,T3,N3,T3,O3,T3,P3,"'),")</f>
+        <v>(1,'79799,'NIKOLAY','CARDENAS','319360','nikolay37@hotmail.com','31507','Suba','Calle 136','Costa Azul','','M','NIKOLAY CARDENAS','456879','Costa Azul','35'),</v>
+      </c>
+      <c r="V3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>10100</v>
+      </c>
+      <c r="C4" t="s">
         <v>79</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>80</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>319360</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="11">
+      <c r="G4" s="11">
         <v>31507</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>152</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>78</v>
       </c>
-      <c r="L4" t="str">
-        <f>CONCATENATE(B4," ",C4)</f>
+      <c r="M4" t="str">
+        <f>CONCATENATE(C4," ",D4)</f>
         <v>JULIAN RESTREPO</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>654987</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>154</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>35</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4">
+        <v>1234</v>
+      </c>
+      <c r="R4" t="s">
         <v>115</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="S4" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="T4" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="S4" t="str">
-        <f>CONCATENATE(P4,A4,",",Q4,B4,R4,C4,R4,D4,R4,,E4,R4,F4,R4,G4,R4,H4,R4,I4,R4,J4,R4,K4,R4,L4,R4,M4,R4,N4,R4,O4,"'),")</f>
-        <v>(2,'JULIAN','RESTREPO','319360','julianrd19@hotmail.com','31507','Suba','Calle 138','','','M','JULIAN RESTREPO','654987','Costa Azul I','35'),</v>
-      </c>
-      <c r="T4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4" t="str">
+        <f t="shared" ref="U4:U7" si="0">CONCATENATE(R4,A4,",",S4,B4,",",S4,C4,T4,D4,T4,E4,T4,,F4,T4,G4,T4,H4,T4,I4,T4,J4,T4,K4,T4,L4,T4,M4,T4,N4,T4,O4,T4,P4,"'),")</f>
+        <v>(2,'10100,'JULIAN','RESTREPO','319360','julianrd19@hotmail.com','31507','Suba','Calle 138','','','M','JULIAN RESTREPO','654987','Costa Azul I','35'),</v>
+      </c>
+      <c r="V4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>10101</v>
+      </c>
+      <c r="C5" t="s">
         <v>81</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>82</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>319360</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="11">
+      <c r="G5" s="11">
         <v>31507</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>35</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>156</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>78</v>
       </c>
-      <c r="L5" t="str">
-        <f>CONCATENATE(B5," ",C5)</f>
+      <c r="M5" t="str">
+        <f>CONCATENATE(C5," ",D5)</f>
         <v>ANDRES MORENO</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>753159</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>159</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>35</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5">
+        <v>1234</v>
+      </c>
+      <c r="R5" t="s">
         <v>115</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="S5" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="T5" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="S5" t="str">
-        <f>CONCATENATE(P5,A5,",",Q5,B5,R5,C5,R5,D5,R5,,E5,R5,F5,R5,G5,R5,H5,R5,I5,R5,J5,R5,K5,R5,L5,R5,M5,R5,N5,R5,O5,"'),")</f>
-        <v>(3,'ANDRES','MORENO','319360','andresmorenopinzon@gmail.com','31507','Suba','Calle 140','','','M','ANDRES MORENO','753159','jac 1','35'),</v>
-      </c>
-      <c r="T5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5" t="str">
+        <f t="shared" si="0"/>
+        <v>(3,'10101,'ANDRES','MORENO','319360','andresmorenopinzon@gmail.com','31507','Suba','Calle 140','','','M','ANDRES MORENO','753159','jac 1','35'),</v>
+      </c>
+      <c r="V5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>10102</v>
+      </c>
+      <c r="C6" t="s">
         <v>84</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>85</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>3178140952</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="11">
+      <c r="G6" s="11">
         <v>31507</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>35</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>157</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>78</v>
       </c>
-      <c r="L6" t="str">
-        <f>CONCATENATE(B6," ",C6)</f>
+      <c r="M6" t="str">
+        <f>CONCATENATE(C6," ",D6)</f>
         <v>DIEGO MENA</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>258147</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>159</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>38</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6">
+        <v>1234</v>
+      </c>
+      <c r="R6" t="s">
         <v>115</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="S6" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="T6" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="S6" t="str">
-        <f>CONCATENATE(P6,A6,",",Q6,B6,R6,C6,R6,D6,R6,,E6,R6,F6,R6,G6,R6,H6,R6,I6,R6,J6,R6,K6,R6,L6,R6,M6,R6,N6,R6,O6,"'),")</f>
-        <v>(4,'DIEGO','MENA','3178140952','ingelectronicadj@gmail.com','31507','Suba','Calle 142','','','M','DIEGO MENA','258147','jac 1','38'),</v>
-      </c>
-      <c r="T6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6" t="str">
+        <f t="shared" si="0"/>
+        <v>(4,'10102,'DIEGO','MENA','3178140952','ingelectronicadj@gmail.com','31507','Suba','Calle 142','','','M','DIEGO MENA','258147','jac 1','38'),</v>
+      </c>
+      <c r="V6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>10103</v>
+      </c>
+      <c r="C7" t="s">
         <v>145</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>146</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>3143815824</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="F7" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="F7" s="11">
+      <c r="G7" s="11">
         <v>31507</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>35</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>158</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>149</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>148</v>
       </c>
-      <c r="L7" t="str">
-        <f>CONCATENATE(B7," ",C7)</f>
+      <c r="M7" t="str">
+        <f>CONCATENATE(C7," ",D7)</f>
         <v>NATALIA ORTIZ</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>258147</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>160</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>38</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7">
+        <v>1234</v>
+      </c>
+      <c r="R7" t="s">
         <v>115</v>
       </c>
-      <c r="Q7" s="13" t="s">
+      <c r="S7" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="R7" s="13" t="s">
+      <c r="T7" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="S7" t="str">
-        <f>CONCATENATE(P7,A7,",",Q7,B7,R7,C7,R7,D7,R7,,E7,R7,F7,R7,G7,R7,H7,R7,I7,R7,J7,R7,K7,R7,L7,R7,M7,R7,N7,R7,O7,"'),")</f>
-        <v>(5,'NATALIA','ORTIZ','3143815824','nataliaortiz@gmail.com','31507','Suba','Calle 144','','Las Brisas','F','NATALIA ORTIZ','258147','jac 3','38'),</v>
-      </c>
-      <c r="T7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N12" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O13" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O14" t="s">
-        <v>357</v>
+      <c r="U7" t="str">
+        <f t="shared" si="0"/>
+        <v>(5,'10103,'NATALIA','ORTIZ','3143815824','nataliaortiz@gmail.com','31507','Suba','Calle 144','','Las Brisas','F','NATALIA ORTIZ','258147','jac 3','38'),</v>
+      </c>
+      <c r="V7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E4" r:id="rId2"/>
-    <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="E6" r:id="rId4"/>
-    <hyperlink ref="E7" r:id="rId5"/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="F5" r:id="rId3"/>
+    <hyperlink ref="F6" r:id="rId4"/>
+    <hyperlink ref="F7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BD/DiagramaActividades.xlsx
+++ b/BD/DiagramaActividades.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FullStack\Reciclapp\BD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9630" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9630" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico" sheetId="2" r:id="rId1"/>
     <sheet name="BD" sheetId="3" r:id="rId2"/>
     <sheet name="Scaffold (Rails) (FK)" sheetId="11" r:id="rId3"/>
-    <sheet name="Scaffold (Rails)" sheetId="10" r:id="rId4"/>
-    <sheet name="Scaffold" sheetId="9" r:id="rId5"/>
-    <sheet name="PARAMETROS" sheetId="4" r:id="rId6"/>
-    <sheet name="PUNTUACION" sheetId="6" r:id="rId7"/>
-    <sheet name="PLANILLASREPORTE" sheetId="7" r:id="rId8"/>
-    <sheet name="USUARIO" sheetId="8" r:id="rId9"/>
-    <sheet name="Hoja1" sheetId="12" r:id="rId10"/>
+    <sheet name="Hoja2" sheetId="13" r:id="rId4"/>
+    <sheet name="Scaffold (Rails)" sheetId="10" r:id="rId5"/>
+    <sheet name="Scaffold" sheetId="9" r:id="rId6"/>
+    <sheet name="PARAMETROS" sheetId="4" r:id="rId7"/>
+    <sheet name="PUNTUACION" sheetId="6" r:id="rId8"/>
+    <sheet name="PLANILLASREPORTE" sheetId="7" r:id="rId9"/>
+    <sheet name="USUARIO" sheetId="8" r:id="rId10"/>
+    <sheet name="Hoja1" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="370">
   <si>
     <t>N° Actividad</t>
   </si>
@@ -837,9 +843,6 @@
     <t>retos:references detalleparametros:references</t>
   </si>
   <si>
-    <t>rails generate scaffold meta fechaexpiracion:datetime cantidad:integer nota:string retos:references detalleparametros:references</t>
-  </si>
-  <si>
     <t>retousuarios:references detalleparametros:references</t>
   </si>
   <si>
@@ -852,9 +855,6 @@
     <t>disponible</t>
   </si>
   <si>
-    <t>rails generate scaffold redencion idusuario:integer fecharedencion:datetime Cantidadpremio:integer disponible:integer nota:string detalleparametros:references</t>
-  </si>
-  <si>
     <t>puntofijo</t>
   </si>
   <si>
@@ -900,12 +900,6 @@
     <t>comprador</t>
   </si>
   <si>
-    <t>detalleparametros:references redencions:references</t>
-  </si>
-  <si>
-    <t>rails generate scaffold venta fechaventa:datetime cantidad:integer valorunidad:integer total:integer donacion:string comprador:string detalleparametros:references redencions:references</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -1114,13 +1108,219 @@
   </si>
   <si>
     <t>(5,'10103,'NATALIA','ORTIZ','3143815824','nataliaortiz@gmail.com','31507','Suba','Calle 144','','Las Brisas','F','NATALIA ORTIZ','258147','jac 3','38'),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ventaganancia </t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;link rel=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"stylesheet"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> href=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"https://stackpath.bootstrapcdn.com/bootstrap/4.1.3/css/bootstrap.min.css"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> integrity=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"sha384-MCw98/SFnGE8fJT3GXwEOngsV7Zt27NXFoaoApmYm81iuXoPkFOJwJ8ERdknLPMO"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> crossorigin=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"anonymous"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h1&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Detalle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> parametros&lt;/h1&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;table </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"table table-hover table-responsive"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;thead </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"thead-dark"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">metasxreto </t>
+  </si>
+  <si>
+    <t>rails generate scaffold metasxreto fechaexpiracion:datetime cantidad:integer nota:string retos:references detalleparametros:references</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detalleparametros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">redenciones </t>
+  </si>
+  <si>
+    <t>rails generate scaffold redenciones idusuario:integer fecharedencion:datetime Cantidadpremio:integer disponible:integer nota:string detalleparametros:references</t>
+  </si>
+  <si>
+    <t>rails generate scaffold ventaganancia fechaventa:datetime cantidad:integer valorunidad:integer total:integer donacion:string comprador:string detalleparametros:references redenciones:references</t>
+  </si>
+  <si>
+    <t>detalleparametros:references redenciones:references</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1164,8 +1364,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC586C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1193,6 +1425,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1E1E1E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,7 +1500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1315,6 +1553,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1666,7 +1911,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2308,6 +2553,437 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:V14"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" customWidth="1"/>
+    <col min="12" max="15" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" customWidth="1"/>
+    <col min="18" max="18" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="1.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>79799</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3">
+        <v>319360</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="11">
+        <v>31507</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M3" t="str">
+        <f>CONCATENATE(C3," ",D3)</f>
+        <v>NIKOLAY CARDENAS</v>
+      </c>
+      <c r="N3">
+        <v>456879</v>
+      </c>
+      <c r="O3" t="s">
+        <v>153</v>
+      </c>
+      <c r="P3">
+        <v>35</v>
+      </c>
+      <c r="Q3">
+        <v>1234</v>
+      </c>
+      <c r="R3" t="s">
+        <v>115</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="U3" t="str">
+        <f>CONCATENATE(R3,A3,",",S3,B3,",",S3,C3,T3,D3,T3,E3,T3,,F3,T3,G3,T3,H3,T3,I3,T3,J3,T3,K3,T3,L3,T3,M3,T3,N3,T3,O3,T3,P3,"'),")</f>
+        <v>(1,'79799,'NIKOLAY','CARDENAS','319360','nikolay37@hotmail.com','31507','Suba','Calle 136','Costa Azul','','M','NIKOLAY CARDENAS','456879','Costa Azul','35'),</v>
+      </c>
+      <c r="V3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4">
+        <v>319360</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="11">
+        <v>31507</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>152</v>
+      </c>
+      <c r="L4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" t="str">
+        <f>CONCATENATE(C4," ",D4)</f>
+        <v>JULIAN RESTREPO</v>
+      </c>
+      <c r="N4">
+        <v>654987</v>
+      </c>
+      <c r="O4" t="s">
+        <v>154</v>
+      </c>
+      <c r="P4">
+        <v>35</v>
+      </c>
+      <c r="Q4">
+        <v>1234</v>
+      </c>
+      <c r="R4" t="s">
+        <v>115</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="U4" t="str">
+        <f t="shared" ref="U4:U7" si="0">CONCATENATE(R4,A4,",",S4,B4,",",S4,C4,T4,D4,T4,E4,T4,,F4,T4,G4,T4,H4,T4,I4,T4,J4,T4,K4,T4,L4,T4,M4,T4,N4,T4,O4,T4,P4,"'),")</f>
+        <v>(2,'10100,'JULIAN','RESTREPO','319360','julianrd19@hotmail.com','31507','Suba','Calle 138','','','M','JULIAN RESTREPO','654987','Costa Azul I','35'),</v>
+      </c>
+      <c r="V4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5">
+        <v>319360</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="11">
+        <v>31507</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>156</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="str">
+        <f>CONCATENATE(C5," ",D5)</f>
+        <v>ANDRES MORENO</v>
+      </c>
+      <c r="N5">
+        <v>753159</v>
+      </c>
+      <c r="O5" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5">
+        <v>35</v>
+      </c>
+      <c r="Q5">
+        <v>1234</v>
+      </c>
+      <c r="R5" t="s">
+        <v>115</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" si="0"/>
+        <v>(3,'10101,'ANDRES','MORENO','319360','andresmorenopinzon@gmail.com','31507','Suba','Calle 140','','','M','ANDRES MORENO','753159','jac 1','35'),</v>
+      </c>
+      <c r="V5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6">
+        <v>3178140952</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="11">
+        <v>31507</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>157</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="str">
+        <f>CONCATENATE(C6," ",D6)</f>
+        <v>DIEGO MENA</v>
+      </c>
+      <c r="N6">
+        <v>258147</v>
+      </c>
+      <c r="O6" t="s">
+        <v>159</v>
+      </c>
+      <c r="P6">
+        <v>38</v>
+      </c>
+      <c r="Q6">
+        <v>1234</v>
+      </c>
+      <c r="R6" t="s">
+        <v>115</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="0"/>
+        <v>(4,'10102,'DIEGO','MENA','3178140952','ingelectronicadj@gmail.com','31507','Suba','Calle 142','','','M','DIEGO MENA','258147','jac 1','38'),</v>
+      </c>
+      <c r="V6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>10103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7">
+        <v>3143815824</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="11">
+        <v>31507</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M7" t="str">
+        <f>CONCATENATE(C7," ",D7)</f>
+        <v>NATALIA ORTIZ</v>
+      </c>
+      <c r="N7">
+        <v>258147</v>
+      </c>
+      <c r="O7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P7">
+        <v>38</v>
+      </c>
+      <c r="Q7">
+        <v>1234</v>
+      </c>
+      <c r="R7" t="s">
+        <v>115</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="0"/>
+        <v>(5,'10103,'NATALIA','ORTIZ','3143815824','nataliaortiz@gmail.com','31507','Suba','Calle 144','','Las Brisas','F','NATALIA ORTIZ','258147','jac 3','38'),</v>
+      </c>
+      <c r="V7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P13" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="F5" r:id="rId3"/>
+    <hyperlink ref="F6" r:id="rId4"/>
+    <hyperlink ref="F7" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2607,7 +3283,7 @@
   <dimension ref="A1:P64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
@@ -2636,7 +3312,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -2700,7 +3376,7 @@
         <v>198</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -2711,12 +3387,12 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -2743,7 +3419,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -2776,7 +3452,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>215</v>
+        <v>363</v>
       </c>
       <c r="B21" s="15"/>
     </row>
@@ -2799,12 +3475,12 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>CONCATENATE($F$1,A21,A22,$C$1,B22,$B$1,C22,A1)</f>
-        <v xml:space="preserve">rails generate scaffold meta fechaexpiracion:datetime cantidad:integer nota:string </v>
+        <v xml:space="preserve">rails generate scaffold metasxreto fechaexpiracion:datetime cantidad:integer nota:string </v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>269</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2844,7 +3520,7 @@
         <v>260</v>
       </c>
       <c r="J28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2855,12 +3531,12 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>217</v>
+        <v>366</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -2878,25 +3554,25 @@
         <v>92</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>260</v>
       </c>
       <c r="F34" s="15"/>
       <c r="I34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>CONCATENATE($F$1,A33,A34,$B$1,B34,$C$1,C34,$B$1,D34,$B$1,E34,$A$1)</f>
-        <v xml:space="preserve">rails generate scaffold redencion idusuario:integer fecharedencion:datetime Cantidadpremio:integer disponible:integer nota:string </v>
+        <v xml:space="preserve">rails generate scaffold redenciones idusuario:integer fecharedencion:datetime Cantidadpremio:integer disponible:integer nota:string </v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>274</v>
+        <v>367</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2920,7 +3596,7 @@
         <v>20</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>248</v>
@@ -2930,7 +3606,7 @@
       </c>
       <c r="G40" s="15"/>
       <c r="I40" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2941,12 +3617,12 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>223</v>
+        <v>358</v>
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -2955,7 +3631,7 @@
       <c r="F46" s="15"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="23" t="s">
         <v>221</v>
       </c>
       <c r="B47" s="15" t="s">
@@ -2971,23 +3647,23 @@
         <v>109</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
       <c r="J47" t="s">
-        <v>290</v>
+        <v>369</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>CONCATENATE($F$1,A46,A47,$C$1,B47,$B$1,C47,$B$1,D47,$B$1,E47,$A$1,F47,$A$1)</f>
-        <v xml:space="preserve">rails generate scaffold venta fechaventa:datetime cantidad:integer valorunidad:integer total:integer donacion:string comprador:string </v>
+        <v xml:space="preserve">rails generate scaffold ventaganancia fechaventa:datetime cantidad:integer valorunidad:integer total:integer donacion:string comprador:string </v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>291</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -3013,7 +3689,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>206</v>
+        <v>365</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -3024,7 +3700,7 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f>CONCATENATE($F$1,A60,A61,A1)</f>
-        <v xml:space="preserve">rails generate scaffold detalleparametro nombre:string </v>
+        <v xml:space="preserve">rails generate scaffold detalleparametros nombre:string </v>
       </c>
       <c r="H63" t="s">
         <v>266</v>
@@ -3043,10 +3719,48 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>362</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -3466,12 +4180,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23:C23"/>
     </sheetView>
   </sheetViews>
@@ -3925,12 +4639,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3967,27 +4681,27 @@
         <v>15</v>
       </c>
       <c r="N1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="O1" t="s">
         <v>20</v>
       </c>
       <c r="P1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="Q1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="R1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="R2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -4013,10 +4727,10 @@
         <v>114</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K3" t="str">
         <f>CONCATENATE(G3,D3,",",E3,",'",F3,"'),")</f>
@@ -4030,7 +4744,7 @@
         <v>(1,'Aceite',1,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -4050,10 +4764,10 @@
         <v>114</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K4" t="str">
         <f>CONCATENATE(G4,D4,",",E4,",'",F4,"'),")</f>
@@ -4067,7 +4781,7 @@
         <v>(2,'Medicamentos',1,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -4087,10 +4801,10 @@
         <v>114</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K5" t="str">
         <f>CONCATENATE(G5,D5,",",E5,",'",F5,"'),")</f>
@@ -4104,7 +4818,7 @@
         <v>(3,'Metal',1,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O5" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -4124,10 +4838,10 @@
         <v>114</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" ref="K6:K35" si="1">CONCATENATE(G6,D6,",",E6,",'",F6,"'),")</f>
@@ -4141,7 +4855,7 @@
         <v>(4,'Papel',1,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -4161,10 +4875,10 @@
         <v>114</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="1"/>
@@ -4178,7 +4892,7 @@
         <v>(5,'Plastico',1,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -4198,10 +4912,10 @@
         <v>114</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="1"/>
@@ -4215,7 +4929,7 @@
         <v>(6,'Tecnologico',1,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O8" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -4235,10 +4949,10 @@
         <v>114</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="1"/>
@@ -4252,7 +4966,7 @@
         <v>(7,'Telas',1,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O9" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -4278,10 +4992,10 @@
         <v>114</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="1"/>
@@ -4295,7 +5009,7 @@
         <v>(8,'Usaquén',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O10" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -4315,10 +5029,10 @@
         <v>114</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="1"/>
@@ -4332,7 +5046,7 @@
         <v>(9,'Chapinero',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O11" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -4352,10 +5066,10 @@
         <v>114</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="1"/>
@@ -4369,7 +5083,7 @@
         <v>(10,'Santa Fe',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O12" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -4389,10 +5103,10 @@
         <v>114</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="1"/>
@@ -4406,7 +5120,7 @@
         <v>(11,'San Cristóbal',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O13" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -4426,10 +5140,10 @@
         <v>114</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="1"/>
@@ -4443,7 +5157,7 @@
         <v>(12,'Usme',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O14" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -4463,10 +5177,10 @@
         <v>114</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="1"/>
@@ -4480,7 +5194,7 @@
         <v>(13,'Tunjuelito',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O15" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -4500,10 +5214,10 @@
         <v>114</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="1"/>
@@ -4517,7 +5231,7 @@
         <v>(14,'Bosa',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O16" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -4537,10 +5251,10 @@
         <v>114</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="1"/>
@@ -4554,7 +5268,7 @@
         <v>(15,'Kennedy',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O17" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -4574,10 +5288,10 @@
         <v>114</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="1"/>
@@ -4591,7 +5305,7 @@
         <v>(16,'Fontibón',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O18" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -4611,10 +5325,10 @@
         <v>114</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="1"/>
@@ -4628,7 +5342,7 @@
         <v>(17,'Engativá',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O19" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -4648,10 +5362,10 @@
         <v>114</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="1"/>
@@ -4665,7 +5379,7 @@
         <v>(18,'Suba',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O20" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -4685,10 +5399,10 @@
         <v>114</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="1"/>
@@ -4702,7 +5416,7 @@
         <v>(19,'Barrios Unidos',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O21" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -4722,10 +5436,10 @@
         <v>114</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="1"/>
@@ -4739,7 +5453,7 @@
         <v>(20,'Teusaquillo',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O22" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -4759,10 +5473,10 @@
         <v>114</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="1"/>
@@ -4776,7 +5490,7 @@
         <v>(21,'Los Mártires',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O23" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -4796,10 +5510,10 @@
         <v>114</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="1"/>
@@ -4813,7 +5527,7 @@
         <v>(22,'Antonio Nariño',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O24" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -4833,10 +5547,10 @@
         <v>114</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="1"/>
@@ -4850,7 +5564,7 @@
         <v>(23,'Puente Aranda',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O25" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -4870,10 +5584,10 @@
         <v>114</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="1"/>
@@ -4887,7 +5601,7 @@
         <v>(24,'La Candelaria',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O26" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -4907,10 +5621,10 @@
         <v>114</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="1"/>
@@ -4924,7 +5638,7 @@
         <v>(25,'Rafael Uribe Uribe',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O27" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -4944,10 +5658,10 @@
         <v>114</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="1"/>
@@ -4961,7 +5675,7 @@
         <v>(26,'Ciudad Bolívar',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O28" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -4981,10 +5695,10 @@
         <v>114</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="1"/>
@@ -4998,7 +5712,7 @@
         <v>(27,'Sumapaz',2,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O29" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -5024,10 +5738,10 @@
         <v>114</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="1"/>
@@ -5041,7 +5755,7 @@
         <v>(28,'Pendiente',3,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O30" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -5061,10 +5775,10 @@
         <v>114</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="1"/>
@@ -5078,7 +5792,7 @@
         <v>(29,'Redimido',3,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O31" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -5104,10 +5818,10 @@
         <v>114</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="1"/>
@@ -5121,7 +5835,7 @@
         <v>(30,'Boletas Cine',4,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O32" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -5141,10 +5855,10 @@
         <v>114</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="1"/>
@@ -5158,7 +5872,7 @@
         <v>(31,'Boletas Maloka',4,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O33" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -5178,10 +5892,10 @@
         <v>114</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="1"/>
@@ -5195,7 +5909,7 @@
         <v>(32,'Dto 25%',4,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O34" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -5215,10 +5929,10 @@
         <v>114</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="1"/>
@@ -5232,7 +5946,7 @@
         <v>(33,'Dto 20%',4,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O35" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -5252,10 +5966,10 @@
         <v>114</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" ref="K36:K41" si="2">CONCATENATE(G36,D36,",",E36,",'",F36,"'),")</f>
@@ -5269,7 +5983,7 @@
         <v>(34,'Ganancia Recoleccion',4,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O36" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -5295,10 +6009,10 @@
         <v>114</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="2"/>
@@ -5312,7 +6026,7 @@
         <v>(35,'Administrador',5,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O37" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -5332,10 +6046,10 @@
         <v>114</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="2"/>
@@ -5349,7 +6063,7 @@
         <v>(36,'Responsalbe',5,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O38" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -5369,10 +6083,10 @@
         <v>114</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="2"/>
@@ -5386,7 +6100,7 @@
         <v>(37,'Voluntario',5,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O39" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -5406,10 +6120,10 @@
         <v>114</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" si="2"/>
@@ -5423,7 +6137,7 @@
         <v>(38,'Usuario',5,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O40" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -5431,7 +6145,7 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D41">
         <v>39</v>
@@ -5440,7 +6154,7 @@
         <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G41" t="s">
         <v>115</v>
@@ -5449,24 +6163,24 @@
         <v>114</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="2"/>
         <v>(39,6,'Imperial'),</v>
       </c>
       <c r="L41" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M41" t="str">
         <f t="shared" si="0"/>
         <v>(39,'Imperial',6,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O41" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -5477,7 +6191,7 @@
         <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G42" t="s">
         <v>115</v>
@@ -5486,24 +6200,24 @@
         <v>114</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" ref="K42:K45" si="3">CONCATENATE(G42,D42,",",E42,",'",F42,"'),")</f>
         <v>(40,6,'Uaesp'),</v>
       </c>
       <c r="L42" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M42" t="str">
         <f t="shared" si="0"/>
         <v>(40,'Uaesp',6,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O42" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -5514,7 +6228,7 @@
         <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G43" t="s">
         <v>115</v>
@@ -5523,24 +6237,24 @@
         <v>114</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" si="3"/>
         <v>(41,6,'Acueducto'),</v>
       </c>
       <c r="L43" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M43" t="str">
         <f t="shared" si="0"/>
         <v>(41,'Acueducto',6,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O43" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -5551,7 +6265,7 @@
         <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G44" t="s">
         <v>115</v>
@@ -5560,24 +6274,24 @@
         <v>114</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="3"/>
         <v>(42,6,'U.Piloto'),</v>
       </c>
       <c r="L44" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M44" t="str">
         <f t="shared" si="0"/>
         <v>(42,'U.Piloto',6,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O44" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -5588,7 +6302,7 @@
         <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G45" t="s">
         <v>115</v>
@@ -5597,24 +6311,24 @@
         <v>114</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="3"/>
         <v>(43,6,'Alcaldia de Suba'),</v>
       </c>
       <c r="L45" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M45" t="str">
         <f t="shared" si="0"/>
         <v>(43,'Alcaldia de Suba',6,'2018-10-14 00:13:40.633799','2018-10-14 00:13:40.633799'),</v>
       </c>
       <c r="O45" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -5622,7 +6336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
@@ -5853,12 +6567,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5982,16 +6696,16 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D12" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -6002,10 +6716,10 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D13" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -6016,10 +6730,10 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D14" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -6030,10 +6744,10 @@
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D15" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -6044,10 +6758,10 @@
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D16" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -6058,10 +6772,10 @@
         <v>183</v>
       </c>
       <c r="C17" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D17" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -6069,447 +6783,16 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C18" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D18" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="6" max="6" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" customWidth="1"/>
-    <col min="12" max="15" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" customWidth="1"/>
-    <col min="18" max="18" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="1.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>113</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>95</v>
-      </c>
-      <c r="P2" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>79799</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3">
-        <v>319360</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="G3" s="11">
-        <v>31507</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>151</v>
-      </c>
-      <c r="J3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M3" t="str">
-        <f>CONCATENATE(C3," ",D3)</f>
-        <v>NIKOLAY CARDENAS</v>
-      </c>
-      <c r="N3">
-        <v>456879</v>
-      </c>
-      <c r="O3" t="s">
-        <v>153</v>
-      </c>
-      <c r="P3">
-        <v>35</v>
-      </c>
-      <c r="Q3">
-        <v>1234</v>
-      </c>
-      <c r="R3" t="s">
-        <v>115</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="U3" t="str">
-        <f>CONCATENATE(R3,A3,",",S3,B3,",",S3,C3,T3,D3,T3,E3,T3,,F3,T3,G3,T3,H3,T3,I3,T3,J3,T3,K3,T3,L3,T3,M3,T3,N3,T3,O3,T3,P3,"'),")</f>
-        <v>(1,'79799,'NIKOLAY','CARDENAS','319360','nikolay37@hotmail.com','31507','Suba','Calle 136','Costa Azul','','M','NIKOLAY CARDENAS','456879','Costa Azul','35'),</v>
-      </c>
-      <c r="V3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>10100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4">
-        <v>319360</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="11">
-        <v>31507</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>152</v>
-      </c>
-      <c r="L4" t="s">
-        <v>78</v>
-      </c>
-      <c r="M4" t="str">
-        <f>CONCATENATE(C4," ",D4)</f>
-        <v>JULIAN RESTREPO</v>
-      </c>
-      <c r="N4">
-        <v>654987</v>
-      </c>
-      <c r="O4" t="s">
-        <v>154</v>
-      </c>
-      <c r="P4">
-        <v>35</v>
-      </c>
-      <c r="Q4">
-        <v>1234</v>
-      </c>
-      <c r="R4" t="s">
-        <v>115</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="U4" t="str">
-        <f t="shared" ref="U4:U7" si="0">CONCATENATE(R4,A4,",",S4,B4,",",S4,C4,T4,D4,T4,E4,T4,,F4,T4,G4,T4,H4,T4,I4,T4,J4,T4,K4,T4,L4,T4,M4,T4,N4,T4,O4,T4,P4,"'),")</f>
-        <v>(2,'10100,'JULIAN','RESTREPO','319360','julianrd19@hotmail.com','31507','Suba','Calle 138','','','M','JULIAN RESTREPO','654987','Costa Azul I','35'),</v>
-      </c>
-      <c r="V4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>10101</v>
-      </c>
-      <c r="C5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5">
-        <v>319360</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" s="11">
-        <v>31507</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>156</v>
-      </c>
-      <c r="L5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" t="str">
-        <f>CONCATENATE(C5," ",D5)</f>
-        <v>ANDRES MORENO</v>
-      </c>
-      <c r="N5">
-        <v>753159</v>
-      </c>
-      <c r="O5" t="s">
-        <v>159</v>
-      </c>
-      <c r="P5">
-        <v>35</v>
-      </c>
-      <c r="Q5">
-        <v>1234</v>
-      </c>
-      <c r="R5" t="s">
-        <v>115</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="T5" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="U5" t="str">
-        <f t="shared" si="0"/>
-        <v>(3,'10101,'ANDRES','MORENO','319360','andresmorenopinzon@gmail.com','31507','Suba','Calle 140','','','M','ANDRES MORENO','753159','jac 1','35'),</v>
-      </c>
-      <c r="V5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>10102</v>
-      </c>
-      <c r="C6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6">
-        <v>3178140952</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="11">
-        <v>31507</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" t="s">
-        <v>157</v>
-      </c>
-      <c r="L6" t="s">
-        <v>78</v>
-      </c>
-      <c r="M6" t="str">
-        <f>CONCATENATE(C6," ",D6)</f>
-        <v>DIEGO MENA</v>
-      </c>
-      <c r="N6">
-        <v>258147</v>
-      </c>
-      <c r="O6" t="s">
-        <v>159</v>
-      </c>
-      <c r="P6">
-        <v>38</v>
-      </c>
-      <c r="Q6">
-        <v>1234</v>
-      </c>
-      <c r="R6" t="s">
-        <v>115</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="T6" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="U6" t="str">
-        <f t="shared" si="0"/>
-        <v>(4,'10102,'DIEGO','MENA','3178140952','ingelectronicadj@gmail.com','31507','Suba','Calle 142','','','M','DIEGO MENA','258147','jac 1','38'),</v>
-      </c>
-      <c r="V6" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>10103</v>
-      </c>
-      <c r="C7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7">
-        <v>3143815824</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G7" s="11">
-        <v>31507</v>
-      </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M7" t="str">
-        <f>CONCATENATE(C7," ",D7)</f>
-        <v>NATALIA ORTIZ</v>
-      </c>
-      <c r="N7">
-        <v>258147</v>
-      </c>
-      <c r="O7" t="s">
-        <v>160</v>
-      </c>
-      <c r="P7">
-        <v>38</v>
-      </c>
-      <c r="Q7">
-        <v>1234</v>
-      </c>
-      <c r="R7" t="s">
-        <v>115</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="T7" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="U7" t="str">
-        <f t="shared" si="0"/>
-        <v>(5,'10103,'NATALIA','ORTIZ','3143815824','nataliaortiz@gmail.com','31507','Suba','Calle 144','','Las Brisas','F','NATALIA ORTIZ','258147','jac 3','38'),</v>
-      </c>
-      <c r="V7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O12" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="P13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="P14" t="s">
-        <v>351</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
-    <hyperlink ref="F4" r:id="rId2"/>
-    <hyperlink ref="F5" r:id="rId3"/>
-    <hyperlink ref="F6" r:id="rId4"/>
-    <hyperlink ref="F7" r:id="rId5"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>